--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_0_13.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_0_13.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>601445.9693591598</v>
+        <v>605161.5739228569</v>
       </c>
     </row>
     <row r="7">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7296881.961476631</v>
+        <v>7296881.961476633</v>
       </c>
     </row>
     <row r="11">
@@ -656,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>347.6870633160076</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>236.1929387592884</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -710,13 +712,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>252.3364829231459</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W2" t="n">
         <v>358.909580840975</v>
@@ -741,10 +743,10 @@
         <v>160.0866360314548</v>
       </c>
       <c r="D3" t="n">
-        <v>137.45025063969</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>145.5577298436975</v>
+        <v>18.74155244919571</v>
       </c>
       <c r="F3" t="n">
         <v>133.3468600696244</v>
@@ -783,16 +785,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U3" t="n">
-        <v>158.7034744856297</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V3" t="n">
         <v>226.1116663261494</v>
@@ -804,7 +806,7 @@
         <v>195.9378182409833</v>
       </c>
       <c r="Y3" t="n">
-        <v>190.5961130869169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -829,16 +831,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.7420538716369</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,16 +861,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>148.0265635717656</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>211.5726649703493</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>128.9874563185103</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -893,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G5" t="n">
         <v>411.9429466803539</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I5" t="n">
         <v>171.0890268032919</v>
@@ -941,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,16 +955,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>326.455512674013</v>
       </c>
       <c r="Y5" t="n">
-        <v>87.66779011956791</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="6">
@@ -981,19 +983,19 @@
         <v>137.45025063969</v>
       </c>
       <c r="E6" t="n">
-        <v>145.5577298436975</v>
+        <v>118.1202051047698</v>
       </c>
       <c r="F6" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1035,13 +1037,13 @@
         <v>226.1116663261494</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y6" t="n">
-        <v>170.5741002858144</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="7">
@@ -1066,16 +1068,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.7420538716369</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,19 +1098,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>148.0265635717656</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>230.8471636524779</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>109.7129576363817</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1136,22 +1138,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>235.4921832098738</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1183,25 @@
         <v>89.73190363910518</v>
       </c>
       <c r="S8" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>218.3273332069601</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1232,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I9" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1263,10 +1265,10 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>10.09209246479641</v>
       </c>
       <c r="U9" t="n">
-        <v>158.7034744856297</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V9" t="n">
         <v>226.1116663261494</v>
@@ -1373,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1385,10 +1387,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>47.23830640366815</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,10 +1420,10 @@
         <v>89.73190363910518</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U11" t="n">
         <v>252.3364829231459</v>
@@ -1436,7 +1438,7 @@
         <v>378.2098390737216</v>
       </c>
       <c r="Y11" t="n">
-        <v>256.7036505041601</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1455,19 +1457,19 @@
         <v>137.45025063969</v>
       </c>
       <c r="E12" t="n">
-        <v>118.1202051047698</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1506,10 +1508,10 @@
         <v>216.3098444776729</v>
       </c>
       <c r="V12" t="n">
-        <v>226.1116663261494</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>238.9027100790231</v>
+        <v>10.1518352840637</v>
       </c>
       <c r="X12" t="n">
         <v>195.9378182409833</v>
@@ -1540,16 +1542,16 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.7420538716369</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>157.7789187685189</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>142.7610139533483</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>59.456666199969</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1570,16 +1572,16 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>128.9874563185103</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1616,16 +1618,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>42.9217179793469</v>
       </c>
       <c r="G14" t="n">
         <v>411.9429466803539</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1667,10 +1669,10 @@
         <v>333.6094813630181</v>
       </c>
       <c r="W14" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>184.5942256003278</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1695,16 +1697,16 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F15" t="n">
-        <v>31.74890147707598</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S15" t="n">
         <v>151.2714921173871</v>
@@ -1746,13 +1748,13 @@
         <v>226.1116663261494</v>
       </c>
       <c r="W15" t="n">
-        <v>238.9027100790231</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>195.9378182409833</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>190.5961130869169</v>
+        <v>170.5741002858144</v>
       </c>
     </row>
     <row r="16">
@@ -1777,16 +1779,16 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.7420538716369</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>157.7789187685189</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>142.7610139533483</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>59.456666199969</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1807,16 +1809,16 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>128.9874563185103</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1841,13 +1843,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>53.92137784209268</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1892,16 +1894,16 @@
         <v>89.73190363910518</v>
       </c>
       <c r="S17" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>358.909580840975</v>
@@ -1910,7 +1912,7 @@
         <v>378.2098390737216</v>
       </c>
       <c r="Y17" t="n">
-        <v>218.3273332069601</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="18">
@@ -2056,10 +2058,10 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>243.4438153256983</v>
       </c>
       <c r="V19" t="n">
-        <v>243.4438153256983</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>283.2948374677749</v>
@@ -2078,16 +2080,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>339.7577729022375</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D20" t="n">
         <v>369.0957251250487</v>
       </c>
       <c r="E20" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -2099,7 +2101,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>171.0890268032919</v>
+        <v>164.1639932260696</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2141,13 +2143,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X20" t="n">
         <v>378.2098390737216</v>
       </c>
       <c r="Y20" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2166,19 +2168,19 @@
         <v>137.45025063969</v>
       </c>
       <c r="E21" t="n">
-        <v>145.5577298436975</v>
+        <v>118.1202051047698</v>
       </c>
       <c r="F21" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2217,10 +2219,10 @@
         <v>216.3098444776729</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W21" t="n">
-        <v>10.1518352840637</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X21" t="n">
         <v>195.9378182409833</v>
@@ -2248,16 +2250,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>58.96816892577734</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>167.2305511458285</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>157.7789187685189</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>142.7610139533483</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2293,10 +2295,10 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>242.4203156776819</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2318,13 +2320,13 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C23" t="n">
-        <v>79.82974192480785</v>
+        <v>111.7580237787872</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>410.0096787829314</v>
@@ -2378,7 +2380,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X23" t="n">
         <v>378.2098390737216</v>
@@ -2412,10 +2414,10 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2448,10 +2450,10 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>109.0305713435654</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>216.3098444776729</v>
+        <v>158.7034744856297</v>
       </c>
       <c r="V24" t="n">
         <v>226.1116663261494</v>
@@ -2476,19 +2478,19 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>139.0040357308909</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>76.21326417986977</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2536,13 +2538,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2552,28 +2554,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>118.9334511438657</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>410.0096787829314</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9429466803539</v>
+        <v>1.279039439670443</v>
       </c>
       <c r="H26" t="n">
         <v>329.4930616586638</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2615,13 +2617,13 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="27">
@@ -2649,10 +2651,10 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I27" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,19 +2681,19 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>151.2714921173871</v>
       </c>
       <c r="T27" t="n">
-        <v>186.7982527956746</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>75.13044482508219</v>
       </c>
       <c r="V27" t="n">
-        <v>86.49744856148256</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W27" t="n">
         <v>238.9027100790231</v>
@@ -2758,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>167.1394242513582</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2773,13 +2775,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>14.50387586212008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2792,25 +2794,25 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>369.0957251250487</v>
       </c>
       <c r="E29" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>410.0096787829314</v>
+        <v>286.8406518966925</v>
       </c>
       <c r="G29" t="n">
-        <v>411.9429466803539</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2843,19 +2845,19 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>78.59602910536552</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2889,7 +2891,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,28 +2918,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>186.7982527956746</v>
       </c>
       <c r="U30" t="n">
-        <v>19.7418789003207</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V30" t="n">
         <v>226.1116663261494</v>
       </c>
       <c r="W30" t="n">
-        <v>238.9027100790231</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>195.9378182409833</v>
+        <v>190.4359055322884</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="31">
@@ -2947,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>181.719814997536</v>
+        <v>13.480376214104</v>
       </c>
       <c r="C31" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -3004,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3013,10 +3015,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y31" t="n">
-        <v>177.0990279530006</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3029,7 +3031,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D32" t="n">
         <v>369.0957251250487</v>
@@ -3041,7 +3043,7 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G32" t="n">
-        <v>411.9429466803539</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3074,22 +3076,22 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>181.6218609308314</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>131.6293949447444</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3156,19 +3158,19 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U33" t="n">
-        <v>216.3098444776729</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>168.5052963341061</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W33" t="n">
-        <v>238.9027100790231</v>
+        <v>59.53643965159095</v>
       </c>
       <c r="X33" t="n">
         <v>195.9378182409833</v>
@@ -3190,7 +3192,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>22.6055084580363</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3229,7 +3231,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -3238,7 +3240,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>204.2683477448341</v>
       </c>
       <c r="U34" t="n">
         <v>284.3183371157911</v>
@@ -3253,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3269,7 +3271,7 @@
         <v>378.1144210805207</v>
       </c>
       <c r="D35" t="n">
-        <v>369.0957251250487</v>
+        <v>283.9678958269387</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -3317,10 +3319,10 @@
         <v>185.3566856159496</v>
       </c>
       <c r="T35" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>70.96665296931282</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>333.6094813630181</v>
@@ -3329,7 +3331,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y35" t="n">
         <v>389.6064368699203</v>
@@ -3348,16 +3350,16 @@
         <v>160.0866360314548</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F36" t="n">
         <v>133.3468600696244</v>
       </c>
       <c r="G36" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3390,10 +3392,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>53.96880691389103</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>151.2714921173871</v>
+        <v>49.67353352483909</v>
       </c>
       <c r="T36" t="n">
         <v>186.7982527956746</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>148.0265635717656</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3478,7 +3480,7 @@
         <v>230.8471636524779</v>
       </c>
       <c r="U37" t="n">
-        <v>147.8649255692296</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3487,10 +3489,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>66.95154967741685</v>
       </c>
     </row>
     <row r="38">
@@ -3503,13 +3505,13 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C38" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -3548,28 +3550,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S38" t="n">
         <v>185.3566856159496</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>150.4371126509405</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>325.0888648298624</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="39">
@@ -3591,10 +3593,10 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H39" t="n">
         <v>98.93847887876893</v>
@@ -3630,13 +3632,13 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>16.38345225885477</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>186.7982527956746</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>216.3098444776729</v>
+        <v>158.7034744856297</v>
       </c>
       <c r="V39" t="n">
         <v>226.1116663261494</v>
@@ -3664,16 +3666,16 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>58.06332912686938</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>167.2305511458285</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3715,10 +3717,10 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>268.6107013963115</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3737,13 +3739,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>390.1031041228389</v>
+        <v>11.20063527669365</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E41" t="n">
         <v>390.8378626949542</v>
@@ -3752,7 +3754,7 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G41" t="n">
-        <v>411.9429466803539</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3785,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -3803,7 +3805,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>46.09663431817579</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>389.6064368699203</v>
@@ -3816,16 +3818,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>157.8252483534483</v>
+        <v>125.0121917994721</v>
       </c>
       <c r="C42" t="n">
         <v>160.0866360314548</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F42" t="n">
         <v>133.3468600696244</v>
@@ -3834,10 +3836,10 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3876,16 +3878,16 @@
         <v>216.3098444776729</v>
       </c>
       <c r="V42" t="n">
-        <v>226.1116663261494</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>238.9027100790231</v>
       </c>
       <c r="X42" t="n">
-        <v>195.9378182409833</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>185.3784937848042</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="43">
@@ -3910,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>11.57315202520368</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3940,10 +3942,10 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3952,7 +3954,7 @@
         <v>230.8471636524779</v>
       </c>
       <c r="U43" t="n">
-        <v>284.3183371157911</v>
+        <v>109.7129576363817</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3977,25 +3979,25 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C44" t="n">
-        <v>265.8454702098381</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F44" t="n">
         <v>410.0096787829314</v>
       </c>
       <c r="G44" t="n">
-        <v>411.9429466803539</v>
+        <v>79.8297419248083</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4040,7 +4042,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y44" t="n">
         <v>389.6064368699203</v>
@@ -4059,22 +4061,22 @@
         <v>160.0866360314548</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F45" t="n">
-        <v>133.3468600696244</v>
+        <v>31.74890147707643</v>
       </c>
       <c r="G45" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>53.96880691389086</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4138,16 +4140,16 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>58.06332912686938</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>167.2305511458285</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4189,13 +4191,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>243.4438153256983</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4304,7 +4306,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>42.02425610119923</v>
+        <v>280.6029821206824</v>
       </c>
       <c r="C2" t="n">
         <v>42.02425610119923</v>
@@ -4328,16 +4330,16 @@
         <v>42.02425610119923</v>
       </c>
       <c r="J2" t="n">
-        <v>114.0228003740049</v>
+        <v>114.0228003740045</v>
       </c>
       <c r="K2" t="n">
-        <v>354.1631724187877</v>
+        <v>354.1631724187873</v>
       </c>
       <c r="L2" t="n">
-        <v>702.048545503734</v>
+        <v>702.0485455037335</v>
       </c>
       <c r="M2" t="n">
-        <v>1095.287711756822</v>
+        <v>1095.287711756821</v>
       </c>
       <c r="N2" t="n">
         <v>1473.619070444537</v>
@@ -4358,22 +4360,22 @@
         <v>2010.574518555815</v>
       </c>
       <c r="T2" t="n">
-        <v>1786.215572286826</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="U2" t="n">
-        <v>1531.33023600082</v>
+        <v>1755.689182269809</v>
       </c>
       <c r="V2" t="n">
-        <v>1531.33023600082</v>
+        <v>1418.70990816575</v>
       </c>
       <c r="W2" t="n">
-        <v>1168.795305858421</v>
+        <v>1056.174978023351</v>
       </c>
       <c r="X2" t="n">
-        <v>786.7651653799144</v>
+        <v>674.1448375448444</v>
       </c>
       <c r="Y2" t="n">
-        <v>393.2233099557524</v>
+        <v>280.6029821206824</v>
       </c>
     </row>
     <row r="3">
@@ -4383,13 +4385,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>921.3370166032433</v>
+        <v>654.4012307101202</v>
       </c>
       <c r="C3" t="n">
-        <v>759.6333438441981</v>
+        <v>492.6975579510749</v>
       </c>
       <c r="D3" t="n">
-        <v>620.7947068344101</v>
+        <v>492.6975579510749</v>
       </c>
       <c r="E3" t="n">
         <v>473.7666968912813</v>
@@ -4416,7 +4418,7 @@
         <v>697.5908003646097</v>
       </c>
       <c r="M3" t="n">
-        <v>1182.624153874836</v>
+        <v>737.8796590913968</v>
       </c>
       <c r="N3" t="n">
         <v>1249.145305214519</v>
@@ -4431,28 +4433,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R3" t="n">
-        <v>2101.212805059961</v>
+        <v>2041.428536154907</v>
       </c>
       <c r="S3" t="n">
-        <v>2101.212805059961</v>
+        <v>1888.629049167647</v>
       </c>
       <c r="T3" t="n">
-        <v>2101.212805059961</v>
+        <v>1699.943945333632</v>
       </c>
       <c r="U3" t="n">
-        <v>1940.906265175487</v>
+        <v>1481.449152931943</v>
       </c>
       <c r="V3" t="n">
-        <v>1712.510642623821</v>
+        <v>1253.053530380276</v>
       </c>
       <c r="W3" t="n">
-        <v>1471.194773857131</v>
+        <v>1011.737661613587</v>
       </c>
       <c r="X3" t="n">
-        <v>1273.277785734925</v>
+        <v>813.8206734913811</v>
       </c>
       <c r="Y3" t="n">
-        <v>1080.756459384504</v>
+        <v>813.8206734913811</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>42.02425610119923</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="C4" t="n">
-        <v>42.02425610119923</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="D4" t="n">
-        <v>42.02425610119923</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="E4" t="n">
-        <v>42.02425610119923</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="F4" t="n">
-        <v>42.02425610119923</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="G4" t="n">
-        <v>42.02425610119923</v>
+        <v>405.6571843050742</v>
       </c>
       <c r="H4" t="n">
-        <v>42.02425610119923</v>
+        <v>246.284539084348</v>
       </c>
       <c r="I4" t="n">
-        <v>42.02425610119923</v>
+        <v>102.0814946870265</v>
       </c>
       <c r="J4" t="n">
         <v>42.02425610119923</v>
@@ -4507,31 +4509,31 @@
         <v>574.0835013471317</v>
       </c>
       <c r="Q4" t="n">
-        <v>535.5461600008207</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="R4" t="n">
-        <v>386.0243786151989</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="S4" t="n">
-        <v>172.3146160188864</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="T4" t="n">
-        <v>42.02425610119923</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="U4" t="n">
-        <v>42.02425610119923</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="V4" t="n">
-        <v>42.02425610119923</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="W4" t="n">
-        <v>42.02425610119923</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="X4" t="n">
-        <v>42.02425610119923</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="Y4" t="n">
-        <v>42.02425610119923</v>
+        <v>574.0835013471317</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1003.769406210992</v>
+        <v>1377.917906530736</v>
       </c>
       <c r="C5" t="n">
-        <v>1003.769406210992</v>
+        <v>1377.917906530736</v>
       </c>
       <c r="D5" t="n">
-        <v>630.9454414382152</v>
+        <v>1377.917906530736</v>
       </c>
       <c r="E5" t="n">
-        <v>630.9454414382152</v>
+        <v>1377.917906530736</v>
       </c>
       <c r="F5" t="n">
-        <v>630.9454414382152</v>
+        <v>963.766715840906</v>
       </c>
       <c r="G5" t="n">
-        <v>214.8414548924032</v>
+        <v>547.662729295094</v>
       </c>
       <c r="H5" t="n">
         <v>214.8414548924032</v>
@@ -4589,28 +4591,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R5" t="n">
-        <v>2010.574518555815</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S5" t="n">
-        <v>1823.345543186168</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="T5" t="n">
-        <v>1823.345543186168</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="U5" t="n">
-        <v>1823.345543186168</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="V5" t="n">
-        <v>1486.36626908211</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="W5" t="n">
-        <v>1486.36626908211</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="X5" t="n">
-        <v>1486.36626908211</v>
+        <v>1771.459761954898</v>
       </c>
       <c r="Y5" t="n">
-        <v>1397.812945729011</v>
+        <v>1377.917906530736</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>921.3370166032433</v>
+        <v>461.879904359699</v>
       </c>
       <c r="C6" t="n">
-        <v>759.6333438441981</v>
+        <v>300.1762316006536</v>
       </c>
       <c r="D6" t="n">
-        <v>620.7947068344101</v>
+        <v>161.3375945908657</v>
       </c>
       <c r="E6" t="n">
-        <v>473.7666968912813</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F6" t="n">
-        <v>339.0728988411556</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G6" t="n">
-        <v>210.3443988644402</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H6" t="n">
-        <v>110.4065414111382</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I6" t="n">
         <v>42.02425610119923</v>
@@ -4656,10 +4658,10 @@
         <v>953.1336013146474</v>
       </c>
       <c r="N6" t="n">
-        <v>1464.39924743777</v>
+        <v>1406.916935000113</v>
       </c>
       <c r="O6" t="n">
-        <v>1856.59919822192</v>
+        <v>1799.116885784264</v>
       </c>
       <c r="P6" t="n">
         <v>2101.212805059961</v>
@@ -4683,13 +4685,13 @@
         <v>1253.053530380276</v>
       </c>
       <c r="W6" t="n">
-        <v>1253.053530380276</v>
+        <v>1011.737661613587</v>
       </c>
       <c r="X6" t="n">
-        <v>1253.053530380276</v>
+        <v>813.8206734913811</v>
       </c>
       <c r="Y6" t="n">
-        <v>1080.756459384504</v>
+        <v>621.2993471409599</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>42.02425610119923</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="C7" t="n">
-        <v>42.02425610119923</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="D7" t="n">
-        <v>42.02425610119923</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="E7" t="n">
-        <v>42.02425610119923</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="F7" t="n">
-        <v>42.02425610119923</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="G7" t="n">
-        <v>42.02425610119923</v>
+        <v>405.6571843050742</v>
       </c>
       <c r="H7" t="n">
-        <v>42.02425610119923</v>
+        <v>246.284539084348</v>
       </c>
       <c r="I7" t="n">
-        <v>42.02425610119923</v>
+        <v>102.0814946870265</v>
       </c>
       <c r="J7" t="n">
         <v>42.02425610119923</v>
@@ -4744,31 +4746,31 @@
         <v>574.0835013471317</v>
       </c>
       <c r="Q7" t="n">
-        <v>535.5461600008207</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="R7" t="n">
-        <v>386.0243786151989</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="S7" t="n">
-        <v>386.0243786151989</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="T7" t="n">
-        <v>152.8454254308777</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="U7" t="n">
-        <v>42.02425610119923</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="V7" t="n">
-        <v>42.02425610119923</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="W7" t="n">
-        <v>42.02425610119923</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="X7" t="n">
-        <v>42.02425610119923</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="Y7" t="n">
-        <v>42.02425610119923</v>
+        <v>574.0835013471317</v>
       </c>
     </row>
     <row r="8">
@@ -4778,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>42.02425610119923</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="C8" t="n">
-        <v>42.02425610119923</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="D8" t="n">
-        <v>42.02425610119923</v>
+        <v>1772.703626424629</v>
       </c>
       <c r="E8" t="n">
-        <v>42.02425610119923</v>
+        <v>1377.917906530736</v>
       </c>
       <c r="F8" t="n">
-        <v>42.02425610119923</v>
+        <v>963.766715840906</v>
       </c>
       <c r="G8" t="n">
-        <v>42.02425610119923</v>
+        <v>547.662729295094</v>
       </c>
       <c r="H8" t="n">
-        <v>42.02425610119923</v>
+        <v>214.8414548924032</v>
       </c>
       <c r="I8" t="n">
         <v>42.02425610119923</v>
       </c>
       <c r="J8" t="n">
-        <v>114.0228003740049</v>
+        <v>114.0228003740045</v>
       </c>
       <c r="K8" t="n">
-        <v>354.1631724187877</v>
+        <v>354.1631724187873</v>
       </c>
       <c r="L8" t="n">
-        <v>702.048545503734</v>
+        <v>702.0485455037335</v>
       </c>
       <c r="M8" t="n">
-        <v>1095.287711756822</v>
+        <v>1095.287711756821</v>
       </c>
       <c r="N8" t="n">
-        <v>1473.619070444538</v>
+        <v>1473.619070444537</v>
       </c>
       <c r="O8" t="n">
         <v>1778.623654917371</v>
@@ -4829,25 +4831,25 @@
         <v>2010.574518555815</v>
       </c>
       <c r="S8" t="n">
-        <v>1823.345543186168</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="T8" t="n">
-        <v>1598.98659691718</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="U8" t="n">
-        <v>1344.101260631174</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="V8" t="n">
-        <v>1007.121986527115</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="W8" t="n">
-        <v>644.5870563847161</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="X8" t="n">
-        <v>262.5569159062094</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="Y8" t="n">
-        <v>42.02425610119923</v>
+        <v>2010.574518555815</v>
       </c>
     </row>
     <row r="9">
@@ -4857,46 +4859,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>921.3370166032433</v>
+        <v>852.9547312933042</v>
       </c>
       <c r="C9" t="n">
-        <v>759.6333438441981</v>
+        <v>691.251058534259</v>
       </c>
       <c r="D9" t="n">
-        <v>620.7947068344101</v>
+        <v>552.412421524471</v>
       </c>
       <c r="E9" t="n">
-        <v>473.7666968912813</v>
+        <v>405.3844115813423</v>
       </c>
       <c r="F9" t="n">
-        <v>339.0728988411556</v>
+        <v>270.6906135312166</v>
       </c>
       <c r="G9" t="n">
-        <v>210.3443988644402</v>
+        <v>141.9621135545012</v>
       </c>
       <c r="H9" t="n">
-        <v>110.4065414111382</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I9" t="n">
         <v>42.02425610119923</v>
       </c>
       <c r="J9" t="n">
-        <v>102.2784026343054</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="K9" t="n">
-        <v>189.1203796867518</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="L9" t="n">
-        <v>554.9422248568675</v>
+        <v>252.8463055811703</v>
       </c>
       <c r="M9" t="n">
-        <v>1039.975578367094</v>
+        <v>737.8796590913968</v>
       </c>
       <c r="N9" t="n">
-        <v>1551.241224490216</v>
+        <v>1249.145305214519</v>
       </c>
       <c r="O9" t="n">
-        <v>1943.441175274367</v>
+        <v>1641.34525599867</v>
       </c>
       <c r="P9" t="n">
         <v>1943.441175274367</v>
@@ -4911,22 +4913,22 @@
         <v>2101.212805059961</v>
       </c>
       <c r="T9" t="n">
-        <v>2101.212805059961</v>
+        <v>2091.018772267238</v>
       </c>
       <c r="U9" t="n">
-        <v>1940.906265175487</v>
+        <v>1872.523979865548</v>
       </c>
       <c r="V9" t="n">
-        <v>1712.510642623821</v>
+        <v>1644.128357313882</v>
       </c>
       <c r="W9" t="n">
-        <v>1471.194773857131</v>
+        <v>1402.812488547192</v>
       </c>
       <c r="X9" t="n">
-        <v>1273.277785734925</v>
+        <v>1204.895500424986</v>
       </c>
       <c r="Y9" t="n">
-        <v>1080.756459384504</v>
+        <v>1012.374174074565</v>
       </c>
     </row>
     <row r="10">
@@ -5015,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>414.8482208739757</v>
+        <v>262.5569159062094</v>
       </c>
       <c r="C11" t="n">
-        <v>414.8482208739757</v>
+        <v>262.5569159062094</v>
       </c>
       <c r="D11" t="n">
-        <v>42.02425610119923</v>
+        <v>262.5569159062094</v>
       </c>
       <c r="E11" t="n">
-        <v>42.02425610119923</v>
+        <v>262.5569159062094</v>
       </c>
       <c r="F11" t="n">
-        <v>42.02425610119923</v>
+        <v>262.5569159062094</v>
       </c>
       <c r="G11" t="n">
-        <v>42.02425610119923</v>
+        <v>262.5569159062094</v>
       </c>
       <c r="H11" t="n">
-        <v>42.02425610119923</v>
+        <v>214.8414548924032</v>
       </c>
       <c r="I11" t="n">
         <v>42.02425610119923</v>
@@ -5066,25 +5068,25 @@
         <v>2010.574518555815</v>
       </c>
       <c r="S11" t="n">
-        <v>2010.574518555815</v>
+        <v>1823.345543186168</v>
       </c>
       <c r="T11" t="n">
-        <v>2010.574518555815</v>
+        <v>1598.98659691718</v>
       </c>
       <c r="U11" t="n">
-        <v>1755.689182269809</v>
+        <v>1344.101260631174</v>
       </c>
       <c r="V11" t="n">
-        <v>1418.70990816575</v>
+        <v>1007.121986527115</v>
       </c>
       <c r="W11" t="n">
-        <v>1056.174978023351</v>
+        <v>644.5870563847161</v>
       </c>
       <c r="X11" t="n">
-        <v>674.1448375448444</v>
+        <v>262.5569159062094</v>
       </c>
       <c r="Y11" t="n">
-        <v>414.8482208739757</v>
+        <v>262.5569159062094</v>
       </c>
     </row>
     <row r="12">
@@ -5094,49 +5096,49 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>461.879904359699</v>
+        <v>921.3370166032433</v>
       </c>
       <c r="C12" t="n">
-        <v>300.1762316006536</v>
+        <v>759.6333438441981</v>
       </c>
       <c r="D12" t="n">
-        <v>161.3375945908657</v>
+        <v>620.7947068344101</v>
       </c>
       <c r="E12" t="n">
-        <v>42.02425610119923</v>
+        <v>473.7666968912813</v>
       </c>
       <c r="F12" t="n">
-        <v>42.02425610119923</v>
+        <v>339.0728988411556</v>
       </c>
       <c r="G12" t="n">
-        <v>42.02425610119923</v>
+        <v>210.3443988644402</v>
       </c>
       <c r="H12" t="n">
-        <v>42.02425610119923</v>
+        <v>110.4065414111382</v>
       </c>
       <c r="I12" t="n">
         <v>42.02425610119923</v>
       </c>
       <c r="J12" t="n">
-        <v>42.02425610119923</v>
+        <v>102.2784026343054</v>
       </c>
       <c r="K12" t="n">
-        <v>271.5148086613879</v>
+        <v>331.768955194494</v>
       </c>
       <c r="L12" t="n">
-        <v>637.3366538315036</v>
+        <v>697.5908003646097</v>
       </c>
       <c r="M12" t="n">
-        <v>1122.37000734173</v>
+        <v>737.8796590913968</v>
       </c>
       <c r="N12" t="n">
-        <v>1633.635653464852</v>
+        <v>1249.145305214519</v>
       </c>
       <c r="O12" t="n">
-        <v>2025.835604249003</v>
+        <v>1641.34525599867</v>
       </c>
       <c r="P12" t="n">
-        <v>2101.212805059961</v>
+        <v>1943.441175274367</v>
       </c>
       <c r="Q12" t="n">
         <v>2101.212805059961</v>
@@ -5154,16 +5156,16 @@
         <v>1481.449152931943</v>
       </c>
       <c r="V12" t="n">
-        <v>1253.053530380276</v>
+        <v>1481.449152931943</v>
       </c>
       <c r="W12" t="n">
-        <v>1011.737661613587</v>
+        <v>1471.194773857131</v>
       </c>
       <c r="X12" t="n">
-        <v>813.8206734913811</v>
+        <v>1273.277785734925</v>
       </c>
       <c r="Y12" t="n">
-        <v>621.2993471409599</v>
+        <v>1080.756459384504</v>
       </c>
     </row>
     <row r="13">
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="C13" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="D13" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="E13" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F13" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G13" t="n">
-        <v>405.6571843050742</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H13" t="n">
-        <v>246.284539084348</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I13" t="n">
-        <v>102.0814946870265</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J13" t="n">
         <v>42.02425610119923</v>
@@ -5218,31 +5220,31 @@
         <v>574.0835013471317</v>
       </c>
       <c r="Q13" t="n">
-        <v>574.0835013471317</v>
+        <v>535.5461600008207</v>
       </c>
       <c r="R13" t="n">
-        <v>574.0835013471317</v>
+        <v>386.0243786151989</v>
       </c>
       <c r="S13" t="n">
-        <v>574.0835013471317</v>
+        <v>172.3146160188864</v>
       </c>
       <c r="T13" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="U13" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="V13" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="W13" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="X13" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="Y13" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
     </row>
     <row r="14">
@@ -5252,31 +5254,31 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>458.1282426470112</v>
+        <v>1007.121986527115</v>
       </c>
       <c r="C14" t="n">
-        <v>458.1282426470112</v>
+        <v>1007.121986527115</v>
       </c>
       <c r="D14" t="n">
-        <v>458.1282426470112</v>
+        <v>1007.121986527115</v>
       </c>
       <c r="E14" t="n">
-        <v>458.1282426470112</v>
+        <v>1007.121986527115</v>
       </c>
       <c r="F14" t="n">
-        <v>458.1282426470112</v>
+        <v>963.766715840906</v>
       </c>
       <c r="G14" t="n">
-        <v>42.02425610119923</v>
+        <v>547.662729295094</v>
       </c>
       <c r="H14" t="n">
-        <v>42.02425610119923</v>
+        <v>214.8414548924033</v>
       </c>
       <c r="I14" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119928</v>
       </c>
       <c r="J14" t="n">
-        <v>114.0228003740049</v>
+        <v>114.022800374005</v>
       </c>
       <c r="K14" t="n">
         <v>354.1631724187877</v>
@@ -5315,13 +5317,13 @@
         <v>1007.121986527115</v>
       </c>
       <c r="W14" t="n">
-        <v>644.5870563847161</v>
+        <v>1007.121986527115</v>
       </c>
       <c r="X14" t="n">
-        <v>458.1282426470112</v>
+        <v>1007.121986527115</v>
       </c>
       <c r="Y14" t="n">
-        <v>458.1282426470112</v>
+        <v>1007.121986527115</v>
       </c>
     </row>
     <row r="15">
@@ -5331,25 +5333,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>521.6641732647531</v>
+        <v>921.3370166032433</v>
       </c>
       <c r="C15" t="n">
-        <v>359.9605005057078</v>
+        <v>759.6333438441981</v>
       </c>
       <c r="D15" t="n">
-        <v>221.1218634959199</v>
+        <v>620.7947068344101</v>
       </c>
       <c r="E15" t="n">
-        <v>74.09385355279113</v>
+        <v>473.7666968912813</v>
       </c>
       <c r="F15" t="n">
-        <v>42.02425610119923</v>
+        <v>339.0728988411556</v>
       </c>
       <c r="G15" t="n">
-        <v>42.02425610119923</v>
+        <v>210.3443988644402</v>
       </c>
       <c r="H15" t="n">
-        <v>42.02425610119923</v>
+        <v>110.4065414111382</v>
       </c>
       <c r="I15" t="n">
         <v>42.02425610119923</v>
@@ -5358,49 +5360,49 @@
         <v>42.02425610119923</v>
       </c>
       <c r="K15" t="n">
-        <v>271.5148086613879</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="L15" t="n">
-        <v>637.3366538315036</v>
+        <v>407.8461012713149</v>
       </c>
       <c r="M15" t="n">
-        <v>1122.37000734173</v>
+        <v>892.8794547815413</v>
       </c>
       <c r="N15" t="n">
-        <v>1406.916935000113</v>
+        <v>1404.145100904663</v>
       </c>
       <c r="O15" t="n">
-        <v>1799.116885784264</v>
+        <v>1796.345051688814</v>
       </c>
       <c r="P15" t="n">
-        <v>2101.212805059961</v>
+        <v>2098.440970964512</v>
       </c>
       <c r="Q15" t="n">
         <v>2101.212805059961</v>
       </c>
       <c r="R15" t="n">
-        <v>2101.212805059961</v>
+        <v>2041.428536154907</v>
       </c>
       <c r="S15" t="n">
-        <v>1948.413318072701</v>
+        <v>1888.629049167647</v>
       </c>
       <c r="T15" t="n">
-        <v>1759.728214238687</v>
+        <v>1699.943945333632</v>
       </c>
       <c r="U15" t="n">
-        <v>1541.233421836997</v>
+        <v>1481.449152931943</v>
       </c>
       <c r="V15" t="n">
-        <v>1312.837799285331</v>
+        <v>1253.053530380276</v>
       </c>
       <c r="W15" t="n">
-        <v>1071.521930518641</v>
+        <v>1253.053530380276</v>
       </c>
       <c r="X15" t="n">
-        <v>873.6049423964351</v>
+        <v>1253.053530380276</v>
       </c>
       <c r="Y15" t="n">
-        <v>681.083616046014</v>
+        <v>1080.756459384504</v>
       </c>
     </row>
     <row r="16">
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="C16" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="D16" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="E16" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F16" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G16" t="n">
-        <v>405.6571843050742</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H16" t="n">
-        <v>246.284539084348</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I16" t="n">
-        <v>102.0814946870265</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J16" t="n">
         <v>42.02425610119923</v>
@@ -5455,31 +5457,31 @@
         <v>574.0835013471317</v>
       </c>
       <c r="Q16" t="n">
-        <v>574.0835013471317</v>
+        <v>535.5461600008207</v>
       </c>
       <c r="R16" t="n">
-        <v>574.0835013471317</v>
+        <v>386.0243786151989</v>
       </c>
       <c r="S16" t="n">
-        <v>574.0835013471317</v>
+        <v>172.3146160188864</v>
       </c>
       <c r="T16" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="U16" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="V16" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="W16" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="X16" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="Y16" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
     </row>
     <row r="17">
@@ -5489,10 +5491,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>42.02425610119923</v>
+        <v>478.4240529927279</v>
       </c>
       <c r="C17" t="n">
-        <v>42.02425610119923</v>
+        <v>96.49029432553527</v>
       </c>
       <c r="D17" t="n">
         <v>42.02425610119923</v>
@@ -5540,25 +5542,25 @@
         <v>2010.574518555815</v>
       </c>
       <c r="S17" t="n">
-        <v>1823.345543186168</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="T17" t="n">
-        <v>1598.98659691718</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="U17" t="n">
-        <v>1344.101260631174</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="V17" t="n">
-        <v>1007.121986527115</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="W17" t="n">
-        <v>644.5870563847161</v>
+        <v>1648.039588413416</v>
       </c>
       <c r="X17" t="n">
-        <v>262.5569159062094</v>
+        <v>1266.009447934909</v>
       </c>
       <c r="Y17" t="n">
-        <v>42.02425610119923</v>
+        <v>872.4675925107471</v>
       </c>
     </row>
     <row r="18">
@@ -5592,22 +5594,22 @@
         <v>42.02425610119923</v>
       </c>
       <c r="J18" t="n">
-        <v>102.2784026343054</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="K18" t="n">
-        <v>331.768955194494</v>
+        <v>271.5148086613879</v>
       </c>
       <c r="L18" t="n">
-        <v>697.5908003646097</v>
+        <v>637.3366538315036</v>
       </c>
       <c r="M18" t="n">
-        <v>1182.624153874836</v>
+        <v>1122.37000734173</v>
       </c>
       <c r="N18" t="n">
-        <v>1693.889799997958</v>
+        <v>1633.635653464852</v>
       </c>
       <c r="O18" t="n">
-        <v>2086.089750782109</v>
+        <v>2025.835604249003</v>
       </c>
       <c r="P18" t="n">
         <v>2101.212805059961</v>
@@ -5704,7 +5706,7 @@
         <v>574.0835013471317</v>
       </c>
       <c r="U19" t="n">
-        <v>574.0835013471317</v>
+        <v>328.1806575838001</v>
       </c>
       <c r="V19" t="n">
         <v>328.1806575838001</v>
@@ -5726,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>982.4511395590728</v>
+        <v>962.6041949210367</v>
       </c>
       <c r="C20" t="n">
-        <v>982.4511395590728</v>
+        <v>580.6704362538439</v>
       </c>
       <c r="D20" t="n">
-        <v>609.6271747862963</v>
+        <v>207.8464714810675</v>
       </c>
       <c r="E20" t="n">
-        <v>214.8414548924032</v>
+        <v>207.8464714810675</v>
       </c>
       <c r="F20" t="n">
-        <v>214.8414548924032</v>
+        <v>207.8464714810675</v>
       </c>
       <c r="G20" t="n">
-        <v>214.8414548924032</v>
+        <v>207.8464714810675</v>
       </c>
       <c r="H20" t="n">
-        <v>214.8414548924032</v>
+        <v>207.8464714810675</v>
       </c>
       <c r="I20" t="n">
         <v>42.02425610119923</v>
@@ -5753,16 +5755,16 @@
         <v>114.0228003740049</v>
       </c>
       <c r="K20" t="n">
-        <v>354.1631724187877</v>
+        <v>354.1631724187873</v>
       </c>
       <c r="L20" t="n">
-        <v>702.048545503734</v>
+        <v>702.0485455037335</v>
       </c>
       <c r="M20" t="n">
-        <v>1095.287711756822</v>
+        <v>1095.287711756821</v>
       </c>
       <c r="N20" t="n">
-        <v>1473.619070444538</v>
+        <v>1473.619070444537</v>
       </c>
       <c r="O20" t="n">
         <v>1778.623654917371</v>
@@ -5789,13 +5791,13 @@
         <v>2101.212805059961</v>
       </c>
       <c r="W20" t="n">
-        <v>2101.212805059961</v>
+        <v>1738.677874917562</v>
       </c>
       <c r="X20" t="n">
-        <v>1719.182664581455</v>
+        <v>1356.647734439056</v>
       </c>
       <c r="Y20" t="n">
-        <v>1325.640809157293</v>
+        <v>1356.647734439056</v>
       </c>
     </row>
     <row r="21">
@@ -5805,25 +5807,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>921.3370166032433</v>
+        <v>461.879904359699</v>
       </c>
       <c r="C21" t="n">
-        <v>759.6333438441981</v>
+        <v>300.1762316006536</v>
       </c>
       <c r="D21" t="n">
-        <v>620.7947068344101</v>
+        <v>161.3375945908657</v>
       </c>
       <c r="E21" t="n">
-        <v>473.7666968912813</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F21" t="n">
-        <v>339.0728988411556</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G21" t="n">
-        <v>210.3443988644402</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H21" t="n">
-        <v>110.4065414111382</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I21" t="n">
         <v>42.02425610119923</v>
@@ -5844,10 +5846,10 @@
         <v>1693.889799997958</v>
       </c>
       <c r="O21" t="n">
-        <v>1693.889799997958</v>
+        <v>2086.089750782109</v>
       </c>
       <c r="P21" t="n">
-        <v>1943.441175274367</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="Q21" t="n">
         <v>2101.212805059961</v>
@@ -5865,16 +5867,16 @@
         <v>1481.449152931943</v>
       </c>
       <c r="V21" t="n">
-        <v>1481.449152931943</v>
+        <v>1253.053530380276</v>
       </c>
       <c r="W21" t="n">
-        <v>1471.194773857131</v>
+        <v>1011.737661613587</v>
       </c>
       <c r="X21" t="n">
-        <v>1273.277785734925</v>
+        <v>813.8206734913811</v>
       </c>
       <c r="Y21" t="n">
-        <v>1080.756459384504</v>
+        <v>621.2993471409599</v>
       </c>
     </row>
     <row r="22">
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2101.212805059961</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="C22" t="n">
-        <v>2101.212805059961</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="D22" t="n">
-        <v>2101.212805059961</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="E22" t="n">
-        <v>2101.212805059961</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="F22" t="n">
-        <v>2041.648998064227</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="G22" t="n">
-        <v>1872.729249432077</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="H22" t="n">
-        <v>1713.35660421135</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="I22" t="n">
         <v>1569.153559814029</v>
@@ -5941,19 +5943,19 @@
         <v>2101.212805059961</v>
       </c>
       <c r="U22" t="n">
-        <v>2101.212805059961</v>
+        <v>1814.022565549061</v>
       </c>
       <c r="V22" t="n">
-        <v>2101.212805059961</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="W22" t="n">
-        <v>2101.212805059961</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="X22" t="n">
-        <v>2101.212805059961</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="Y22" t="n">
-        <v>2101.212805059961</v>
+        <v>1569.153559814029</v>
       </c>
     </row>
     <row r="23">
@@ -5963,13 +5965,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>931.5972696392735</v>
+        <v>569.0623394968745</v>
       </c>
       <c r="C23" t="n">
-        <v>850.9611666849221</v>
+        <v>456.1754467910289</v>
       </c>
       <c r="D23" t="n">
-        <v>850.9611666849221</v>
+        <v>456.1754467910289</v>
       </c>
       <c r="E23" t="n">
         <v>456.1754467910289</v>
@@ -5984,22 +5986,22 @@
         <v>42.02425610119923</v>
       </c>
       <c r="I23" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119884</v>
       </c>
       <c r="J23" t="n">
-        <v>114.0228003740049</v>
+        <v>114.0228003740045</v>
       </c>
       <c r="K23" t="n">
-        <v>354.1631724187877</v>
+        <v>354.1631724187873</v>
       </c>
       <c r="L23" t="n">
-        <v>702.048545503734</v>
+        <v>702.0485455037335</v>
       </c>
       <c r="M23" t="n">
-        <v>1095.287711756822</v>
+        <v>1095.287711756821</v>
       </c>
       <c r="N23" t="n">
-        <v>1473.619070444538</v>
+        <v>1473.619070444537</v>
       </c>
       <c r="O23" t="n">
         <v>1778.623654917371</v>
@@ -6026,13 +6028,13 @@
         <v>2101.212805059961</v>
       </c>
       <c r="W23" t="n">
-        <v>2101.212805059961</v>
+        <v>1738.677874917562</v>
       </c>
       <c r="X23" t="n">
-        <v>1719.182664581455</v>
+        <v>1356.647734439056</v>
       </c>
       <c r="Y23" t="n">
-        <v>1325.640809157293</v>
+        <v>963.1058790148937</v>
       </c>
     </row>
     <row r="24">
@@ -6042,40 +6044,40 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>753.0168738400023</v>
+        <v>921.3370166032433</v>
       </c>
       <c r="C24" t="n">
-        <v>591.313201080957</v>
+        <v>759.6333438441981</v>
       </c>
       <c r="D24" t="n">
-        <v>452.4745640711691</v>
+        <v>620.7947068344101</v>
       </c>
       <c r="E24" t="n">
-        <v>305.4465541280403</v>
+        <v>473.7666968912813</v>
       </c>
       <c r="F24" t="n">
-        <v>170.7527560779147</v>
+        <v>339.0728988411556</v>
       </c>
       <c r="G24" t="n">
-        <v>42.02425610119923</v>
+        <v>210.3443988644402</v>
       </c>
       <c r="H24" t="n">
-        <v>42.02425610119923</v>
+        <v>110.4065414111382</v>
       </c>
       <c r="I24" t="n">
         <v>42.02425610119923</v>
       </c>
       <c r="J24" t="n">
-        <v>42.02425610119923</v>
+        <v>102.2784026343054</v>
       </c>
       <c r="K24" t="n">
-        <v>271.5148086613879</v>
+        <v>331.768955194494</v>
       </c>
       <c r="L24" t="n">
-        <v>637.3366538315036</v>
+        <v>410.6179353667646</v>
       </c>
       <c r="M24" t="n">
-        <v>1122.37000734173</v>
+        <v>895.6512888769911</v>
       </c>
       <c r="N24" t="n">
         <v>1406.916935000113</v>
@@ -6096,22 +6098,22 @@
         <v>2101.212805059961</v>
       </c>
       <c r="T24" t="n">
-        <v>1991.080914813936</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="U24" t="n">
-        <v>1772.586122412246</v>
+        <v>1940.906265175487</v>
       </c>
       <c r="V24" t="n">
-        <v>1544.19049986058</v>
+        <v>1712.510642623821</v>
       </c>
       <c r="W24" t="n">
-        <v>1302.87463109389</v>
+        <v>1471.194773857131</v>
       </c>
       <c r="X24" t="n">
-        <v>1104.957642971684</v>
+        <v>1273.277785734925</v>
       </c>
       <c r="Y24" t="n">
-        <v>912.4363166212631</v>
+        <v>1080.756459384504</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1879.177646252238</v>
+        <v>287.9270998645308</v>
       </c>
       <c r="C25" t="n">
-        <v>1709.561676713919</v>
+        <v>287.9270998645308</v>
       </c>
       <c r="D25" t="n">
-        <v>1569.153559814029</v>
+        <v>287.9270998645308</v>
       </c>
       <c r="E25" t="n">
-        <v>1569.153559814029</v>
+        <v>287.9270998645308</v>
       </c>
       <c r="F25" t="n">
-        <v>1569.153559814029</v>
+        <v>210.9440047333492</v>
       </c>
       <c r="G25" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H25" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I25" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J25" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="K25" t="n">
-        <v>1602.757747558672</v>
+        <v>75.62844384584264</v>
       </c>
       <c r="L25" t="n">
-        <v>1703.364826958932</v>
+        <v>176.2355232461022</v>
       </c>
       <c r="M25" t="n">
-        <v>1821.358333086534</v>
+        <v>294.2290293737039</v>
       </c>
       <c r="N25" t="n">
-        <v>1939.780674836134</v>
+        <v>412.6513711233043</v>
       </c>
       <c r="O25" t="n">
-        <v>2038.244321331824</v>
+        <v>511.1150176189939</v>
       </c>
       <c r="P25" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="Q25" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="R25" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="S25" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="T25" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="U25" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="V25" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="W25" t="n">
-        <v>2101.212805059961</v>
+        <v>287.9270998645308</v>
       </c>
       <c r="X25" t="n">
-        <v>2101.212805059961</v>
+        <v>287.9270998645308</v>
       </c>
       <c r="Y25" t="n">
-        <v>1879.177646252238</v>
+        <v>287.9270998645308</v>
       </c>
     </row>
     <row r="26">
@@ -6200,43 +6202,43 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1707.169265541942</v>
+        <v>963.1058790148937</v>
       </c>
       <c r="C26" t="n">
-        <v>1325.235506874749</v>
+        <v>963.1058790148937</v>
       </c>
       <c r="D26" t="n">
-        <v>1325.235506874749</v>
+        <v>963.1058790148937</v>
       </c>
       <c r="E26" t="n">
-        <v>1205.100707739532</v>
+        <v>963.1058790148937</v>
       </c>
       <c r="F26" t="n">
-        <v>790.949517049702</v>
+        <v>548.9546883250641</v>
       </c>
       <c r="G26" t="n">
-        <v>374.84553050389</v>
+        <v>547.662729295094</v>
       </c>
       <c r="H26" t="n">
-        <v>42.02425610119923</v>
+        <v>214.8414548924032</v>
       </c>
       <c r="I26" t="n">
         <v>42.02425610119923</v>
       </c>
       <c r="J26" t="n">
-        <v>114.0228003740045</v>
+        <v>114.0228003740049</v>
       </c>
       <c r="K26" t="n">
-        <v>354.1631724187873</v>
+        <v>354.1631724187877</v>
       </c>
       <c r="L26" t="n">
-        <v>702.0485455037335</v>
+        <v>702.048545503734</v>
       </c>
       <c r="M26" t="n">
-        <v>1095.287711756821</v>
+        <v>1095.287711756822</v>
       </c>
       <c r="N26" t="n">
-        <v>1473.619070444537</v>
+        <v>1473.619070444538</v>
       </c>
       <c r="O26" t="n">
         <v>1778.623654917371</v>
@@ -6263,13 +6265,13 @@
         <v>2101.212805059961</v>
       </c>
       <c r="W26" t="n">
-        <v>2101.212805059961</v>
+        <v>1738.677874917562</v>
       </c>
       <c r="X26" t="n">
-        <v>2101.212805059961</v>
+        <v>1356.647734439056</v>
       </c>
       <c r="Y26" t="n">
-        <v>2101.212805059961</v>
+        <v>963.1058790148937</v>
       </c>
     </row>
     <row r="27">
@@ -6279,25 +6281,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>821.3991591499413</v>
+        <v>852.9547312933042</v>
       </c>
       <c r="C27" t="n">
-        <v>659.695486390896</v>
+        <v>691.251058534259</v>
       </c>
       <c r="D27" t="n">
-        <v>520.8568493811081</v>
+        <v>552.412421524471</v>
       </c>
       <c r="E27" t="n">
-        <v>373.8288394379794</v>
+        <v>405.3844115813423</v>
       </c>
       <c r="F27" t="n">
-        <v>239.1350413878537</v>
+        <v>270.6906135312166</v>
       </c>
       <c r="G27" t="n">
-        <v>110.4065414111382</v>
+        <v>141.9621135545012</v>
       </c>
       <c r="H27" t="n">
-        <v>110.4065414111382</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I27" t="n">
         <v>42.02425610119923</v>
@@ -6306,19 +6308,19 @@
         <v>102.2784026343054</v>
       </c>
       <c r="K27" t="n">
-        <v>102.2784026343054</v>
+        <v>331.768955194494</v>
       </c>
       <c r="L27" t="n">
-        <v>410.6179353667646</v>
+        <v>697.5908003646097</v>
       </c>
       <c r="M27" t="n">
-        <v>895.6512888769911</v>
+        <v>1182.624153874836</v>
       </c>
       <c r="N27" t="n">
-        <v>1406.916935000113</v>
+        <v>1693.889799997958</v>
       </c>
       <c r="O27" t="n">
-        <v>1799.116885784264</v>
+        <v>2086.089750782109</v>
       </c>
       <c r="P27" t="n">
         <v>2101.212805059961</v>
@@ -6327,28 +6329,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R27" t="n">
-        <v>2041.428536154907</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S27" t="n">
-        <v>1888.629049167647</v>
+        <v>1948.413318072701</v>
       </c>
       <c r="T27" t="n">
-        <v>1699.943945333632</v>
+        <v>1948.413318072701</v>
       </c>
       <c r="U27" t="n">
-        <v>1699.943945333632</v>
+        <v>1872.523979865548</v>
       </c>
       <c r="V27" t="n">
-        <v>1612.572785170519</v>
+        <v>1644.128357313882</v>
       </c>
       <c r="W27" t="n">
-        <v>1371.256916403829</v>
+        <v>1402.812488547192</v>
       </c>
       <c r="X27" t="n">
-        <v>1173.339928281623</v>
+        <v>1204.895500424986</v>
       </c>
       <c r="Y27" t="n">
-        <v>980.8186019312022</v>
+        <v>1012.374174074565</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="C28" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="D28" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="E28" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F28" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G28" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H28" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I28" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J28" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="K28" t="n">
-        <v>1602.757747558672</v>
+        <v>75.62844384584264</v>
       </c>
       <c r="L28" t="n">
-        <v>1703.364826958932</v>
+        <v>176.2355232461022</v>
       </c>
       <c r="M28" t="n">
-        <v>1821.358333086534</v>
+        <v>294.2290293737039</v>
       </c>
       <c r="N28" t="n">
-        <v>1939.780674836134</v>
+        <v>412.6513711233043</v>
       </c>
       <c r="O28" t="n">
-        <v>2038.244321331824</v>
+        <v>511.1150176189939</v>
       </c>
       <c r="P28" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="Q28" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="R28" t="n">
-        <v>2101.212805059961</v>
+        <v>424.5617199615099</v>
       </c>
       <c r="S28" t="n">
-        <v>2101.212805059961</v>
+        <v>210.8519573651974</v>
       </c>
       <c r="T28" t="n">
-        <v>2101.212805059961</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="U28" t="n">
-        <v>2101.212805059961</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="V28" t="n">
-        <v>2101.212805059961</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="W28" t="n">
-        <v>1815.05640357736</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="X28" t="n">
-        <v>1583.803939472736</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="Y28" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
     </row>
     <row r="29">
@@ -6437,43 +6439,43 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2021.822876670703</v>
+        <v>877.403451884061</v>
       </c>
       <c r="C29" t="n">
-        <v>1639.88911800351</v>
+        <v>877.403451884061</v>
       </c>
       <c r="D29" t="n">
-        <v>1267.065153230734</v>
+        <v>504.5794871112846</v>
       </c>
       <c r="E29" t="n">
-        <v>872.2794333368408</v>
+        <v>504.5794871112846</v>
       </c>
       <c r="F29" t="n">
-        <v>458.1282426470112</v>
+        <v>214.8414548924032</v>
       </c>
       <c r="G29" t="n">
-        <v>42.02425610119923</v>
+        <v>214.8414548924032</v>
       </c>
       <c r="H29" t="n">
-        <v>42.02425610119923</v>
+        <v>214.8414548924032</v>
       </c>
       <c r="I29" t="n">
         <v>42.02425610119923</v>
       </c>
       <c r="J29" t="n">
-        <v>114.0228003740049</v>
+        <v>114.0228003740045</v>
       </c>
       <c r="K29" t="n">
-        <v>354.1631724187877</v>
+        <v>354.1631724187873</v>
       </c>
       <c r="L29" t="n">
-        <v>702.048545503734</v>
+        <v>702.0485455037335</v>
       </c>
       <c r="M29" t="n">
-        <v>1095.287711756822</v>
+        <v>1095.287711756821</v>
       </c>
       <c r="N29" t="n">
-        <v>1473.619070444538</v>
+        <v>1473.619070444537</v>
       </c>
       <c r="O29" t="n">
         <v>1778.623654917371</v>
@@ -6491,22 +6493,22 @@
         <v>2101.212805059961</v>
       </c>
       <c r="T29" t="n">
-        <v>2021.822876670703</v>
+        <v>1876.853858790972</v>
       </c>
       <c r="U29" t="n">
-        <v>2021.822876670703</v>
+        <v>1621.968522504967</v>
       </c>
       <c r="V29" t="n">
-        <v>2021.822876670703</v>
+        <v>1621.968522504967</v>
       </c>
       <c r="W29" t="n">
-        <v>2021.822876670703</v>
+        <v>1259.433592362568</v>
       </c>
       <c r="X29" t="n">
-        <v>2021.822876670703</v>
+        <v>877.403451884061</v>
       </c>
       <c r="Y29" t="n">
-        <v>2021.822876670703</v>
+        <v>877.403451884061</v>
       </c>
     </row>
     <row r="30">
@@ -6516,25 +6518,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>852.9547312933042</v>
+        <v>921.3370166032433</v>
       </c>
       <c r="C30" t="n">
-        <v>691.251058534259</v>
+        <v>759.6333438441981</v>
       </c>
       <c r="D30" t="n">
-        <v>552.412421524471</v>
+        <v>620.7947068344101</v>
       </c>
       <c r="E30" t="n">
-        <v>405.3844115813423</v>
+        <v>473.7666968912813</v>
       </c>
       <c r="F30" t="n">
-        <v>270.6906135312166</v>
+        <v>339.0728988411556</v>
       </c>
       <c r="G30" t="n">
-        <v>141.9621135545012</v>
+        <v>210.3443988644402</v>
       </c>
       <c r="H30" t="n">
-        <v>42.02425610119923</v>
+        <v>110.4065414111382</v>
       </c>
       <c r="I30" t="n">
         <v>42.02425610119923</v>
@@ -6555,7 +6557,7 @@
         <v>1693.889799997958</v>
       </c>
       <c r="O30" t="n">
-        <v>1799.116885784264</v>
+        <v>2086.089750782109</v>
       </c>
       <c r="P30" t="n">
         <v>2101.212805059961</v>
@@ -6564,28 +6566,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R30" t="n">
-        <v>2041.428536154907</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S30" t="n">
-        <v>1888.629049167647</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="T30" t="n">
-        <v>1699.943945333632</v>
+        <v>1912.527701225946</v>
       </c>
       <c r="U30" t="n">
-        <v>1680.002653515127</v>
+        <v>1694.032908824257</v>
       </c>
       <c r="V30" t="n">
-        <v>1451.607030963461</v>
+        <v>1465.63728627259</v>
       </c>
       <c r="W30" t="n">
-        <v>1210.291162196771</v>
+        <v>1465.63728627259</v>
       </c>
       <c r="X30" t="n">
-        <v>1012.374174074565</v>
+        <v>1273.277785734925</v>
       </c>
       <c r="Y30" t="n">
-        <v>1012.374174074565</v>
+        <v>1080.756459384504</v>
       </c>
     </row>
     <row r="31">
@@ -6595,7 +6597,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>211.6402256395189</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="C31" t="n">
         <v>42.02425610119923</v>
@@ -6652,19 +6654,19 @@
         <v>574.0835013471317</v>
       </c>
       <c r="U31" t="n">
-        <v>574.0835013471317</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="V31" t="n">
-        <v>574.0835013471317</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="W31" t="n">
-        <v>574.0835013471317</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="X31" t="n">
-        <v>574.0835013471317</v>
+        <v>55.64079773160731</v>
       </c>
       <c r="Y31" t="n">
-        <v>395.1955943238988</v>
+        <v>55.64079773160731</v>
       </c>
     </row>
     <row r="32">
@@ -6674,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1639.88911800351</v>
+        <v>1605.718890124891</v>
       </c>
       <c r="C32" t="n">
-        <v>1639.88911800351</v>
+        <v>1223.785131457699</v>
       </c>
       <c r="D32" t="n">
-        <v>1267.065153230734</v>
+        <v>850.9611666849221</v>
       </c>
       <c r="E32" t="n">
-        <v>872.2794333368408</v>
+        <v>456.1754467910289</v>
       </c>
       <c r="F32" t="n">
-        <v>458.1282426470112</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G32" t="n">
         <v>42.02425610119923</v>
@@ -6722,28 +6724,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R32" t="n">
-        <v>2010.574518555815</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S32" t="n">
-        <v>1823.345543186168</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="T32" t="n">
-        <v>1639.88911800351</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="U32" t="n">
-        <v>1639.88911800351</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="V32" t="n">
-        <v>1639.88911800351</v>
+        <v>1968.25382026729</v>
       </c>
       <c r="W32" t="n">
-        <v>1639.88911800351</v>
+        <v>1605.718890124891</v>
       </c>
       <c r="X32" t="n">
-        <v>1639.88911800351</v>
+        <v>1605.718890124891</v>
       </c>
       <c r="Y32" t="n">
-        <v>1639.88911800351</v>
+        <v>1605.718890124891</v>
       </c>
     </row>
     <row r="33">
@@ -6780,13 +6782,13 @@
         <v>42.02425610119923</v>
       </c>
       <c r="K33" t="n">
-        <v>271.5148086613879</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="L33" t="n">
-        <v>637.3366538315036</v>
+        <v>252.8463055811703</v>
       </c>
       <c r="M33" t="n">
-        <v>1122.37000734173</v>
+        <v>737.8796590913968</v>
       </c>
       <c r="N33" t="n">
         <v>1249.145305214519</v>
@@ -6804,16 +6806,16 @@
         <v>2101.212805059961</v>
       </c>
       <c r="S33" t="n">
-        <v>2101.212805059961</v>
+        <v>1948.413318072701</v>
       </c>
       <c r="T33" t="n">
-        <v>2101.212805059961</v>
+        <v>1759.728214238687</v>
       </c>
       <c r="U33" t="n">
-        <v>1882.718012658271</v>
+        <v>1759.728214238687</v>
       </c>
       <c r="V33" t="n">
-        <v>1712.510642623821</v>
+        <v>1531.332591687021</v>
       </c>
       <c r="W33" t="n">
         <v>1471.194773857131</v>
@@ -6832,10 +6834,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>64.85810302850862</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="C34" t="n">
-        <v>64.85810302850862</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="D34" t="n">
         <v>42.02425610119923</v>
@@ -6877,31 +6879,31 @@
         <v>574.0835013471317</v>
       </c>
       <c r="Q34" t="n">
-        <v>574.0835013471317</v>
+        <v>535.5461600008207</v>
       </c>
       <c r="R34" t="n">
-        <v>574.0835013471317</v>
+        <v>535.5461600008207</v>
       </c>
       <c r="S34" t="n">
-        <v>574.0835013471317</v>
+        <v>535.5461600008207</v>
       </c>
       <c r="T34" t="n">
-        <v>574.0835013471317</v>
+        <v>329.2144956120994</v>
       </c>
       <c r="U34" t="n">
-        <v>286.8932618362315</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="V34" t="n">
-        <v>286.8932618362315</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="W34" t="n">
-        <v>286.8932618362315</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="X34" t="n">
-        <v>286.8932618362315</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="Y34" t="n">
-        <v>64.85810302850862</v>
+        <v>42.02425610119923</v>
       </c>
     </row>
     <row r="35">
@@ -6911,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>796.7819795411683</v>
+        <v>710.7942731794411</v>
       </c>
       <c r="C35" t="n">
-        <v>414.8482208739757</v>
+        <v>328.8605145122485</v>
       </c>
       <c r="D35" t="n">
         <v>42.02425610119923</v>
@@ -6938,16 +6940,16 @@
         <v>114.0228003740049</v>
       </c>
       <c r="K35" t="n">
-        <v>354.1631724187877</v>
+        <v>354.1631724187873</v>
       </c>
       <c r="L35" t="n">
-        <v>702.048545503734</v>
+        <v>702.0485455037335</v>
       </c>
       <c r="M35" t="n">
-        <v>1095.287711756822</v>
+        <v>1095.287711756821</v>
       </c>
       <c r="N35" t="n">
-        <v>1473.619070444538</v>
+        <v>1473.619070444537</v>
       </c>
       <c r="O35" t="n">
         <v>1778.623654917371</v>
@@ -6965,22 +6967,22 @@
         <v>1823.345543186168</v>
       </c>
       <c r="T35" t="n">
-        <v>1598.98659691718</v>
+        <v>1823.345543186168</v>
       </c>
       <c r="U35" t="n">
-        <v>1527.303109069389</v>
+        <v>1823.345543186168</v>
       </c>
       <c r="V35" t="n">
-        <v>1190.32383496533</v>
+        <v>1486.36626908211</v>
       </c>
       <c r="W35" t="n">
-        <v>1190.32383496533</v>
+        <v>1486.36626908211</v>
       </c>
       <c r="X35" t="n">
-        <v>1190.32383496533</v>
+        <v>1104.336128603603</v>
       </c>
       <c r="Y35" t="n">
-        <v>796.7819795411683</v>
+        <v>710.7942731794411</v>
       </c>
     </row>
     <row r="36">
@@ -6990,19 +6992,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>467.1502268870856</v>
+        <v>624.2883738632869</v>
       </c>
       <c r="C36" t="n">
-        <v>305.4465541280403</v>
+        <v>462.5847011042416</v>
       </c>
       <c r="D36" t="n">
-        <v>305.4465541280403</v>
+        <v>323.7460640944537</v>
       </c>
       <c r="E36" t="n">
-        <v>305.4465541280403</v>
+        <v>176.7180541513249</v>
       </c>
       <c r="F36" t="n">
-        <v>170.7527560779147</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G36" t="n">
         <v>42.02425610119923</v>
@@ -7014,22 +7016,22 @@
         <v>42.02425610119923</v>
       </c>
       <c r="J36" t="n">
-        <v>102.2784026343054</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="K36" t="n">
-        <v>102.2784026343054</v>
+        <v>271.5148086613879</v>
       </c>
       <c r="L36" t="n">
-        <v>468.100247804421</v>
+        <v>637.3366538315036</v>
       </c>
       <c r="M36" t="n">
-        <v>953.1336013146474</v>
+        <v>1122.37000734173</v>
       </c>
       <c r="N36" t="n">
-        <v>1406.916935000113</v>
+        <v>1633.635653464852</v>
       </c>
       <c r="O36" t="n">
-        <v>1799.116885784264</v>
+        <v>2025.835604249003</v>
       </c>
       <c r="P36" t="n">
         <v>2101.212805059961</v>
@@ -7038,28 +7040,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R36" t="n">
-        <v>2046.698858682294</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S36" t="n">
-        <v>1893.899371695034</v>
+        <v>2051.037518671235</v>
       </c>
       <c r="T36" t="n">
-        <v>1705.214267861019</v>
+        <v>1862.35241483722</v>
       </c>
       <c r="U36" t="n">
-        <v>1486.719475459329</v>
+        <v>1643.85762243553</v>
       </c>
       <c r="V36" t="n">
-        <v>1258.323852907663</v>
+        <v>1415.461999883864</v>
       </c>
       <c r="W36" t="n">
-        <v>1017.007984140973</v>
+        <v>1174.146131117174</v>
       </c>
       <c r="X36" t="n">
-        <v>819.0909960187677</v>
+        <v>976.229142994969</v>
       </c>
       <c r="Y36" t="n">
-        <v>626.5696696683465</v>
+        <v>783.7078166445478</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>42.02425610119923</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="C37" t="n">
-        <v>42.02425610119923</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="D37" t="n">
-        <v>42.02425610119923</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="E37" t="n">
-        <v>42.02425610119923</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="F37" t="n">
-        <v>42.02425610119923</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="G37" t="n">
-        <v>42.02425610119923</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="H37" t="n">
-        <v>42.02425610119923</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="I37" t="n">
-        <v>42.02425610119923</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="J37" t="n">
-        <v>42.02425610119923</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="K37" t="n">
-        <v>75.62844384584264</v>
+        <v>1602.757747558672</v>
       </c>
       <c r="L37" t="n">
-        <v>176.2355232461022</v>
+        <v>1703.364826958932</v>
       </c>
       <c r="M37" t="n">
-        <v>294.2290293737039</v>
+        <v>1821.358333086534</v>
       </c>
       <c r="N37" t="n">
-        <v>412.6513711233043</v>
+        <v>1939.780674836134</v>
       </c>
       <c r="O37" t="n">
-        <v>511.1150176189939</v>
+        <v>2038.244321331824</v>
       </c>
       <c r="P37" t="n">
-        <v>574.0835013471317</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="Q37" t="n">
-        <v>574.0835013471317</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="R37" t="n">
-        <v>424.5617199615099</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S37" t="n">
-        <v>424.5617199615099</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="T37" t="n">
-        <v>191.3827667771887</v>
+        <v>1868.03385187564</v>
       </c>
       <c r="U37" t="n">
-        <v>42.02425610119923</v>
+        <v>1868.03385187564</v>
       </c>
       <c r="V37" t="n">
-        <v>42.02425610119923</v>
+        <v>1868.03385187564</v>
       </c>
       <c r="W37" t="n">
-        <v>42.02425610119923</v>
+        <v>1868.03385187564</v>
       </c>
       <c r="X37" t="n">
-        <v>42.02425610119923</v>
+        <v>1636.781387771016</v>
       </c>
       <c r="Y37" t="n">
-        <v>42.02425610119923</v>
+        <v>1569.153559814029</v>
       </c>
     </row>
     <row r="38">
@@ -7148,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1191.567699435062</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="C38" t="n">
-        <v>809.6339407678688</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="D38" t="n">
-        <v>436.8099759950924</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="E38" t="n">
         <v>42.02425610119923</v>
@@ -7175,16 +7177,16 @@
         <v>114.0228003740049</v>
       </c>
       <c r="K38" t="n">
-        <v>354.1631724187877</v>
+        <v>354.1631724187876</v>
       </c>
       <c r="L38" t="n">
-        <v>702.048545503734</v>
+        <v>702.0485455037335</v>
       </c>
       <c r="M38" t="n">
-        <v>1095.287711756822</v>
+        <v>1095.287711756821</v>
       </c>
       <c r="N38" t="n">
-        <v>1473.619070444538</v>
+        <v>1473.619070444537</v>
       </c>
       <c r="O38" t="n">
         <v>1778.623654917371</v>
@@ -7196,28 +7198,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R38" t="n">
-        <v>2101.212805059961</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="S38" t="n">
-        <v>1913.983829690315</v>
+        <v>1823.345543186168</v>
       </c>
       <c r="T38" t="n">
-        <v>1913.983829690315</v>
+        <v>1598.98659691718</v>
       </c>
       <c r="U38" t="n">
-        <v>1913.983829690315</v>
+        <v>1344.101260631174</v>
       </c>
       <c r="V38" t="n">
-        <v>1913.983829690315</v>
+        <v>1192.144581185779</v>
       </c>
       <c r="W38" t="n">
-        <v>1913.983829690315</v>
+        <v>829.6096510433804</v>
       </c>
       <c r="X38" t="n">
-        <v>1913.983829690315</v>
+        <v>829.6096510433804</v>
       </c>
       <c r="Y38" t="n">
-        <v>1585.611238953081</v>
+        <v>436.0677956192184</v>
       </c>
     </row>
     <row r="39">
@@ -7227,19 +7229,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>657.9147185764022</v>
+        <v>921.3370166032433</v>
       </c>
       <c r="C39" t="n">
-        <v>496.2110458173569</v>
+        <v>759.6333438441981</v>
       </c>
       <c r="D39" t="n">
-        <v>357.3724088075689</v>
+        <v>620.7947068344101</v>
       </c>
       <c r="E39" t="n">
-        <v>210.3443988644402</v>
+        <v>473.7666968912813</v>
       </c>
       <c r="F39" t="n">
-        <v>210.3443988644402</v>
+        <v>339.0728988411556</v>
       </c>
       <c r="G39" t="n">
         <v>210.3443988644402</v>
@@ -7251,22 +7253,22 @@
         <v>42.02425610119923</v>
       </c>
       <c r="J39" t="n">
-        <v>102.2784026343054</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="K39" t="n">
-        <v>331.768955194494</v>
+        <v>271.5148086613879</v>
       </c>
       <c r="L39" t="n">
-        <v>697.5908003646097</v>
+        <v>637.3366538315036</v>
       </c>
       <c r="M39" t="n">
-        <v>1182.624153874836</v>
+        <v>1122.37000734173</v>
       </c>
       <c r="N39" t="n">
-        <v>1406.916935000113</v>
+        <v>1633.635653464852</v>
       </c>
       <c r="O39" t="n">
-        <v>1799.116885784264</v>
+        <v>2025.835604249003</v>
       </c>
       <c r="P39" t="n">
         <v>2101.212805059961</v>
@@ -7278,25 +7280,25 @@
         <v>2101.212805059961</v>
       </c>
       <c r="S39" t="n">
-        <v>2084.66386338435</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="T39" t="n">
-        <v>1895.978759550336</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="U39" t="n">
-        <v>1677.483967148646</v>
+        <v>1940.906265175487</v>
       </c>
       <c r="V39" t="n">
-        <v>1449.08834459698</v>
+        <v>1712.510642623821</v>
       </c>
       <c r="W39" t="n">
-        <v>1207.77247583029</v>
+        <v>1471.194773857131</v>
       </c>
       <c r="X39" t="n">
-        <v>1009.855487708084</v>
+        <v>1273.277785734925</v>
       </c>
       <c r="Y39" t="n">
-        <v>817.3341613576631</v>
+        <v>1080.756459384504</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2101.212805059961</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="C40" t="n">
-        <v>2101.212805059961</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="D40" t="n">
-        <v>2042.562977659083</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="E40" t="n">
-        <v>1890.553963420402</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F40" t="n">
-        <v>1738.073308446179</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G40" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H40" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I40" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J40" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="K40" t="n">
-        <v>1602.757747558672</v>
+        <v>75.62844384584264</v>
       </c>
       <c r="L40" t="n">
-        <v>1703.364826958932</v>
+        <v>176.2355232461022</v>
       </c>
       <c r="M40" t="n">
-        <v>1821.358333086534</v>
+        <v>294.2290293737039</v>
       </c>
       <c r="N40" t="n">
-        <v>1939.780674836134</v>
+        <v>412.6513711233043</v>
       </c>
       <c r="O40" t="n">
-        <v>2038.244321331824</v>
+        <v>511.1150176189939</v>
       </c>
       <c r="P40" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="Q40" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="R40" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="S40" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="T40" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="U40" t="n">
-        <v>2101.212805059961</v>
+        <v>302.7595605427766</v>
       </c>
       <c r="V40" t="n">
-        <v>2101.212805059961</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="W40" t="n">
-        <v>2101.212805059961</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="X40" t="n">
-        <v>2101.212805059961</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="Y40" t="n">
-        <v>2101.212805059961</v>
+        <v>42.02425610119923</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1267.065153230734</v>
+        <v>1605.718890124891</v>
       </c>
       <c r="C41" t="n">
-        <v>1267.065153230734</v>
+        <v>1223.785131457699</v>
       </c>
       <c r="D41" t="n">
-        <v>1267.065153230734</v>
+        <v>850.9611666849221</v>
       </c>
       <c r="E41" t="n">
-        <v>872.2794333368408</v>
+        <v>456.1754467910289</v>
       </c>
       <c r="F41" t="n">
-        <v>458.1282426470112</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G41" t="n">
         <v>42.02425610119923</v>
@@ -7433,28 +7435,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R41" t="n">
-        <v>2101.212805059961</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="S41" t="n">
-        <v>2101.212805059961</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="T41" t="n">
-        <v>2101.212805059961</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="U41" t="n">
-        <v>2101.212805059961</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="V41" t="n">
-        <v>2101.212805059961</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="W41" t="n">
-        <v>2101.212805059961</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="X41" t="n">
-        <v>2054.650548172915</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="Y41" t="n">
-        <v>1661.108692748753</v>
+        <v>1617.032663131652</v>
       </c>
     </row>
     <row r="42">
@@ -7464,25 +7466,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>467.1502268870856</v>
+        <v>921.3370166032433</v>
       </c>
       <c r="C42" t="n">
-        <v>305.4465541280403</v>
+        <v>759.6333438441981</v>
       </c>
       <c r="D42" t="n">
-        <v>305.4465541280403</v>
+        <v>620.7947068344101</v>
       </c>
       <c r="E42" t="n">
-        <v>305.4465541280403</v>
+        <v>473.7666968912813</v>
       </c>
       <c r="F42" t="n">
-        <v>170.7527560779147</v>
+        <v>339.0728988411556</v>
       </c>
       <c r="G42" t="n">
-        <v>42.02425610119923</v>
+        <v>210.3443988644402</v>
       </c>
       <c r="H42" t="n">
-        <v>42.02425610119923</v>
+        <v>110.4065414111382</v>
       </c>
       <c r="I42" t="n">
         <v>42.02425610119923</v>
@@ -7491,22 +7493,22 @@
         <v>102.2784026343054</v>
       </c>
       <c r="K42" t="n">
-        <v>331.768955194494</v>
+        <v>102.2784026343054</v>
       </c>
       <c r="L42" t="n">
-        <v>645.0462563653213</v>
+        <v>410.6179353667646</v>
       </c>
       <c r="M42" t="n">
-        <v>1130.079609875548</v>
+        <v>895.6512888769911</v>
       </c>
       <c r="N42" t="n">
-        <v>1641.34525599867</v>
+        <v>1406.916935000113</v>
       </c>
       <c r="O42" t="n">
-        <v>1641.34525599867</v>
+        <v>1799.116885784264</v>
       </c>
       <c r="P42" t="n">
-        <v>1943.441175274367</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="Q42" t="n">
         <v>2101.212805059961</v>
@@ -7524,16 +7526,16 @@
         <v>1481.449152931943</v>
       </c>
       <c r="V42" t="n">
-        <v>1253.053530380276</v>
+        <v>1481.449152931943</v>
       </c>
       <c r="W42" t="n">
-        <v>1011.737661613587</v>
+        <v>1240.133284165252</v>
       </c>
       <c r="X42" t="n">
-        <v>813.8206734913811</v>
+        <v>1240.133284165252</v>
       </c>
       <c r="Y42" t="n">
-        <v>626.5696696683465</v>
+        <v>1047.611957814831</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1580.84361236474</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="C43" t="n">
-        <v>1580.84361236474</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="D43" t="n">
-        <v>1580.84361236474</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="E43" t="n">
-        <v>1580.84361236474</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F43" t="n">
-        <v>1580.84361236474</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G43" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H43" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I43" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J43" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="K43" t="n">
-        <v>1602.757747558672</v>
+        <v>75.62844384584264</v>
       </c>
       <c r="L43" t="n">
-        <v>1703.364826958932</v>
+        <v>176.2355232461022</v>
       </c>
       <c r="M43" t="n">
-        <v>1821.358333086534</v>
+        <v>294.2290293737039</v>
       </c>
       <c r="N43" t="n">
-        <v>1939.780674836134</v>
+        <v>412.6513711233043</v>
       </c>
       <c r="O43" t="n">
-        <v>2038.244321331824</v>
+        <v>511.1150176189939</v>
       </c>
       <c r="P43" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="Q43" t="n">
-        <v>2101.212805059961</v>
+        <v>535.5461600008207</v>
       </c>
       <c r="R43" t="n">
-        <v>2101.212805059961</v>
+        <v>386.0243786151989</v>
       </c>
       <c r="S43" t="n">
-        <v>2101.212805059961</v>
+        <v>386.0243786151989</v>
       </c>
       <c r="T43" t="n">
-        <v>1868.03385187564</v>
+        <v>152.8454254308777</v>
       </c>
       <c r="U43" t="n">
-        <v>1580.84361236474</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="V43" t="n">
-        <v>1580.84361236474</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="W43" t="n">
-        <v>1580.84361236474</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="X43" t="n">
-        <v>1580.84361236474</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="Y43" t="n">
-        <v>1580.84361236474</v>
+        <v>42.02425610119923</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1313.62741011778</v>
+        <v>931.5972696392739</v>
       </c>
       <c r="C44" t="n">
-        <v>1045.096632128045</v>
+        <v>931.5972696392739</v>
       </c>
       <c r="D44" t="n">
-        <v>1045.096632128045</v>
+        <v>931.5972696392739</v>
       </c>
       <c r="E44" t="n">
-        <v>1045.096632128045</v>
+        <v>536.8115497453807</v>
       </c>
       <c r="F44" t="n">
-        <v>630.9454414382152</v>
+        <v>122.6603590555511</v>
       </c>
       <c r="G44" t="n">
-        <v>214.8414548924032</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="H44" t="n">
-        <v>214.8414548924032</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="I44" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="J44" t="n">
-        <v>114.0228003740045</v>
+        <v>114.0228003740049</v>
       </c>
       <c r="K44" t="n">
-        <v>354.1631724187873</v>
+        <v>354.1631724187877</v>
       </c>
       <c r="L44" t="n">
-        <v>702.0485455037335</v>
+        <v>702.048545503734</v>
       </c>
       <c r="M44" t="n">
-        <v>1095.287711756821</v>
+        <v>1095.287711756822</v>
       </c>
       <c r="N44" t="n">
-        <v>1473.619070444537</v>
+        <v>1473.619070444538</v>
       </c>
       <c r="O44" t="n">
         <v>1778.623654917371</v>
       </c>
       <c r="P44" t="n">
-        <v>2006.780551373424</v>
+        <v>2006.780551373425</v>
       </c>
       <c r="Q44" t="n">
-        <v>2101.212805059961</v>
+        <v>2101.212805059962</v>
       </c>
       <c r="R44" t="n">
-        <v>2101.212805059961</v>
+        <v>2101.212805059962</v>
       </c>
       <c r="S44" t="n">
-        <v>2101.212805059961</v>
+        <v>2101.212805059962</v>
       </c>
       <c r="T44" t="n">
-        <v>2101.212805059961</v>
+        <v>2101.212805059962</v>
       </c>
       <c r="U44" t="n">
-        <v>2101.212805059961</v>
+        <v>2101.212805059962</v>
       </c>
       <c r="V44" t="n">
-        <v>2101.212805059961</v>
+        <v>2101.212805059962</v>
       </c>
       <c r="W44" t="n">
-        <v>2101.212805059961</v>
+        <v>2101.212805059962</v>
       </c>
       <c r="X44" t="n">
-        <v>2101.212805059961</v>
+        <v>1719.182664581455</v>
       </c>
       <c r="Y44" t="n">
-        <v>1707.670949635799</v>
+        <v>1325.640809157293</v>
       </c>
     </row>
     <row r="45">
@@ -7701,58 +7703,58 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>521.6641732647531</v>
+        <v>521.6641732647536</v>
       </c>
       <c r="C45" t="n">
-        <v>359.9605005057078</v>
+        <v>359.9605005057083</v>
       </c>
       <c r="D45" t="n">
-        <v>359.9605005057078</v>
+        <v>221.1218634959204</v>
       </c>
       <c r="E45" t="n">
-        <v>359.9605005057078</v>
+        <v>74.09385355279159</v>
       </c>
       <c r="F45" t="n">
-        <v>225.2667024555822</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="G45" t="n">
-        <v>96.53820247886676</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="H45" t="n">
-        <v>96.53820247886676</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="I45" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="J45" t="n">
-        <v>102.2784026343054</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="K45" t="n">
-        <v>331.768955194494</v>
+        <v>271.5148086613879</v>
       </c>
       <c r="L45" t="n">
-        <v>697.5908003646097</v>
+        <v>637.3366538315036</v>
       </c>
       <c r="M45" t="n">
-        <v>1182.624153874836</v>
+        <v>895.6512888769915</v>
       </c>
       <c r="N45" t="n">
-        <v>1693.889799997958</v>
+        <v>1406.916935000114</v>
       </c>
       <c r="O45" t="n">
-        <v>2086.089750782109</v>
+        <v>1799.116885784264</v>
       </c>
       <c r="P45" t="n">
-        <v>2101.212805059961</v>
+        <v>2101.212805059962</v>
       </c>
       <c r="Q45" t="n">
-        <v>2101.212805059961</v>
+        <v>2101.212805059962</v>
       </c>
       <c r="R45" t="n">
-        <v>2101.212805059961</v>
+        <v>2101.212805059962</v>
       </c>
       <c r="S45" t="n">
-        <v>1948.413318072701</v>
+        <v>1948.413318072702</v>
       </c>
       <c r="T45" t="n">
         <v>1759.728214238687</v>
@@ -7767,10 +7769,10 @@
         <v>1071.521930518641</v>
       </c>
       <c r="X45" t="n">
-        <v>873.6049423964351</v>
+        <v>873.6049423964356</v>
       </c>
       <c r="Y45" t="n">
-        <v>681.083616046014</v>
+        <v>681.0836160460144</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2101.212805059961</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="C46" t="n">
-        <v>2101.212805059961</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="D46" t="n">
-        <v>2042.562977659083</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="E46" t="n">
-        <v>1890.553963420402</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="F46" t="n">
-        <v>1738.073308446179</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="G46" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="H46" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="I46" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="J46" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="K46" t="n">
-        <v>1602.757747558672</v>
+        <v>75.62844384584264</v>
       </c>
       <c r="L46" t="n">
-        <v>1703.364826958932</v>
+        <v>176.2355232461022</v>
       </c>
       <c r="M46" t="n">
-        <v>1821.358333086534</v>
+        <v>294.2290293737039</v>
       </c>
       <c r="N46" t="n">
-        <v>1939.780674836134</v>
+        <v>412.6513711233043</v>
       </c>
       <c r="O46" t="n">
-        <v>2038.244321331824</v>
+        <v>511.1150176189939</v>
       </c>
       <c r="P46" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="Q46" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="R46" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="S46" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="T46" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="U46" t="n">
-        <v>2101.212805059961</v>
+        <v>328.1806575838001</v>
       </c>
       <c r="V46" t="n">
-        <v>2101.212805059961</v>
+        <v>328.1806575838001</v>
       </c>
       <c r="W46" t="n">
-        <v>2101.212805059961</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="X46" t="n">
-        <v>2101.212805059961</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="Y46" t="n">
-        <v>2101.212805059961</v>
+        <v>42.02425610119924</v>
       </c>
     </row>
   </sheetData>
@@ -7976,7 +7978,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>219.8255997236959</v>
+        <v>219.8255997236955</v>
       </c>
       <c r="K2" t="n">
         <v>421.3890363425141</v>
@@ -7988,7 +7990,7 @@
         <v>584.3675935406823</v>
       </c>
       <c r="N2" t="n">
-        <v>568.5510017355789</v>
+        <v>568.5510017355793</v>
       </c>
       <c r="O2" t="n">
         <v>495.0402356415689</v>
@@ -8064,10 +8066,10 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M3" t="n">
-        <v>605.4165828749999</v>
+        <v>156.1797194573845</v>
       </c>
       <c r="N3" t="n">
-        <v>173.9082232290041</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O3" t="n">
         <v>512.0210150597484</v>
@@ -8304,13 +8306,13 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N6" t="n">
-        <v>623.1450866466196</v>
+        <v>565.082144790401</v>
       </c>
       <c r="O6" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P6" t="n">
-        <v>355.9386573756997</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q6" t="n">
         <v>113.7351914448925</v>
@@ -8450,7 +8452,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>219.8255997236959</v>
+        <v>219.8255997236955</v>
       </c>
       <c r="K8" t="n">
         <v>421.3890363425141</v>
@@ -8471,7 +8473,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q8" t="n">
-        <v>276.0094878578759</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R8" t="n">
         <v>85.43134583487716</v>
@@ -8529,13 +8531,13 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J9" t="n">
-        <v>163.9183459425315</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K9" t="n">
-        <v>199.7153379065116</v>
+        <v>111.9961691666667</v>
       </c>
       <c r="L9" t="n">
-        <v>482.0924488944969</v>
+        <v>325.5269987024317</v>
       </c>
       <c r="M9" t="n">
         <v>605.4165828749999</v>
@@ -8547,7 +8549,7 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P9" t="n">
-        <v>108.8542060241433</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q9" t="n">
         <v>273.1004740566038</v>
@@ -8766,7 +8768,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J12" t="n">
-        <v>103.0555716666667</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K12" t="n">
         <v>343.8048081163522</v>
@@ -8775,7 +8777,7 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M12" t="n">
-        <v>605.4165828749999</v>
+        <v>156.1797194573845</v>
       </c>
       <c r="N12" t="n">
         <v>623.1450866466196</v>
@@ -8784,10 +8786,10 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P12" t="n">
-        <v>184.992792701879</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q12" t="n">
-        <v>113.7351914448925</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R12" t="n">
         <v>59.17817075471706</v>
@@ -9006,7 +9008,7 @@
         <v>103.0555716666667</v>
       </c>
       <c r="K15" t="n">
-        <v>343.8048081163522</v>
+        <v>111.9961691666667</v>
       </c>
       <c r="L15" t="n">
         <v>482.0924488944969</v>
@@ -9015,7 +9017,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N15" t="n">
-        <v>394.1362801165803</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O15" t="n">
         <v>512.0210150597484</v>
@@ -9024,7 +9026,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q15" t="n">
-        <v>113.7351914448925</v>
+        <v>116.5350238645387</v>
       </c>
       <c r="R15" t="n">
         <v>59.17817075471706</v>
@@ -9240,7 +9242,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J18" t="n">
-        <v>163.9183459425315</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K18" t="n">
         <v>343.8048081163522</v>
@@ -9258,7 +9260,7 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P18" t="n">
-        <v>124.1300184260142</v>
+        <v>184.992792701879</v>
       </c>
       <c r="Q18" t="n">
         <v>113.7351914448925</v>
@@ -9401,7 +9403,7 @@
         <v>219.8255997236959</v>
       </c>
       <c r="K20" t="n">
-        <v>421.3890363425141</v>
+        <v>421.3890363425138</v>
       </c>
       <c r="L20" t="n">
         <v>542.9595789155856</v>
@@ -9492,13 +9494,13 @@
         <v>623.1450866466196</v>
       </c>
       <c r="O21" t="n">
-        <v>115.8594486111111</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P21" t="n">
-        <v>360.9263022629402</v>
+        <v>124.1300184260142</v>
       </c>
       <c r="Q21" t="n">
-        <v>273.1004740566038</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R21" t="n">
         <v>59.17817075471706</v>
@@ -9714,19 +9716,19 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J24" t="n">
-        <v>103.0555716666667</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K24" t="n">
         <v>343.8048081163522</v>
       </c>
       <c r="L24" t="n">
-        <v>482.0924488944969</v>
+        <v>192.2208680885929</v>
       </c>
       <c r="M24" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N24" t="n">
-        <v>394.1362801165803</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O24" t="n">
         <v>512.0210150597484</v>
@@ -9872,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>219.8255997236955</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K26" t="n">
         <v>421.3890363425141</v>
@@ -9954,10 +9956,10 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K27" t="n">
-        <v>111.9961691666667</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L27" t="n">
-        <v>424.0295070382783</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M27" t="n">
         <v>605.4165828749999</v>
@@ -9969,7 +9971,7 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P27" t="n">
-        <v>414.0015992319183</v>
+        <v>124.1300184260142</v>
       </c>
       <c r="Q27" t="n">
         <v>113.7351914448925</v>
@@ -10109,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>219.8255997236959</v>
+        <v>219.8255997236955</v>
       </c>
       <c r="K29" t="n">
         <v>421.3890363425141</v>
@@ -10203,10 +10205,10 @@
         <v>623.1450866466196</v>
       </c>
       <c r="O30" t="n">
-        <v>222.1494342538443</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P30" t="n">
-        <v>414.0015992319183</v>
+        <v>124.1300184260142</v>
       </c>
       <c r="Q30" t="n">
         <v>113.7351914448925</v>
@@ -10428,16 +10430,16 @@
         <v>103.0555716666667</v>
       </c>
       <c r="K33" t="n">
-        <v>343.8048081163522</v>
+        <v>111.9961691666667</v>
       </c>
       <c r="L33" t="n">
-        <v>482.0924488944969</v>
+        <v>325.5269987024317</v>
       </c>
       <c r="M33" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N33" t="n">
-        <v>234.7709975048689</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O33" t="n">
         <v>512.0210150597484</v>
@@ -10604,7 +10606,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q35" t="n">
-        <v>276.0094878578759</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R35" t="n">
         <v>85.43134583487716</v>
@@ -10662,10 +10664,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J36" t="n">
-        <v>163.9183459425315</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K36" t="n">
-        <v>111.9961691666667</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L36" t="n">
         <v>482.0924488944969</v>
@@ -10674,13 +10676,13 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N36" t="n">
-        <v>565.082144790401</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O36" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P36" t="n">
-        <v>414.0015992319183</v>
+        <v>184.992792701879</v>
       </c>
       <c r="Q36" t="n">
         <v>113.7351914448925</v>
@@ -10899,7 +10901,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J39" t="n">
-        <v>163.9183459425315</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K39" t="n">
         <v>343.8048081163522</v>
@@ -10911,13 +10913,13 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N39" t="n">
-        <v>333.2735058407155</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O39" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P39" t="n">
-        <v>414.0015992319183</v>
+        <v>184.992792701879</v>
       </c>
       <c r="Q39" t="n">
         <v>113.7351914448925</v>
@@ -11078,7 +11080,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q41" t="n">
-        <v>276.0094878578759</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R41" t="n">
         <v>85.43134583487716</v>
@@ -11139,10 +11141,10 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K42" t="n">
-        <v>343.8048081163522</v>
+        <v>111.9961691666667</v>
       </c>
       <c r="L42" t="n">
-        <v>429.0171519255188</v>
+        <v>424.0295070382783</v>
       </c>
       <c r="M42" t="n">
         <v>605.4165828749999</v>
@@ -11151,13 +11153,13 @@
         <v>623.1450866466196</v>
       </c>
       <c r="O42" t="n">
-        <v>115.8594486111111</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P42" t="n">
         <v>414.0015992319183</v>
       </c>
       <c r="Q42" t="n">
-        <v>273.1004740566038</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R42" t="n">
         <v>59.17817075471706</v>
@@ -11294,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>219.8255997236955</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K44" t="n">
         <v>421.3890363425141</v>
@@ -11373,7 +11375,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J45" t="n">
-        <v>163.9183459425315</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K45" t="n">
         <v>343.8048081163522</v>
@@ -11382,7 +11384,7 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M45" t="n">
-        <v>605.4165828749999</v>
+        <v>376.4077763449611</v>
       </c>
       <c r="N45" t="n">
         <v>623.1450866466196</v>
@@ -11391,7 +11393,7 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P45" t="n">
-        <v>124.1300184260142</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q45" t="n">
         <v>113.7351914448925</v>
@@ -22544,10 +22546,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>42.41604080683135</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C2" t="n">
-        <v>378.1144210805207</v>
+        <v>141.9214823212323</v>
       </c>
       <c r="D2" t="n">
         <v>369.0957251250487</v>
@@ -22598,13 +22600,13 @@
         <v>185.3566856159496</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -22629,10 +22631,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>126.8161773945018</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -22671,16 +22673,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>186.7982527956746</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>57.60636999204326</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -22692,7 +22694,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="4">
@@ -22717,16 +22719,16 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G4" t="n">
-        <v>167.2305511458285</v>
+        <v>0.4884972741916158</v>
       </c>
       <c r="H4" t="n">
-        <v>157.7789187685189</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>142.7610139533483</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>59.456666199969</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22747,16 +22749,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T4" t="n">
-        <v>101.8597073339676</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U4" t="n">
         <v>284.3183371157911</v>
@@ -22781,25 +22783,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C5" t="n">
         <v>378.1144210805207</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E5" t="n">
         <v>390.8378626949542</v>
       </c>
       <c r="F5" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -22829,10 +22831,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T5" t="n">
         <v>222.1153568062989</v>
@@ -22841,16 +22843,16 @@
         <v>252.3364829231459</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W5" t="n">
         <v>358.909580840975</v>
       </c>
       <c r="X5" t="n">
-        <v>378.2098390737216</v>
+        <v>51.75432639970859</v>
       </c>
       <c r="Y5" t="n">
-        <v>301.9386467503524</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -22869,19 +22871,19 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>27.43752473892766</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22923,13 +22925,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>238.9027100790231</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>195.9378182409833</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>20.02201280110251</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -22954,16 +22956,16 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G7" t="n">
-        <v>167.2305511458285</v>
+        <v>0.4884972741916158</v>
       </c>
       <c r="H7" t="n">
-        <v>157.7789187685189</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>142.7610139533483</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>59.456666199969</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22984,19 +22986,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S7" t="n">
         <v>211.5726649703493</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U7" t="n">
-        <v>174.6053794794094</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V7" t="n">
         <v>258.1279513971616</v>
@@ -23024,22 +23026,22 @@
         <v>378.1144210805207</v>
       </c>
       <c r="D8" t="n">
-        <v>369.0957251250487</v>
+        <v>133.6035419151749</v>
       </c>
       <c r="E8" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>411.9429466803539</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23069,25 +23071,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y8" t="n">
-        <v>171.2791036629602</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="9">
@@ -23118,7 +23120,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23151,10 +23153,10 @@
         <v>151.2714921173871</v>
       </c>
       <c r="T9" t="n">
-        <v>186.7982527956746</v>
+        <v>176.7061603308782</v>
       </c>
       <c r="U9" t="n">
-        <v>57.60636999204326</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -23261,7 +23263,7 @@
         <v>378.1144210805207</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E11" t="n">
         <v>390.8378626949542</v>
@@ -23273,10 +23275,10 @@
         <v>411.9429466803539</v>
       </c>
       <c r="H11" t="n">
-        <v>329.4930616586638</v>
+        <v>282.2547552549956</v>
       </c>
       <c r="I11" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,10 +23308,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23324,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>132.9027863657603</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="12">
@@ -23343,19 +23345,19 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>27.43752473892766</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23394,10 +23396,10 @@
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>228.7508747949593</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -23428,16 +23430,16 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G13" t="n">
-        <v>0.4884972741916158</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23458,16 +23460,16 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>148.0265635717656</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>211.5726649703493</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>230.8471636524779</v>
+        <v>101.8597073339676</v>
       </c>
       <c r="U13" t="n">
         <v>284.3183371157911</v>
@@ -23504,16 +23506,16 @@
         <v>390.8378626949542</v>
       </c>
       <c r="F14" t="n">
-        <v>410.0096787829314</v>
+        <v>367.0879608035845</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23555,10 +23557,10 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X14" t="n">
-        <v>193.6156134733938</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y14" t="n">
         <v>389.6064368699203</v>
@@ -23583,16 +23585,16 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>101.5979585925484</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23619,7 +23621,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -23634,13 +23636,13 @@
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>20.02201280110251</v>
       </c>
     </row>
     <row r="16">
@@ -23665,16 +23667,16 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G16" t="n">
-        <v>0.4884972741916158</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23695,16 +23697,16 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>148.0265635717656</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>211.5726649703493</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>230.8471636524779</v>
+        <v>101.8597073339676</v>
       </c>
       <c r="U16" t="n">
         <v>284.3183371157911</v>
@@ -23729,13 +23731,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>369.0957251250487</v>
+        <v>315.174347282956</v>
       </c>
       <c r="E17" t="n">
         <v>390.8378626949542</v>
@@ -23780,16 +23782,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23798,7 +23800,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>171.2791036629602</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23944,10 +23946,10 @@
         <v>230.8471636524779</v>
       </c>
       <c r="U19" t="n">
-        <v>284.3183371157911</v>
+        <v>40.87452179009284</v>
       </c>
       <c r="V19" t="n">
-        <v>14.68413607146334</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23966,16 +23968,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>50.34533122060139</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F20" t="n">
         <v>410.0096787829314</v>
@@ -23987,7 +23989,7 @@
         <v>329.4930616586638</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>6.925033577222365</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24029,13 +24031,13 @@
         <v>333.6094813630181</v>
       </c>
       <c r="W20" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="21">
@@ -24054,19 +24056,19 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>27.43752473892766</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24105,10 +24107,10 @@
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>226.1116663261494</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>228.7508747949593</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -24136,16 +24138,16 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F22" t="n">
-        <v>91.9876794987033</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J22" t="n">
         <v>59.456666199969</v>
@@ -24181,10 +24183,10 @@
         <v>230.8471636524779</v>
       </c>
       <c r="U22" t="n">
-        <v>284.3183371157911</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>258.1279513971616</v>
+        <v>15.7076357194797</v>
       </c>
       <c r="W22" t="n">
         <v>283.2948374677749</v>
@@ -24206,13 +24208,13 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>298.2846791557129</v>
+        <v>266.3563973017335</v>
       </c>
       <c r="D23" t="n">
         <v>369.0957251250487</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -24266,7 +24268,7 @@
         <v>333.6094813630181</v>
       </c>
       <c r="W23" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -24300,10 +24302,10 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24336,10 +24338,10 @@
         <v>151.2714921173871</v>
       </c>
       <c r="T24" t="n">
-        <v>77.7676814521092</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>57.60636999204326</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -24364,19 +24366,19 @@
         <v>181.719814997536</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D25" t="n">
-        <v>12.53713850962399</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E25" t="n">
         <v>150.4889240962943</v>
       </c>
       <c r="F25" t="n">
-        <v>150.9558484244806</v>
+        <v>74.74258424461088</v>
       </c>
       <c r="G25" t="n">
-        <v>167.2305511458285</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>157.7789187685189</v>
@@ -24424,13 +24426,13 @@
         <v>258.1279513971616</v>
       </c>
       <c r="W25" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>228.939939463578</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="26">
@@ -24440,28 +24442,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D26" t="n">
         <v>369.0957251250487</v>
       </c>
       <c r="E26" t="n">
-        <v>271.9044115510885</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>410.6639072406834</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24503,13 +24505,13 @@
         <v>333.6094813630181</v>
       </c>
       <c r="W26" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24537,10 +24539,10 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24567,19 +24569,19 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U27" t="n">
-        <v>216.3098444776729</v>
+        <v>141.1793996525907</v>
       </c>
       <c r="V27" t="n">
-        <v>139.6142177646668</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
@@ -24646,13 +24648,13 @@
         <v>38.15196793284785</v>
       </c>
       <c r="R28" t="n">
-        <v>148.0265635717656</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>211.5726649703493</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>230.8471636524779</v>
+        <v>63.70773940111974</v>
       </c>
       <c r="U28" t="n">
         <v>284.3183371157911</v>
@@ -24661,13 +24663,13 @@
         <v>258.1279513971616</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y28" t="n">
-        <v>205.3109313575256</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="29">
@@ -24680,25 +24682,25 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>123.1690268862388</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H29" t="n">
         <v>329.4930616586638</v>
       </c>
       <c r="I29" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24731,19 +24733,19 @@
         <v>185.3566856159496</v>
       </c>
       <c r="T29" t="n">
-        <v>143.5193277009334</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>333.6094813630181</v>
       </c>
       <c r="W29" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>389.6064368699203</v>
@@ -24777,7 +24779,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24804,28 +24806,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>196.5679655773522</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>5.501912708694903</v>
       </c>
       <c r="Y30" t="n">
-        <v>190.5961130869169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24835,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>168.239438783432</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D31" t="n">
         <v>151.5411742405149</v>
@@ -24892,7 +24894,7 @@
         <v>230.8471636524779</v>
       </c>
       <c r="U31" t="n">
-        <v>284.3183371157911</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>258.1279513971616</v>
@@ -24901,10 +24903,10 @@
         <v>283.2948374677749</v>
       </c>
       <c r="X31" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>42.71577926664511</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="32">
@@ -24917,7 +24919,7 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C32" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -24929,7 +24931,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H32" t="n">
         <v>329.4930616586638</v>
@@ -24962,22 +24964,22 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T32" t="n">
-        <v>40.49349587546752</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U32" t="n">
         <v>252.3364829231459</v>
       </c>
       <c r="V32" t="n">
-        <v>333.6094813630181</v>
+        <v>201.9800864182737</v>
       </c>
       <c r="W32" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>378.2098390737216</v>
@@ -25044,19 +25046,19 @@
         <v>59.18642621600367</v>
       </c>
       <c r="S33" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>186.7982527956746</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V33" t="n">
-        <v>57.60636999204328</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>179.3662704274321</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -25078,7 +25080,7 @@
         <v>167.9198098429365</v>
       </c>
       <c r="D34" t="n">
-        <v>128.9356657824786</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E34" t="n">
         <v>150.4889240962943</v>
@@ -25117,7 +25119,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>148.0265635717656</v>
@@ -25126,7 +25128,7 @@
         <v>211.5726649703493</v>
       </c>
       <c r="T34" t="n">
-        <v>230.8471636524779</v>
+        <v>26.57881590764384</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25141,7 +25143,7 @@
         <v>228.939939463578</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="35">
@@ -25157,7 +25159,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>85.12782929810993</v>
       </c>
       <c r="E35" t="n">
         <v>390.8378626949542</v>
@@ -25205,10 +25207,10 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U35" t="n">
-        <v>181.3698299538331</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -25217,7 +25219,7 @@
         <v>358.909580840975</v>
       </c>
       <c r="X35" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25236,16 +25238,16 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>137.45025063969</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H36" t="n">
         <v>98.93847887876893</v>
@@ -25278,10 +25280,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>5.217619302112638</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>101.597958592548</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -25357,7 +25359,7 @@
         <v>38.15196793284785</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S37" t="n">
         <v>211.5726649703493</v>
@@ -25366,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>136.4534115465615</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V37" t="n">
         <v>258.1279513971616</v>
@@ -25375,10 +25377,10 @@
         <v>283.2948374677749</v>
       </c>
       <c r="X37" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>219.8148072196457</v>
+        <v>152.8632575422288</v>
       </c>
     </row>
     <row r="38">
@@ -25391,13 +25393,13 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F38" t="n">
         <v>410.0096787829314</v>
@@ -25436,28 +25438,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>333.6094813630181</v>
+        <v>183.1723687120776</v>
       </c>
       <c r="W38" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>378.2098390737216</v>
       </c>
       <c r="Y38" t="n">
-        <v>64.51757204005793</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25479,10 +25481,10 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -25518,13 +25520,13 @@
         <v>59.18642621600367</v>
       </c>
       <c r="S39" t="n">
-        <v>134.8880398585324</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>57.60636999204326</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -25552,16 +25554,16 @@
         <v>167.9198098429365</v>
       </c>
       <c r="D40" t="n">
-        <v>93.47784511364551</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H40" t="n">
         <v>157.7789187685189</v>
@@ -25603,10 +25605,10 @@
         <v>230.8471636524779</v>
       </c>
       <c r="U40" t="n">
-        <v>284.3183371157911</v>
+        <v>15.70763571947964</v>
       </c>
       <c r="V40" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>283.2948374677749</v>
@@ -25625,13 +25627,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>378.9024688461453</v>
       </c>
       <c r="C41" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25640,7 +25642,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H41" t="n">
         <v>329.4930616586638</v>
@@ -25673,7 +25675,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>185.3566856159496</v>
@@ -25691,7 +25693,7 @@
         <v>358.909580840975</v>
       </c>
       <c r="X41" t="n">
-        <v>332.1132047555458</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25704,16 +25706,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>32.81305655397612</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>137.45025063969</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -25722,10 +25724,10 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25764,16 +25766,16 @@
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y42" t="n">
-        <v>5.217619302112723</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -25798,7 +25800,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G43" t="n">
-        <v>155.6573991206248</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H43" t="n">
         <v>157.7789187685189</v>
@@ -25828,10 +25830,10 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>148.0265635717656</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>211.5726649703493</v>
@@ -25840,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>174.6053794794094</v>
       </c>
       <c r="V43" t="n">
         <v>258.1279513971616</v>
@@ -25865,25 +25867,25 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>112.2689508706825</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D44" t="n">
         <v>369.0957251250487</v>
       </c>
       <c r="E44" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>332.1132047555456</v>
       </c>
       <c r="H44" t="n">
         <v>329.4930616586638</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25928,7 +25930,7 @@
         <v>358.909580840975</v>
       </c>
       <c r="X44" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -25947,22 +25949,22 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>137.45025063969</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>101.597958592548</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H45" t="n">
         <v>98.93847887876893</v>
       </c>
       <c r="I45" t="n">
-        <v>13.72965554294875</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -26026,16 +26028,16 @@
         <v>167.9198098429365</v>
       </c>
       <c r="D46" t="n">
-        <v>93.47784511364551</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H46" t="n">
         <v>157.7789187685189</v>
@@ -26077,13 +26079,13 @@
         <v>230.8471636524779</v>
       </c>
       <c r="U46" t="n">
-        <v>284.3183371157911</v>
+        <v>40.87452179009284</v>
       </c>
       <c r="V46" t="n">
         <v>258.1279513971616</v>
       </c>
       <c r="W46" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>228.939939463578</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>631047.6854733785</v>
+        <v>631047.6854733786</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>631047.6854733785</v>
+        <v>631047.6854733786</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>631047.6854733785</v>
+        <v>631047.6854733786</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>631047.6854733786</v>
+        <v>631047.6854733783</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>631047.6854733785</v>
+        <v>631047.6854733786</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>631047.6854733786</v>
+        <v>631047.6854733785</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>631047.6854733785</v>
+        <v>631047.6854733786</v>
       </c>
     </row>
     <row r="10">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>631047.6854733786</v>
+        <v>631047.6854733785</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>631047.6854733787</v>
+        <v>631047.6854733785</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>631047.6854733786</v>
+        <v>631047.6854733787</v>
       </c>
     </row>
   </sheetData>
@@ -26314,25 +26316,25 @@
         <v>143923.1563360338</v>
       </c>
       <c r="C2" t="n">
+        <v>143923.1563360339</v>
+      </c>
+      <c r="D2" t="n">
         <v>143923.1563360338</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
+        <v>143923.1563360338</v>
+      </c>
+      <c r="F2" t="n">
         <v>143923.1563360339</v>
-      </c>
-      <c r="E2" t="n">
-        <v>143923.1563360339</v>
-      </c>
-      <c r="F2" t="n">
-        <v>143923.1563360338</v>
       </c>
       <c r="G2" t="n">
         <v>143923.1563360338</v>
       </c>
       <c r="H2" t="n">
-        <v>143923.1563360339</v>
+        <v>143923.1563360338</v>
       </c>
       <c r="I2" t="n">
-        <v>143923.1563360339</v>
+        <v>143923.1563360338</v>
       </c>
       <c r="J2" t="n">
         <v>143923.1563360338</v>
@@ -26341,13 +26343,13 @@
         <v>143923.1563360339</v>
       </c>
       <c r="L2" t="n">
-        <v>143923.1563360339</v>
+        <v>143923.1563360337</v>
       </c>
       <c r="M2" t="n">
-        <v>143923.1563360339</v>
+        <v>143923.1563360338</v>
       </c>
       <c r="N2" t="n">
-        <v>143923.1563360339</v>
+        <v>143923.1563360338</v>
       </c>
       <c r="O2" t="n">
         <v>143923.1563360338</v>
@@ -26415,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>399.9854922104111</v>
+        <v>399.9854922104112</v>
       </c>
       <c r="C4" t="n">
         <v>399.9854922104111</v>
       </c>
       <c r="D4" t="n">
-        <v>399.9854922104111</v>
+        <v>399.9854922104112</v>
       </c>
       <c r="E4" t="n">
         <v>399.9854922104112</v>
@@ -26433,7 +26435,7 @@
         <v>399.9854922104112</v>
       </c>
       <c r="H4" t="n">
-        <v>399.9854922104112</v>
+        <v>399.9854922104111</v>
       </c>
       <c r="I4" t="n">
         <v>399.9854922104112</v>
@@ -26442,22 +26444,22 @@
         <v>399.9854922104111</v>
       </c>
       <c r="K4" t="n">
-        <v>399.9854922104112</v>
+        <v>399.9854922104111</v>
       </c>
       <c r="L4" t="n">
         <v>399.9854922104112</v>
       </c>
       <c r="M4" t="n">
-        <v>399.9854922104111</v>
+        <v>399.9854922104112</v>
       </c>
       <c r="N4" t="n">
         <v>399.9854922104112</v>
       </c>
       <c r="O4" t="n">
-        <v>399.9854922104111</v>
+        <v>399.9854922104112</v>
       </c>
       <c r="P4" t="n">
-        <v>399.9854922104111</v>
+        <v>399.9854922104112</v>
       </c>
     </row>
     <row r="5">
@@ -26509,7 +26511,7 @@
         <v>31938.43463691141</v>
       </c>
       <c r="P5" t="n">
-        <v>31938.43463691141</v>
+        <v>31938.43463691142</v>
       </c>
     </row>
     <row r="6">
@@ -26522,46 +26524,46 @@
         <v>-98084.04851061535</v>
       </c>
       <c r="C6" t="n">
-        <v>77957.13620691199</v>
+        <v>77957.13620691205</v>
       </c>
       <c r="D6" t="n">
-        <v>77957.13620691205</v>
+        <v>77957.13620691202</v>
       </c>
       <c r="E6" t="n">
+        <v>111584.736206912</v>
+      </c>
+      <c r="F6" t="n">
         <v>111584.7362069121</v>
-      </c>
-      <c r="F6" t="n">
-        <v>111584.736206912</v>
       </c>
       <c r="G6" t="n">
         <v>111584.736206912</v>
       </c>
       <c r="H6" t="n">
-        <v>111584.7362069121</v>
+        <v>111584.736206912</v>
       </c>
       <c r="I6" t="n">
-        <v>111584.7362069121</v>
+        <v>111584.736206912</v>
       </c>
       <c r="J6" t="n">
-        <v>-25857.69458486517</v>
+        <v>-25857.69458486514</v>
       </c>
       <c r="K6" t="n">
         <v>111584.7362069121</v>
       </c>
       <c r="L6" t="n">
-        <v>111584.7362069121</v>
+        <v>111584.7362069119</v>
       </c>
       <c r="M6" t="n">
-        <v>111584.7362069121</v>
+        <v>111584.736206912</v>
       </c>
       <c r="N6" t="n">
-        <v>111584.7362069121</v>
+        <v>111584.736206912</v>
       </c>
       <c r="O6" t="n">
         <v>111584.736206912</v>
       </c>
       <c r="P6" t="n">
-        <v>111584.7362069121</v>
+        <v>111584.736206912</v>
       </c>
     </row>
   </sheetData>
@@ -26829,7 +26831,7 @@
         <v>525.3032012649903</v>
       </c>
       <c r="P4" t="n">
-        <v>525.3032012649903</v>
+        <v>525.3032012649904</v>
       </c>
     </row>
   </sheetData>
@@ -34696,7 +34698,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>72.72580229576329</v>
+        <v>72.7258022957629</v>
       </c>
       <c r="K2" t="n">
         <v>242.5660323684674</v>
@@ -34708,7 +34710,7 @@
         <v>397.2112790435232</v>
       </c>
       <c r="N2" t="n">
-        <v>382.1528875633487</v>
+        <v>382.1528875633492</v>
       </c>
       <c r="O2" t="n">
         <v>308.0854388614484</v>
@@ -34784,10 +34786,10 @@
         <v>369.5170153233491</v>
       </c>
       <c r="M3" t="n">
-        <v>489.93268031336</v>
+        <v>40.69581689574456</v>
       </c>
       <c r="N3" t="n">
-        <v>67.19308216129573</v>
+        <v>516.4299455789112</v>
       </c>
       <c r="O3" t="n">
         <v>396.1615664486372</v>
@@ -35024,13 +35026,13 @@
         <v>489.93268031336</v>
       </c>
       <c r="N6" t="n">
-        <v>516.4299455789112</v>
+        <v>458.3670037226927</v>
       </c>
       <c r="O6" t="n">
         <v>396.1615664486372</v>
       </c>
       <c r="P6" t="n">
-        <v>247.0844513515564</v>
+        <v>305.147393207775</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35170,7 +35172,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>72.72580229576329</v>
+        <v>72.7258022957629</v>
       </c>
       <c r="K8" t="n">
         <v>242.5660323684674</v>
@@ -35191,7 +35193,7 @@
         <v>230.4615115717709</v>
       </c>
       <c r="Q8" t="n">
-        <v>95.38611483488566</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,13 +35251,13 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>60.86277427586479</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>87.71916873984493</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>369.5170153233491</v>
+        <v>212.9515651312839</v>
       </c>
       <c r="M9" t="n">
         <v>489.93268031336</v>
@@ -35267,7 +35269,7 @@
         <v>396.1615664486372</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>305.147393207775</v>
       </c>
       <c r="Q9" t="n">
         <v>159.3652826117113</v>
@@ -35486,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K12" t="n">
         <v>231.8086389496855</v>
@@ -35495,7 +35497,7 @@
         <v>369.5170153233491</v>
       </c>
       <c r="M12" t="n">
-        <v>489.93268031336</v>
+        <v>40.69581689574456</v>
       </c>
       <c r="N12" t="n">
         <v>516.4299455789112</v>
@@ -35504,10 +35506,10 @@
         <v>396.1615664486372</v>
       </c>
       <c r="P12" t="n">
-        <v>76.13858667773572</v>
+        <v>305.147393207775</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35726,7 +35728,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>231.8086389496855</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>369.5170153233491</v>
@@ -35735,7 +35737,7 @@
         <v>489.93268031336</v>
       </c>
       <c r="N15" t="n">
-        <v>287.421139048872</v>
+        <v>516.4299455789112</v>
       </c>
       <c r="O15" t="n">
         <v>396.1615664486372</v>
@@ -35744,7 +35746,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>2.799832419646239</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35960,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>60.86277427586479</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>231.8086389496855</v>
@@ -35978,7 +35980,7 @@
         <v>396.1615664486372</v>
       </c>
       <c r="P18" t="n">
-        <v>15.27581240187084</v>
+        <v>76.13858667773572</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36121,7 +36123,7 @@
         <v>72.72580229576329</v>
       </c>
       <c r="K20" t="n">
-        <v>242.5660323684674</v>
+        <v>242.5660323684671</v>
       </c>
       <c r="L20" t="n">
         <v>351.3993667524709</v>
@@ -36212,13 +36214,13 @@
         <v>516.4299455789112</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>396.1615664486372</v>
       </c>
       <c r="P21" t="n">
-        <v>252.0720962387968</v>
+        <v>15.27581240187084</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.3652826117113</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36434,19 +36436,19 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K24" t="n">
         <v>231.8086389496855</v>
       </c>
       <c r="L24" t="n">
-        <v>369.5170153233491</v>
+        <v>79.64543451744507</v>
       </c>
       <c r="M24" t="n">
         <v>489.93268031336</v>
       </c>
       <c r="N24" t="n">
-        <v>287.421139048872</v>
+        <v>516.4299455789112</v>
       </c>
       <c r="O24" t="n">
         <v>396.1615664486372</v>
@@ -36592,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>72.7258022957629</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K26" t="n">
         <v>242.5660323684674</v>
@@ -36674,10 +36676,10 @@
         <v>60.86277427586479</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L27" t="n">
-        <v>311.4540734671306</v>
+        <v>369.5170153233491</v>
       </c>
       <c r="M27" t="n">
         <v>489.93268031336</v>
@@ -36689,7 +36691,7 @@
         <v>396.1615664486372</v>
       </c>
       <c r="P27" t="n">
-        <v>305.147393207775</v>
+        <v>15.27581240187084</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36829,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>72.72580229576329</v>
+        <v>72.7258022957629</v>
       </c>
       <c r="K29" t="n">
         <v>242.5660323684674</v>
@@ -36923,10 +36925,10 @@
         <v>516.4299455789112</v>
       </c>
       <c r="O30" t="n">
-        <v>106.2899856427332</v>
+        <v>396.1615664486372</v>
       </c>
       <c r="P30" t="n">
-        <v>305.147393207775</v>
+        <v>15.27581240187084</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37148,16 +37150,16 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>231.8086389496855</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>369.5170153233491</v>
+        <v>212.9515651312839</v>
       </c>
       <c r="M33" t="n">
         <v>489.93268031336</v>
       </c>
       <c r="N33" t="n">
-        <v>128.0558564371606</v>
+        <v>516.4299455789112</v>
       </c>
       <c r="O33" t="n">
         <v>396.1615664486372</v>
@@ -37324,7 +37326,7 @@
         <v>230.4615115717709</v>
       </c>
       <c r="Q35" t="n">
-        <v>95.38611483488566</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37382,10 +37384,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>60.86277427586479</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L36" t="n">
         <v>369.5170153233491</v>
@@ -37394,13 +37396,13 @@
         <v>489.93268031336</v>
       </c>
       <c r="N36" t="n">
-        <v>458.3670037226927</v>
+        <v>516.4299455789112</v>
       </c>
       <c r="O36" t="n">
         <v>396.1615664486372</v>
       </c>
       <c r="P36" t="n">
-        <v>305.147393207775</v>
+        <v>76.13858667773572</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37619,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>60.86277427586479</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>231.8086389496855</v>
@@ -37631,13 +37633,13 @@
         <v>489.93268031336</v>
       </c>
       <c r="N39" t="n">
-        <v>226.5583647730072</v>
+        <v>516.4299455789112</v>
       </c>
       <c r="O39" t="n">
         <v>396.1615664486372</v>
       </c>
       <c r="P39" t="n">
-        <v>305.147393207775</v>
+        <v>76.13858667773572</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37798,7 +37800,7 @@
         <v>230.4615115717709</v>
       </c>
       <c r="Q41" t="n">
-        <v>95.38611483488566</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37859,10 +37861,10 @@
         <v>60.86277427586479</v>
       </c>
       <c r="K42" t="n">
-        <v>231.8086389496855</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>316.4417183543709</v>
+        <v>311.4540734671306</v>
       </c>
       <c r="M42" t="n">
         <v>489.93268031336</v>
@@ -37871,13 +37873,13 @@
         <v>516.4299455789112</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>396.1615664486372</v>
       </c>
       <c r="P42" t="n">
         <v>305.147393207775</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.3652826117113</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38014,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>72.7258022957629</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K44" t="n">
         <v>242.5660323684674</v>
@@ -38093,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>60.86277427586479</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>231.8086389496855</v>
@@ -38102,7 +38104,7 @@
         <v>369.5170153233491</v>
       </c>
       <c r="M45" t="n">
-        <v>489.93268031336</v>
+        <v>260.9238737833212</v>
       </c>
       <c r="N45" t="n">
         <v>516.4299455789112</v>
@@ -38111,7 +38113,7 @@
         <v>396.1615664486372</v>
       </c>
       <c r="P45" t="n">
-        <v>15.27581240187084</v>
+        <v>305.147393207775</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_0_13.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_0_13.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>605161.5739228569</v>
+        <v>537166.4059725829</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>714286.6128340086</v>
+        <v>714286.6128340079</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>12179384.22975869</v>
+        <v>12179384.22975868</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7296881.961476633</v>
+        <v>7296881.961476635</v>
       </c>
     </row>
     <row r="11">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C2" t="n">
-        <v>236.1929387592884</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>326.3202906548963</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -706,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>389.6064368699203</v>
@@ -743,22 +743,22 @@
         <v>160.0866360314548</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>35.85229204714161</v>
       </c>
       <c r="E3" t="n">
-        <v>18.74155244919571</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F3" t="n">
         <v>133.3468600696244</v>
       </c>
       <c r="G3" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>151.2714921173871</v>
@@ -806,7 +806,7 @@
         <v>195.9378182409833</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="4">
@@ -831,16 +831,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.7420538716369</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>157.7789187685189</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>142.7610139533483</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>59.456666199969</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -873,13 +873,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>242.420315677682</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -907,16 +907,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>411.9429466803539</v>
+        <v>143.1255374605121</v>
       </c>
       <c r="H5" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,16 +943,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>326.455512674013</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y5" t="n">
         <v>389.6064368699203</v>
@@ -983,13 +983,13 @@
         <v>137.45025063969</v>
       </c>
       <c r="E6" t="n">
-        <v>118.1202051047698</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>31.74890147707598</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>151.2714921173871</v>
@@ -1068,16 +1068,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.7420538716369</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>157.7789187685189</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>142.7610139533483</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>59.456666199969</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1104,10 +1104,10 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>31.87115035534897</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1138,22 +1138,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>235.4921832098738</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>410.0096787829314</v>
       </c>
       <c r="G8" t="n">
-        <v>411.9429466803539</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>329.4930616586638</v>
       </c>
       <c r="I8" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,19 +1183,19 @@
         <v>89.73190363910518</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>42.3911174550362</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1217,22 +1217,22 @@
         <v>160.0866360314548</v>
       </c>
       <c r="D9" t="n">
-        <v>137.45025063969</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>133.3468600696244</v>
       </c>
       <c r="G9" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>98.93847887876893</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>23.28511679606653</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,13 +1259,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T9" t="n">
-        <v>10.09209246479641</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U9" t="n">
         <v>216.3098444776729</v>
@@ -1335,22 +1335,22 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>148.0265635717656</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>211.5726649703493</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>128.9874563185103</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>268.6107013963115</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1381,16 +1381,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H11" t="n">
-        <v>47.23830640366815</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I11" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>89.73190363910518</v>
       </c>
       <c r="S11" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>222.1153568062989</v>
+        <v>211.4731084219562</v>
       </c>
       <c r="U11" t="n">
         <v>252.3364829231459</v>
@@ -1432,10 +1432,10 @@
         <v>333.6094813630181</v>
       </c>
       <c r="W11" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1460,16 +1460,16 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F12" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>127.4412149769483</v>
+        <v>31.74890147707598</v>
       </c>
       <c r="H12" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>151.2714921173871</v>
@@ -1508,10 +1508,10 @@
         <v>216.3098444776729</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W12" t="n">
-        <v>10.1518352840637</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X12" t="n">
         <v>195.9378182409833</v>
@@ -1572,19 +1572,19 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>148.0265635717656</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>211.5726649703493</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>128.9874563185103</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1593,10 +1593,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>13.480376214104</v>
       </c>
     </row>
     <row r="14">
@@ -1612,22 +1612,22 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>129.8077236055507</v>
       </c>
       <c r="F14" t="n">
-        <v>42.9217179793469</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>411.9429466803539</v>
       </c>
       <c r="H14" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1666,13 +1666,13 @@
         <v>252.3364829231459</v>
       </c>
       <c r="V14" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1697,16 +1697,16 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F15" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>98.93847887876893</v>
+        <v>31.74890147707598</v>
       </c>
       <c r="I15" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>151.2714921173871</v>
@@ -1748,13 +1748,13 @@
         <v>226.1116663261494</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y15" t="n">
-        <v>170.5741002858144</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="16">
@@ -1809,25 +1809,25 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>148.0265635717656</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>211.5726649703493</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>128.9874563185103</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>243.4438153256983</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1846,19 +1846,19 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C17" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>53.92137784209268</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1906,13 +1906,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>389.6064368699203</v>
+        <v>345.9711675489909</v>
       </c>
     </row>
     <row r="18">
@@ -1928,13 +1928,13 @@
         <v>160.0866360314548</v>
       </c>
       <c r="D18" t="n">
-        <v>137.45025063969</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>118.1202051047698</v>
+        <v>122.2235956748355</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>39.67076193273343</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2058,16 +2058,16 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>243.4438153256983</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W19" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2083,25 +2083,25 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C20" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>164.1639932260696</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2143,13 +2143,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>378.2098390737216</v>
+        <v>46.09663431817579</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="21">
@@ -2168,13 +2168,13 @@
         <v>137.45025063969</v>
       </c>
       <c r="E21" t="n">
-        <v>118.1202051047698</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>31.74890147707598</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>151.2714921173871</v>
@@ -2298,16 +2298,16 @@
         <v>284.3183371157911</v>
       </c>
       <c r="V22" t="n">
-        <v>242.4203156776819</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>22.60550845803633</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="23">
@@ -2317,13 +2317,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>111.7580237787872</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>0.2816955753678189</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -2332,7 +2332,7 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2365,7 +2365,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -2383,7 +2383,7 @@
         <v>358.909580840975</v>
       </c>
       <c r="X23" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>389.6064368699203</v>
@@ -2408,16 +2408,16 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F24" t="n">
-        <v>133.3468600696244</v>
+        <v>31.74890147707598</v>
       </c>
       <c r="G24" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2447,13 +2447,13 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U24" t="n">
-        <v>158.7034744856297</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V24" t="n">
         <v>226.1116663261494</v>
@@ -2487,10 +2487,10 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>76.21326417986977</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>167.2305511458285</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2532,13 +2532,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>283.2948374677749</v>
+        <v>242.420315677682</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2554,28 +2554,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>346.5309721364661</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.279039439670443</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2611,19 +2611,19 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W26" t="n">
         <v>358.909580840975</v>
       </c>
       <c r="X26" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2645,13 +2645,13 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F27" t="n">
-        <v>133.3468600696244</v>
+        <v>31.74890147707598</v>
       </c>
       <c r="G27" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2687,10 +2687,10 @@
         <v>151.2714921173871</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U27" t="n">
-        <v>75.13044482508219</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V27" t="n">
         <v>226.1116663261494</v>
@@ -2760,22 +2760,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>148.0265635717656</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>211.5726649703493</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>167.1394242513582</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>242.420315677682</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2791,28 +2791,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>329.3369878216965</v>
       </c>
       <c r="F29" t="n">
-        <v>286.8406518966925</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2839,25 +2839,25 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T29" t="n">
         <v>222.1153568062989</v>
       </c>
       <c r="U29" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2879,19 +2879,19 @@
         <v>137.45025063969</v>
       </c>
       <c r="E30" t="n">
-        <v>145.5577298436975</v>
+        <v>43.95977125114908</v>
       </c>
       <c r="F30" t="n">
         <v>133.3468600696244</v>
       </c>
       <c r="G30" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T30" t="n">
         <v>186.7982527956746</v>
@@ -2933,10 +2933,10 @@
         <v>226.1116663261494</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X30" t="n">
-        <v>190.4359055322884</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y30" t="n">
         <v>190.5961130869169</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>13.480376214104</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -3006,16 +3006,16 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>284.3183371157911</v>
+        <v>268.6107013963115</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3028,13 +3028,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C32" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>390.8378626949542</v>
@@ -3043,7 +3043,7 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3076,7 +3076,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -3088,16 +3088,16 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>131.6293949447444</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>345.9711675489909</v>
       </c>
     </row>
     <row r="33">
@@ -3116,19 +3116,19 @@
         <v>137.45025063969</v>
       </c>
       <c r="E33" t="n">
-        <v>145.5577298436975</v>
+        <v>43.95977125114908</v>
       </c>
       <c r="F33" t="n">
         <v>133.3468600696244</v>
       </c>
       <c r="G33" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3164,13 +3164,13 @@
         <v>186.7982527956746</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V33" t="n">
         <v>226.1116663261494</v>
       </c>
       <c r="W33" t="n">
-        <v>59.53643965159095</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X33" t="n">
         <v>195.9378182409833</v>
@@ -3231,7 +3231,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -3240,16 +3240,16 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>204.2683477448341</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>284.3183371157911</v>
+        <v>243.4438153256983</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3271,16 +3271,16 @@
         <v>378.1144210805207</v>
       </c>
       <c r="D35" t="n">
-        <v>283.9678958269387</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>110.5243109593453</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3313,10 +3313,10 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -3325,16 +3325,16 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X35" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3356,7 +3356,7 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F36" t="n">
-        <v>133.3468600696244</v>
+        <v>31.74890147707643</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>49.67353352483909</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T36" t="n">
         <v>186.7982527956746</v>
@@ -3477,22 +3477,22 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>230.8471636524779</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>242.420315677682</v>
       </c>
       <c r="X37" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>66.95154967741685</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3508,16 +3508,16 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3550,28 +3550,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>150.4371126509405</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>389.6064368699203</v>
+        <v>66.60734606304784</v>
       </c>
     </row>
     <row r="39">
@@ -3596,13 +3596,13 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G39" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3632,13 +3632,13 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>49.67353352483955</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U39" t="n">
-        <v>158.7034744856297</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V39" t="n">
         <v>226.1116663261494</v>
@@ -3717,13 +3717,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>268.6107013963115</v>
+        <v>243.4438153256983</v>
       </c>
       <c r="V40" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3739,25 +3739,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>11.20063527669365</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>378.1144210805207</v>
+        <v>173.0369747520246</v>
       </c>
       <c r="D41" t="n">
         <v>369.0957251250487</v>
       </c>
       <c r="E41" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3787,28 +3787,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3818,7 +3818,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>125.0121917994721</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C42" t="n">
         <v>160.0866360314548</v>
@@ -3833,13 +3833,13 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G42" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,10 +3866,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>151.2714921173871</v>
+        <v>49.67353352483955</v>
       </c>
       <c r="T42" t="n">
         <v>186.7982527956746</v>
@@ -3878,13 +3878,13 @@
         <v>216.3098444776729</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W42" t="n">
         <v>238.9027100790231</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y42" t="n">
         <v>190.5961130869169</v>
@@ -3942,25 +3942,25 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>148.0265635717656</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>230.8471636524779</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>109.7129576363817</v>
+        <v>243.4438153256983</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3985,19 +3985,19 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>410.0096787829314</v>
       </c>
       <c r="G44" t="n">
-        <v>79.8297419248083</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>188.0068316198506</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4024,7 +4024,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4306,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>280.6029821206824</v>
+        <v>1126.398434748134</v>
       </c>
       <c r="C2" t="n">
-        <v>42.02425610119923</v>
+        <v>744.4646760809417</v>
       </c>
       <c r="D2" t="n">
-        <v>42.02425610119923</v>
+        <v>371.6407113081652</v>
       </c>
       <c r="E2" t="n">
         <v>42.02425610119923</v>
@@ -4330,16 +4330,16 @@
         <v>42.02425610119923</v>
       </c>
       <c r="J2" t="n">
-        <v>114.0228003740045</v>
+        <v>114.0228003740049</v>
       </c>
       <c r="K2" t="n">
-        <v>354.1631724187873</v>
+        <v>354.1631724187877</v>
       </c>
       <c r="L2" t="n">
-        <v>702.0485455037335</v>
+        <v>702.048545503734</v>
       </c>
       <c r="M2" t="n">
-        <v>1095.287711756821</v>
+        <v>1095.287711756822</v>
       </c>
       <c r="N2" t="n">
         <v>1473.619070444537</v>
@@ -4354,28 +4354,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R2" t="n">
-        <v>2010.574518555815</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S2" t="n">
-        <v>2010.574518555815</v>
+        <v>1913.983829690315</v>
       </c>
       <c r="T2" t="n">
-        <v>2010.574518555815</v>
+        <v>1913.983829690315</v>
       </c>
       <c r="U2" t="n">
-        <v>1755.689182269809</v>
+        <v>1913.983829690315</v>
       </c>
       <c r="V2" t="n">
-        <v>1418.70990816575</v>
+        <v>1913.983829690315</v>
       </c>
       <c r="W2" t="n">
-        <v>1056.174978023351</v>
+        <v>1913.983829690315</v>
       </c>
       <c r="X2" t="n">
-        <v>674.1448375448444</v>
+        <v>1913.983829690315</v>
       </c>
       <c r="Y2" t="n">
-        <v>280.6029821206824</v>
+        <v>1520.441974266153</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>654.4012307101202</v>
+        <v>521.6641732647531</v>
       </c>
       <c r="C3" t="n">
-        <v>492.6975579510749</v>
+        <v>359.9605005057078</v>
       </c>
       <c r="D3" t="n">
-        <v>492.6975579510749</v>
+        <v>323.7460640944537</v>
       </c>
       <c r="E3" t="n">
-        <v>473.7666968912813</v>
+        <v>176.7180541513249</v>
       </c>
       <c r="F3" t="n">
-        <v>339.0728988411556</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G3" t="n">
-        <v>210.3443988644402</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H3" t="n">
-        <v>110.4065414111382</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I3" t="n">
         <v>42.02425610119923</v>
@@ -4412,16 +4412,16 @@
         <v>102.2784026343054</v>
       </c>
       <c r="K3" t="n">
-        <v>331.768955194494</v>
+        <v>279.2244111952056</v>
       </c>
       <c r="L3" t="n">
-        <v>697.5908003646097</v>
+        <v>645.0462563653213</v>
       </c>
       <c r="M3" t="n">
-        <v>737.8796590913968</v>
+        <v>1130.079609875548</v>
       </c>
       <c r="N3" t="n">
-        <v>1249.145305214519</v>
+        <v>1641.34525599867</v>
       </c>
       <c r="O3" t="n">
         <v>1641.34525599867</v>
@@ -4433,28 +4433,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R3" t="n">
-        <v>2041.428536154907</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S3" t="n">
-        <v>1888.629049167647</v>
+        <v>1948.413318072701</v>
       </c>
       <c r="T3" t="n">
-        <v>1699.943945333632</v>
+        <v>1759.728214238687</v>
       </c>
       <c r="U3" t="n">
-        <v>1481.449152931943</v>
+        <v>1541.233421836997</v>
       </c>
       <c r="V3" t="n">
-        <v>1253.053530380276</v>
+        <v>1312.837799285331</v>
       </c>
       <c r="W3" t="n">
-        <v>1011.737661613587</v>
+        <v>1071.521930518641</v>
       </c>
       <c r="X3" t="n">
-        <v>813.8206734913811</v>
+        <v>873.6049423964351</v>
       </c>
       <c r="Y3" t="n">
-        <v>813.8206734913811</v>
+        <v>681.083616046014</v>
       </c>
     </row>
     <row r="4">
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="C4" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="D4" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="E4" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F4" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G4" t="n">
-        <v>405.6571843050742</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H4" t="n">
-        <v>246.284539084348</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I4" t="n">
-        <v>102.0814946870265</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J4" t="n">
         <v>42.02425610119923</v>
@@ -4521,19 +4521,19 @@
         <v>574.0835013471317</v>
       </c>
       <c r="U4" t="n">
-        <v>574.0835013471317</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="V4" t="n">
-        <v>574.0835013471317</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="W4" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="X4" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="Y4" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
     </row>
     <row r="5">
@@ -4543,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1377.917906530736</v>
+        <v>568.5292647285052</v>
       </c>
       <c r="C5" t="n">
-        <v>1377.917906530736</v>
+        <v>186.5955060613125</v>
       </c>
       <c r="D5" t="n">
-        <v>1377.917906530736</v>
+        <v>186.5955060613125</v>
       </c>
       <c r="E5" t="n">
-        <v>1377.917906530736</v>
+        <v>186.5955060613125</v>
       </c>
       <c r="F5" t="n">
-        <v>963.766715840906</v>
+        <v>186.5955060613125</v>
       </c>
       <c r="G5" t="n">
-        <v>547.662729295094</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H5" t="n">
-        <v>214.8414548924032</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I5" t="n">
         <v>42.02425610119923</v>
       </c>
       <c r="J5" t="n">
-        <v>114.0228003740045</v>
+        <v>114.0228003740049</v>
       </c>
       <c r="K5" t="n">
-        <v>354.1631724187873</v>
+        <v>354.1631724187877</v>
       </c>
       <c r="L5" t="n">
-        <v>702.0485455037335</v>
+        <v>702.048545503734</v>
       </c>
       <c r="M5" t="n">
-        <v>1095.287711756821</v>
+        <v>1095.287711756822</v>
       </c>
       <c r="N5" t="n">
-        <v>1473.619070444537</v>
+        <v>1473.619070444538</v>
       </c>
       <c r="O5" t="n">
         <v>1778.623654917371</v>
@@ -4591,28 +4591,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R5" t="n">
-        <v>2101.212805059961</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="S5" t="n">
-        <v>2101.212805059961</v>
+        <v>1823.345543186168</v>
       </c>
       <c r="T5" t="n">
-        <v>2101.212805059961</v>
+        <v>1598.98659691718</v>
       </c>
       <c r="U5" t="n">
-        <v>2101.212805059961</v>
+        <v>1344.101260631174</v>
       </c>
       <c r="V5" t="n">
-        <v>2101.212805059961</v>
+        <v>1344.101260631174</v>
       </c>
       <c r="W5" t="n">
-        <v>2101.212805059961</v>
+        <v>1344.101260631174</v>
       </c>
       <c r="X5" t="n">
-        <v>1771.459761954898</v>
+        <v>962.0711201526672</v>
       </c>
       <c r="Y5" t="n">
-        <v>1377.917906530736</v>
+        <v>568.5292647285052</v>
       </c>
     </row>
     <row r="6">
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>461.879904359699</v>
+        <v>521.6641732647531</v>
       </c>
       <c r="C6" t="n">
-        <v>300.1762316006536</v>
+        <v>359.9605005057078</v>
       </c>
       <c r="D6" t="n">
-        <v>161.3375945908657</v>
+        <v>221.1218634959199</v>
       </c>
       <c r="E6" t="n">
-        <v>42.02425610119923</v>
+        <v>74.09385355279113</v>
       </c>
       <c r="F6" t="n">
-        <v>42.02425610119923</v>
+        <v>74.09385355279113</v>
       </c>
       <c r="G6" t="n">
         <v>42.02425610119923</v>
@@ -4646,16 +4646,16 @@
         <v>42.02425610119923</v>
       </c>
       <c r="J6" t="n">
-        <v>102.2784026343054</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="K6" t="n">
-        <v>102.2784026343054</v>
+        <v>271.5148086613879</v>
       </c>
       <c r="L6" t="n">
-        <v>468.100247804421</v>
+        <v>637.3366538315036</v>
       </c>
       <c r="M6" t="n">
-        <v>953.1336013146474</v>
+        <v>1122.37000734173</v>
       </c>
       <c r="N6" t="n">
         <v>1406.916935000113</v>
@@ -4670,28 +4670,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R6" t="n">
-        <v>2041.428536154907</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S6" t="n">
-        <v>1888.629049167647</v>
+        <v>1948.413318072701</v>
       </c>
       <c r="T6" t="n">
-        <v>1699.943945333632</v>
+        <v>1759.728214238687</v>
       </c>
       <c r="U6" t="n">
-        <v>1481.449152931943</v>
+        <v>1541.233421836997</v>
       </c>
       <c r="V6" t="n">
-        <v>1253.053530380276</v>
+        <v>1312.837799285331</v>
       </c>
       <c r="W6" t="n">
-        <v>1011.737661613587</v>
+        <v>1071.521930518641</v>
       </c>
       <c r="X6" t="n">
-        <v>813.8206734913811</v>
+        <v>873.6049423964351</v>
       </c>
       <c r="Y6" t="n">
-        <v>621.2993471409599</v>
+        <v>681.083616046014</v>
       </c>
     </row>
     <row r="7">
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="C7" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="D7" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="E7" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F7" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G7" t="n">
-        <v>405.6571843050742</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H7" t="n">
-        <v>246.284539084348</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I7" t="n">
-        <v>102.0814946870265</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J7" t="n">
         <v>42.02425610119923</v>
@@ -4752,25 +4752,25 @@
         <v>574.0835013471317</v>
       </c>
       <c r="S7" t="n">
-        <v>574.0835013471317</v>
+        <v>360.3737387508193</v>
       </c>
       <c r="T7" t="n">
-        <v>574.0835013471317</v>
+        <v>328.1806575838001</v>
       </c>
       <c r="U7" t="n">
-        <v>574.0835013471317</v>
+        <v>328.1806575838001</v>
       </c>
       <c r="V7" t="n">
-        <v>574.0835013471317</v>
+        <v>328.1806575838001</v>
       </c>
       <c r="W7" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="X7" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="Y7" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
     </row>
     <row r="8">
@@ -4780,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2010.574518555815</v>
+        <v>788.9967211937196</v>
       </c>
       <c r="C8" t="n">
-        <v>2010.574518555815</v>
+        <v>788.9967211937196</v>
       </c>
       <c r="D8" t="n">
-        <v>1772.703626424629</v>
+        <v>788.9967211937196</v>
       </c>
       <c r="E8" t="n">
-        <v>1377.917906530736</v>
+        <v>788.9967211937196</v>
       </c>
       <c r="F8" t="n">
-        <v>963.766715840906</v>
+        <v>374.84553050389</v>
       </c>
       <c r="G8" t="n">
-        <v>547.662729295094</v>
+        <v>374.84553050389</v>
       </c>
       <c r="H8" t="n">
-        <v>214.8414548924032</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I8" t="n">
         <v>42.02425610119923</v>
       </c>
       <c r="J8" t="n">
-        <v>114.0228003740045</v>
+        <v>114.0228003740049</v>
       </c>
       <c r="K8" t="n">
-        <v>354.1631724187873</v>
+        <v>354.1631724187877</v>
       </c>
       <c r="L8" t="n">
-        <v>702.0485455037335</v>
+        <v>702.048545503734</v>
       </c>
       <c r="M8" t="n">
-        <v>1095.287711756821</v>
+        <v>1095.287711756822</v>
       </c>
       <c r="N8" t="n">
-        <v>1473.619070444537</v>
+        <v>1473.619070444538</v>
       </c>
       <c r="O8" t="n">
         <v>1778.623654917371</v>
@@ -4831,25 +4831,25 @@
         <v>2010.574518555815</v>
       </c>
       <c r="S8" t="n">
-        <v>2010.574518555815</v>
+        <v>1967.755207995172</v>
       </c>
       <c r="T8" t="n">
-        <v>2010.574518555815</v>
+        <v>1743.396261726183</v>
       </c>
       <c r="U8" t="n">
-        <v>2010.574518555815</v>
+        <v>1488.510925440177</v>
       </c>
       <c r="V8" t="n">
-        <v>2010.574518555815</v>
+        <v>1151.531651336119</v>
       </c>
       <c r="W8" t="n">
-        <v>2010.574518555815</v>
+        <v>788.9967211937196</v>
       </c>
       <c r="X8" t="n">
-        <v>2010.574518555815</v>
+        <v>788.9967211937196</v>
       </c>
       <c r="Y8" t="n">
-        <v>2010.574518555815</v>
+        <v>788.9967211937196</v>
       </c>
     </row>
     <row r="9">
@@ -4859,40 +4859,40 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>852.9547312933042</v>
+        <v>461.879904359699</v>
       </c>
       <c r="C9" t="n">
-        <v>691.251058534259</v>
+        <v>300.1762316006536</v>
       </c>
       <c r="D9" t="n">
-        <v>552.412421524471</v>
+        <v>300.1762316006536</v>
       </c>
       <c r="E9" t="n">
-        <v>405.3844115813423</v>
+        <v>300.1762316006536</v>
       </c>
       <c r="F9" t="n">
-        <v>270.6906135312166</v>
+        <v>165.482433550528</v>
       </c>
       <c r="G9" t="n">
-        <v>141.9621135545012</v>
+        <v>165.482433550528</v>
       </c>
       <c r="H9" t="n">
-        <v>42.02425610119923</v>
+        <v>65.54457609722603</v>
       </c>
       <c r="I9" t="n">
         <v>42.02425610119923</v>
       </c>
       <c r="J9" t="n">
-        <v>42.02425610119923</v>
+        <v>102.2784026343054</v>
       </c>
       <c r="K9" t="n">
-        <v>42.02425610119923</v>
+        <v>331.768955194494</v>
       </c>
       <c r="L9" t="n">
-        <v>252.8463055811703</v>
+        <v>697.5908003646097</v>
       </c>
       <c r="M9" t="n">
-        <v>737.8796590913968</v>
+        <v>1182.624153874836</v>
       </c>
       <c r="N9" t="n">
         <v>1249.145305214519</v>
@@ -4907,28 +4907,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R9" t="n">
-        <v>2101.212805059961</v>
+        <v>2041.428536154907</v>
       </c>
       <c r="S9" t="n">
-        <v>2101.212805059961</v>
+        <v>1888.629049167647</v>
       </c>
       <c r="T9" t="n">
-        <v>2091.018772267238</v>
+        <v>1699.943945333632</v>
       </c>
       <c r="U9" t="n">
-        <v>1872.523979865548</v>
+        <v>1481.449152931943</v>
       </c>
       <c r="V9" t="n">
-        <v>1644.128357313882</v>
+        <v>1253.053530380276</v>
       </c>
       <c r="W9" t="n">
-        <v>1402.812488547192</v>
+        <v>1011.737661613587</v>
       </c>
       <c r="X9" t="n">
-        <v>1204.895500424986</v>
+        <v>813.8206734913811</v>
       </c>
       <c r="Y9" t="n">
-        <v>1012.374174074565</v>
+        <v>621.2993471409599</v>
       </c>
     </row>
     <row r="10">
@@ -4983,19 +4983,19 @@
         <v>574.0835013471317</v>
       </c>
       <c r="Q10" t="n">
-        <v>535.5461600008207</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="R10" t="n">
-        <v>386.0243786151989</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="S10" t="n">
-        <v>172.3146160188864</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="T10" t="n">
-        <v>42.02425610119923</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="U10" t="n">
-        <v>42.02425610119923</v>
+        <v>302.7595605427766</v>
       </c>
       <c r="V10" t="n">
         <v>42.02425610119923</v>
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>262.5569159062094</v>
+        <v>1205.100707739532</v>
       </c>
       <c r="C11" t="n">
-        <v>262.5569159062094</v>
+        <v>1205.100707739532</v>
       </c>
       <c r="D11" t="n">
-        <v>262.5569159062094</v>
+        <v>1205.100707739532</v>
       </c>
       <c r="E11" t="n">
-        <v>262.5569159062094</v>
+        <v>1205.100707739532</v>
       </c>
       <c r="F11" t="n">
-        <v>262.5569159062094</v>
+        <v>790.949517049702</v>
       </c>
       <c r="G11" t="n">
-        <v>262.5569159062094</v>
+        <v>374.84553050389</v>
       </c>
       <c r="H11" t="n">
-        <v>214.8414548924032</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I11" t="n">
         <v>42.02425610119923</v>
@@ -5068,25 +5068,25 @@
         <v>2010.574518555815</v>
       </c>
       <c r="S11" t="n">
-        <v>1823.345543186168</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="T11" t="n">
-        <v>1598.98659691718</v>
+        <v>1796.965318129596</v>
       </c>
       <c r="U11" t="n">
-        <v>1344.101260631174</v>
+        <v>1542.07998184359</v>
       </c>
       <c r="V11" t="n">
-        <v>1007.121986527115</v>
+        <v>1205.100707739532</v>
       </c>
       <c r="W11" t="n">
-        <v>644.5870563847161</v>
+        <v>1205.100707739532</v>
       </c>
       <c r="X11" t="n">
-        <v>262.5569159062094</v>
+        <v>1205.100707739532</v>
       </c>
       <c r="Y11" t="n">
-        <v>262.5569159062094</v>
+        <v>1205.100707739532</v>
       </c>
     </row>
     <row r="12">
@@ -5096,25 +5096,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>921.3370166032433</v>
+        <v>521.6641732647531</v>
       </c>
       <c r="C12" t="n">
-        <v>759.6333438441981</v>
+        <v>359.9605005057078</v>
       </c>
       <c r="D12" t="n">
-        <v>620.7947068344101</v>
+        <v>221.1218634959199</v>
       </c>
       <c r="E12" t="n">
-        <v>473.7666968912813</v>
+        <v>74.09385355279113</v>
       </c>
       <c r="F12" t="n">
-        <v>339.0728988411556</v>
+        <v>74.09385355279113</v>
       </c>
       <c r="G12" t="n">
-        <v>210.3443988644402</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H12" t="n">
-        <v>110.4065414111382</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I12" t="n">
         <v>42.02425610119923</v>
@@ -5129,43 +5129,43 @@
         <v>697.5908003646097</v>
       </c>
       <c r="M12" t="n">
-        <v>737.8796590913968</v>
+        <v>1182.624153874836</v>
       </c>
       <c r="N12" t="n">
-        <v>1249.145305214519</v>
+        <v>1406.916935000113</v>
       </c>
       <c r="O12" t="n">
-        <v>1641.34525599867</v>
+        <v>1799.116885784264</v>
       </c>
       <c r="P12" t="n">
-        <v>1943.441175274367</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="Q12" t="n">
         <v>2101.212805059961</v>
       </c>
       <c r="R12" t="n">
-        <v>2041.428536154907</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S12" t="n">
-        <v>1888.629049167647</v>
+        <v>1948.413318072701</v>
       </c>
       <c r="T12" t="n">
-        <v>1699.943945333632</v>
+        <v>1759.728214238687</v>
       </c>
       <c r="U12" t="n">
-        <v>1481.449152931943</v>
+        <v>1541.233421836997</v>
       </c>
       <c r="V12" t="n">
-        <v>1481.449152931943</v>
+        <v>1312.837799285331</v>
       </c>
       <c r="W12" t="n">
-        <v>1471.194773857131</v>
+        <v>1071.521930518641</v>
       </c>
       <c r="X12" t="n">
-        <v>1273.277785734925</v>
+        <v>873.6049423964351</v>
       </c>
       <c r="Y12" t="n">
-        <v>1080.756459384504</v>
+        <v>681.083616046014</v>
       </c>
     </row>
     <row r="13">
@@ -5220,28 +5220,28 @@
         <v>574.0835013471317</v>
       </c>
       <c r="Q13" t="n">
-        <v>535.5461600008207</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="R13" t="n">
-        <v>386.0243786151989</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="S13" t="n">
-        <v>172.3146160188864</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="T13" t="n">
-        <v>42.02425610119923</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="U13" t="n">
-        <v>42.02425610119923</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="V13" t="n">
-        <v>42.02425610119923</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="W13" t="n">
-        <v>42.02425610119923</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="X13" t="n">
-        <v>42.02425610119923</v>
+        <v>55.64079773160731</v>
       </c>
       <c r="Y13" t="n">
         <v>42.02425610119923</v>
@@ -5254,31 +5254,31 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1007.121986527115</v>
+        <v>962.0711201526672</v>
       </c>
       <c r="C14" t="n">
-        <v>1007.121986527115</v>
+        <v>962.0711201526672</v>
       </c>
       <c r="D14" t="n">
-        <v>1007.121986527115</v>
+        <v>589.2471553798907</v>
       </c>
       <c r="E14" t="n">
-        <v>1007.121986527115</v>
+        <v>458.1282426470112</v>
       </c>
       <c r="F14" t="n">
-        <v>963.766715840906</v>
+        <v>458.1282426470112</v>
       </c>
       <c r="G14" t="n">
-        <v>547.662729295094</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H14" t="n">
-        <v>214.8414548924033</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I14" t="n">
-        <v>42.02425610119928</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J14" t="n">
-        <v>114.022800374005</v>
+        <v>114.0228003740049</v>
       </c>
       <c r="K14" t="n">
         <v>354.1631724187877</v>
@@ -5314,16 +5314,16 @@
         <v>1344.101260631174</v>
       </c>
       <c r="V14" t="n">
-        <v>1007.121986527115</v>
+        <v>1344.101260631174</v>
       </c>
       <c r="W14" t="n">
-        <v>1007.121986527115</v>
+        <v>1344.101260631174</v>
       </c>
       <c r="X14" t="n">
-        <v>1007.121986527115</v>
+        <v>962.0711201526672</v>
       </c>
       <c r="Y14" t="n">
-        <v>1007.121986527115</v>
+        <v>962.0711201526672</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>921.3370166032433</v>
+        <v>521.6641732647531</v>
       </c>
       <c r="C15" t="n">
-        <v>759.6333438441981</v>
+        <v>359.9605005057078</v>
       </c>
       <c r="D15" t="n">
-        <v>620.7947068344101</v>
+        <v>221.1218634959199</v>
       </c>
       <c r="E15" t="n">
-        <v>473.7666968912813</v>
+        <v>74.09385355279113</v>
       </c>
       <c r="F15" t="n">
-        <v>339.0728988411556</v>
+        <v>74.09385355279113</v>
       </c>
       <c r="G15" t="n">
-        <v>210.3443988644402</v>
+        <v>74.09385355279113</v>
       </c>
       <c r="H15" t="n">
-        <v>110.4065414111382</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I15" t="n">
         <v>42.02425610119923</v>
       </c>
       <c r="J15" t="n">
-        <v>42.02425610119923</v>
+        <v>102.2784026343054</v>
       </c>
       <c r="K15" t="n">
-        <v>42.02425610119923</v>
+        <v>331.768955194494</v>
       </c>
       <c r="L15" t="n">
-        <v>407.8461012713149</v>
+        <v>697.5908003646097</v>
       </c>
       <c r="M15" t="n">
-        <v>892.8794547815413</v>
+        <v>895.6512888769911</v>
       </c>
       <c r="N15" t="n">
-        <v>1404.145100904663</v>
+        <v>1406.916935000113</v>
       </c>
       <c r="O15" t="n">
-        <v>1796.345051688814</v>
+        <v>1799.116885784264</v>
       </c>
       <c r="P15" t="n">
-        <v>2098.440970964512</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="Q15" t="n">
         <v>2101.212805059961</v>
       </c>
       <c r="R15" t="n">
-        <v>2041.428536154907</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S15" t="n">
-        <v>1888.629049167647</v>
+        <v>1948.413318072701</v>
       </c>
       <c r="T15" t="n">
-        <v>1699.943945333632</v>
+        <v>1759.728214238687</v>
       </c>
       <c r="U15" t="n">
-        <v>1481.449152931943</v>
+        <v>1541.233421836997</v>
       </c>
       <c r="V15" t="n">
-        <v>1253.053530380276</v>
+        <v>1312.837799285331</v>
       </c>
       <c r="W15" t="n">
-        <v>1253.053530380276</v>
+        <v>1071.521930518641</v>
       </c>
       <c r="X15" t="n">
-        <v>1253.053530380276</v>
+        <v>873.6049423964351</v>
       </c>
       <c r="Y15" t="n">
-        <v>1080.756459384504</v>
+        <v>681.083616046014</v>
       </c>
     </row>
     <row r="16">
@@ -5457,22 +5457,22 @@
         <v>574.0835013471317</v>
       </c>
       <c r="Q16" t="n">
-        <v>535.5461600008207</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="R16" t="n">
-        <v>386.0243786151989</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="S16" t="n">
-        <v>172.3146160188864</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="T16" t="n">
-        <v>42.02425610119923</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="U16" t="n">
-        <v>42.02425610119923</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="V16" t="n">
-        <v>42.02425610119923</v>
+        <v>328.1806575838001</v>
       </c>
       <c r="W16" t="n">
         <v>42.02425610119923</v>
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>478.4240529927279</v>
+        <v>1267.065153230734</v>
       </c>
       <c r="C17" t="n">
-        <v>96.49029432553527</v>
+        <v>1267.065153230734</v>
       </c>
       <c r="D17" t="n">
-        <v>42.02425610119923</v>
+        <v>1267.065153230734</v>
       </c>
       <c r="E17" t="n">
-        <v>42.02425610119923</v>
+        <v>872.2794333368408</v>
       </c>
       <c r="F17" t="n">
-        <v>42.02425610119923</v>
+        <v>458.1282426470112</v>
       </c>
       <c r="G17" t="n">
         <v>42.02425610119923</v>
@@ -5554,13 +5554,13 @@
         <v>2010.574518555815</v>
       </c>
       <c r="W17" t="n">
-        <v>1648.039588413416</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="X17" t="n">
-        <v>1266.009447934909</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="Y17" t="n">
-        <v>872.4675925107471</v>
+        <v>1661.108692748753</v>
       </c>
     </row>
     <row r="18">
@@ -5576,10 +5576,10 @@
         <v>300.1762316006536</v>
       </c>
       <c r="D18" t="n">
-        <v>161.3375945908657</v>
+        <v>300.1762316006536</v>
       </c>
       <c r="E18" t="n">
-        <v>42.02425610119923</v>
+        <v>176.7180541513249</v>
       </c>
       <c r="F18" t="n">
         <v>42.02425610119923</v>
@@ -5594,22 +5594,22 @@
         <v>42.02425610119923</v>
       </c>
       <c r="J18" t="n">
-        <v>42.02425610119923</v>
+        <v>102.2784026343054</v>
       </c>
       <c r="K18" t="n">
-        <v>271.5148086613879</v>
+        <v>331.768955194494</v>
       </c>
       <c r="L18" t="n">
-        <v>637.3366538315036</v>
+        <v>697.5908003646097</v>
       </c>
       <c r="M18" t="n">
-        <v>1122.37000734173</v>
+        <v>1182.624153874836</v>
       </c>
       <c r="N18" t="n">
-        <v>1633.635653464852</v>
+        <v>1693.889799997958</v>
       </c>
       <c r="O18" t="n">
-        <v>2025.835604249003</v>
+        <v>2086.089750782109</v>
       </c>
       <c r="P18" t="n">
         <v>2101.212805059961</v>
@@ -5697,22 +5697,22 @@
         <v>574.0835013471317</v>
       </c>
       <c r="R19" t="n">
-        <v>574.0835013471317</v>
+        <v>534.0120246474009</v>
       </c>
       <c r="S19" t="n">
-        <v>574.0835013471317</v>
+        <v>534.0120246474009</v>
       </c>
       <c r="T19" t="n">
-        <v>574.0835013471317</v>
+        <v>534.0120246474009</v>
       </c>
       <c r="U19" t="n">
-        <v>328.1806575838001</v>
+        <v>534.0120246474009</v>
       </c>
       <c r="V19" t="n">
-        <v>328.1806575838001</v>
+        <v>273.2767202058235</v>
       </c>
       <c r="W19" t="n">
-        <v>42.02425610119923</v>
+        <v>273.2767202058235</v>
       </c>
       <c r="X19" t="n">
         <v>42.02425610119923</v>
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>962.6041949210367</v>
+        <v>1267.065153230734</v>
       </c>
       <c r="C20" t="n">
-        <v>580.6704362538439</v>
+        <v>1267.065153230734</v>
       </c>
       <c r="D20" t="n">
-        <v>207.8464714810675</v>
+        <v>1267.065153230734</v>
       </c>
       <c r="E20" t="n">
-        <v>207.8464714810675</v>
+        <v>872.2794333368408</v>
       </c>
       <c r="F20" t="n">
-        <v>207.8464714810675</v>
+        <v>458.1282426470112</v>
       </c>
       <c r="G20" t="n">
-        <v>207.8464714810675</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H20" t="n">
-        <v>207.8464714810675</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I20" t="n">
         <v>42.02425610119923</v>
@@ -5755,16 +5755,16 @@
         <v>114.0228003740049</v>
       </c>
       <c r="K20" t="n">
-        <v>354.1631724187873</v>
+        <v>354.1631724187877</v>
       </c>
       <c r="L20" t="n">
-        <v>702.0485455037335</v>
+        <v>702.048545503734</v>
       </c>
       <c r="M20" t="n">
-        <v>1095.287711756821</v>
+        <v>1095.287711756822</v>
       </c>
       <c r="N20" t="n">
-        <v>1473.619070444537</v>
+        <v>1473.619070444538</v>
       </c>
       <c r="O20" t="n">
         <v>1778.623654917371</v>
@@ -5791,13 +5791,13 @@
         <v>2101.212805059961</v>
       </c>
       <c r="W20" t="n">
-        <v>1738.677874917562</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="X20" t="n">
-        <v>1356.647734439056</v>
+        <v>2054.650548172915</v>
       </c>
       <c r="Y20" t="n">
-        <v>1356.647734439056</v>
+        <v>1661.108692748753</v>
       </c>
     </row>
     <row r="21">
@@ -5807,19 +5807,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>461.879904359699</v>
+        <v>521.6641732647531</v>
       </c>
       <c r="C21" t="n">
-        <v>300.1762316006536</v>
+        <v>359.9605005057078</v>
       </c>
       <c r="D21" t="n">
-        <v>161.3375945908657</v>
+        <v>221.1218634959199</v>
       </c>
       <c r="E21" t="n">
-        <v>42.02425610119923</v>
+        <v>74.09385355279113</v>
       </c>
       <c r="F21" t="n">
-        <v>42.02425610119923</v>
+        <v>74.09385355279113</v>
       </c>
       <c r="G21" t="n">
         <v>42.02425610119923</v>
@@ -5843,10 +5843,10 @@
         <v>1182.624153874836</v>
       </c>
       <c r="N21" t="n">
-        <v>1693.889799997958</v>
+        <v>1406.916935000113</v>
       </c>
       <c r="O21" t="n">
-        <v>2086.089750782109</v>
+        <v>1799.116885784264</v>
       </c>
       <c r="P21" t="n">
         <v>2101.212805059961</v>
@@ -5855,28 +5855,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R21" t="n">
-        <v>2041.428536154907</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S21" t="n">
-        <v>1888.629049167647</v>
+        <v>1948.413318072701</v>
       </c>
       <c r="T21" t="n">
-        <v>1699.943945333632</v>
+        <v>1759.728214238687</v>
       </c>
       <c r="U21" t="n">
-        <v>1481.449152931943</v>
+        <v>1541.233421836997</v>
       </c>
       <c r="V21" t="n">
-        <v>1253.053530380276</v>
+        <v>1312.837799285331</v>
       </c>
       <c r="W21" t="n">
-        <v>1011.737661613587</v>
+        <v>1071.521930518641</v>
       </c>
       <c r="X21" t="n">
-        <v>813.8206734913811</v>
+        <v>873.6049423964351</v>
       </c>
       <c r="Y21" t="n">
-        <v>621.2993471409599</v>
+        <v>681.083616046014</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="C22" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="D22" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="E22" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F22" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G22" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H22" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I22" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J22" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="K22" t="n">
-        <v>1602.757747558672</v>
+        <v>75.62844384584264</v>
       </c>
       <c r="L22" t="n">
-        <v>1703.364826958932</v>
+        <v>176.2355232461022</v>
       </c>
       <c r="M22" t="n">
-        <v>1821.358333086534</v>
+        <v>294.2290293737039</v>
       </c>
       <c r="N22" t="n">
-        <v>1939.780674836134</v>
+        <v>412.6513711233043</v>
       </c>
       <c r="O22" t="n">
-        <v>2038.244321331824</v>
+        <v>511.1150176189939</v>
       </c>
       <c r="P22" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="Q22" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="R22" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="S22" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="T22" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="U22" t="n">
-        <v>1814.022565549061</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="V22" t="n">
-        <v>1569.153559814029</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="W22" t="n">
-        <v>1569.153559814029</v>
+        <v>264.0594149089221</v>
       </c>
       <c r="X22" t="n">
-        <v>1569.153559814029</v>
+        <v>264.0594149089221</v>
       </c>
       <c r="Y22" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>569.0623394968745</v>
+        <v>1254.497732989254</v>
       </c>
       <c r="C23" t="n">
-        <v>456.1754467910289</v>
+        <v>872.5639743220609</v>
       </c>
       <c r="D23" t="n">
-        <v>456.1754467910289</v>
+        <v>872.2794333368408</v>
       </c>
       <c r="E23" t="n">
-        <v>456.1754467910289</v>
+        <v>872.2794333368408</v>
       </c>
       <c r="F23" t="n">
-        <v>42.02425610119923</v>
+        <v>458.1282426470112</v>
       </c>
       <c r="G23" t="n">
         <v>42.02425610119923</v>
@@ -5986,22 +5986,22 @@
         <v>42.02425610119923</v>
       </c>
       <c r="I23" t="n">
-        <v>42.02425610119884</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J23" t="n">
-        <v>114.0228003740045</v>
+        <v>114.0228003740049</v>
       </c>
       <c r="K23" t="n">
-        <v>354.1631724187873</v>
+        <v>354.1631724187877</v>
       </c>
       <c r="L23" t="n">
-        <v>702.0485455037335</v>
+        <v>702.048545503734</v>
       </c>
       <c r="M23" t="n">
-        <v>1095.287711756821</v>
+        <v>1095.287711756822</v>
       </c>
       <c r="N23" t="n">
-        <v>1473.619070444537</v>
+        <v>1473.619070444538</v>
       </c>
       <c r="O23" t="n">
         <v>1778.623654917371</v>
@@ -6013,28 +6013,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R23" t="n">
-        <v>2101.212805059961</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="S23" t="n">
-        <v>2101.212805059961</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="T23" t="n">
-        <v>2101.212805059961</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="U23" t="n">
-        <v>2101.212805059961</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="V23" t="n">
-        <v>2101.212805059961</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="W23" t="n">
-        <v>1738.677874917562</v>
+        <v>1648.039588413416</v>
       </c>
       <c r="X23" t="n">
-        <v>1356.647734439056</v>
+        <v>1648.039588413416</v>
       </c>
       <c r="Y23" t="n">
-        <v>963.1058790148937</v>
+        <v>1254.497732989254</v>
       </c>
     </row>
     <row r="24">
@@ -6044,25 +6044,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>921.3370166032433</v>
+        <v>521.6641732647531</v>
       </c>
       <c r="C24" t="n">
-        <v>759.6333438441981</v>
+        <v>359.9605005057078</v>
       </c>
       <c r="D24" t="n">
-        <v>620.7947068344101</v>
+        <v>221.1218634959199</v>
       </c>
       <c r="E24" t="n">
-        <v>473.7666968912813</v>
+        <v>74.09385355279113</v>
       </c>
       <c r="F24" t="n">
-        <v>339.0728988411556</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G24" t="n">
-        <v>210.3443988644402</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H24" t="n">
-        <v>110.4065414111382</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I24" t="n">
         <v>42.02425610119923</v>
@@ -6074,19 +6074,19 @@
         <v>331.768955194494</v>
       </c>
       <c r="L24" t="n">
-        <v>410.6179353667646</v>
+        <v>697.5908003646097</v>
       </c>
       <c r="M24" t="n">
-        <v>895.6512888769911</v>
+        <v>1182.624153874836</v>
       </c>
       <c r="N24" t="n">
-        <v>1406.916935000113</v>
+        <v>1641.34525599867</v>
       </c>
       <c r="O24" t="n">
-        <v>1799.116885784264</v>
+        <v>1641.34525599867</v>
       </c>
       <c r="P24" t="n">
-        <v>2101.212805059961</v>
+        <v>1943.441175274367</v>
       </c>
       <c r="Q24" t="n">
         <v>2101.212805059961</v>
@@ -6095,25 +6095,25 @@
         <v>2101.212805059961</v>
       </c>
       <c r="S24" t="n">
-        <v>2101.212805059961</v>
+        <v>1948.413318072701</v>
       </c>
       <c r="T24" t="n">
-        <v>2101.212805059961</v>
+        <v>1759.728214238687</v>
       </c>
       <c r="U24" t="n">
-        <v>1940.906265175487</v>
+        <v>1541.233421836997</v>
       </c>
       <c r="V24" t="n">
-        <v>1712.510642623821</v>
+        <v>1312.837799285331</v>
       </c>
       <c r="W24" t="n">
-        <v>1471.194773857131</v>
+        <v>1071.521930518641</v>
       </c>
       <c r="X24" t="n">
-        <v>1273.277785734925</v>
+        <v>873.6049423964351</v>
       </c>
       <c r="Y24" t="n">
-        <v>1080.756459384504</v>
+        <v>681.083616046014</v>
       </c>
     </row>
     <row r="25">
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>287.9270998645308</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="C25" t="n">
-        <v>287.9270998645308</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="D25" t="n">
-        <v>287.9270998645308</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="E25" t="n">
-        <v>287.9270998645308</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F25" t="n">
-        <v>210.9440047333492</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G25" t="n">
         <v>42.02425610119923</v>
@@ -6180,19 +6180,19 @@
         <v>574.0835013471317</v>
       </c>
       <c r="U25" t="n">
-        <v>574.0835013471317</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="V25" t="n">
-        <v>574.0835013471317</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="W25" t="n">
-        <v>287.9270998645308</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="X25" t="n">
-        <v>287.9270998645308</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="Y25" t="n">
-        <v>287.9270998645308</v>
+        <v>42.02425610119923</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>963.1058790148937</v>
+        <v>796.7819795411683</v>
       </c>
       <c r="C26" t="n">
-        <v>963.1058790148937</v>
+        <v>414.8482208739757</v>
       </c>
       <c r="D26" t="n">
-        <v>963.1058790148937</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="E26" t="n">
-        <v>963.1058790148937</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F26" t="n">
-        <v>548.9546883250641</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G26" t="n">
-        <v>547.662729295094</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H26" t="n">
-        <v>214.8414548924032</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I26" t="n">
         <v>42.02425610119923</v>
@@ -6259,19 +6259,19 @@
         <v>2101.212805059961</v>
       </c>
       <c r="U26" t="n">
-        <v>2101.212805059961</v>
+        <v>1846.327468773955</v>
       </c>
       <c r="V26" t="n">
-        <v>2101.212805059961</v>
+        <v>1509.348194669897</v>
       </c>
       <c r="W26" t="n">
-        <v>1738.677874917562</v>
+        <v>1146.813264527498</v>
       </c>
       <c r="X26" t="n">
-        <v>1356.647734439056</v>
+        <v>1146.813264527498</v>
       </c>
       <c r="Y26" t="n">
-        <v>963.1058790148937</v>
+        <v>1146.813264527498</v>
       </c>
     </row>
     <row r="27">
@@ -6281,22 +6281,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>852.9547312933042</v>
+        <v>521.6641732647531</v>
       </c>
       <c r="C27" t="n">
-        <v>691.251058534259</v>
+        <v>359.9605005057078</v>
       </c>
       <c r="D27" t="n">
-        <v>552.412421524471</v>
+        <v>221.1218634959199</v>
       </c>
       <c r="E27" t="n">
-        <v>405.3844115813423</v>
+        <v>74.09385355279113</v>
       </c>
       <c r="F27" t="n">
-        <v>270.6906135312166</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G27" t="n">
-        <v>141.9621135545012</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H27" t="n">
         <v>42.02425610119923</v>
@@ -6320,7 +6320,7 @@
         <v>1693.889799997958</v>
       </c>
       <c r="O27" t="n">
-        <v>2086.089750782109</v>
+        <v>1799.116885784264</v>
       </c>
       <c r="P27" t="n">
         <v>2101.212805059961</v>
@@ -6335,22 +6335,22 @@
         <v>1948.413318072701</v>
       </c>
       <c r="T27" t="n">
-        <v>1948.413318072701</v>
+        <v>1759.728214238687</v>
       </c>
       <c r="U27" t="n">
-        <v>1872.523979865548</v>
+        <v>1541.233421836997</v>
       </c>
       <c r="V27" t="n">
-        <v>1644.128357313882</v>
+        <v>1312.837799285331</v>
       </c>
       <c r="W27" t="n">
-        <v>1402.812488547192</v>
+        <v>1071.521930518641</v>
       </c>
       <c r="X27" t="n">
-        <v>1204.895500424986</v>
+        <v>873.6049423964351</v>
       </c>
       <c r="Y27" t="n">
-        <v>1012.374174074565</v>
+        <v>681.083616046014</v>
       </c>
     </row>
     <row r="28">
@@ -6408,19 +6408,19 @@
         <v>574.0835013471317</v>
       </c>
       <c r="R28" t="n">
-        <v>424.5617199615099</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="S28" t="n">
-        <v>210.8519573651974</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="T28" t="n">
-        <v>42.02425610119923</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="U28" t="n">
-        <v>42.02425610119923</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="V28" t="n">
-        <v>42.02425610119923</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="W28" t="n">
         <v>42.02425610119923</v>
@@ -6439,43 +6439,43 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>877.403451884061</v>
+        <v>1204.943057399161</v>
       </c>
       <c r="C29" t="n">
-        <v>877.403451884061</v>
+        <v>1204.943057399161</v>
       </c>
       <c r="D29" t="n">
-        <v>504.5794871112846</v>
+        <v>1204.943057399161</v>
       </c>
       <c r="E29" t="n">
-        <v>504.5794871112846</v>
+        <v>872.2794333368408</v>
       </c>
       <c r="F29" t="n">
-        <v>214.8414548924032</v>
+        <v>458.1282426470112</v>
       </c>
       <c r="G29" t="n">
-        <v>214.8414548924032</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H29" t="n">
-        <v>214.8414548924032</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I29" t="n">
         <v>42.02425610119923</v>
       </c>
       <c r="J29" t="n">
-        <v>114.0228003740045</v>
+        <v>114.0228003740049</v>
       </c>
       <c r="K29" t="n">
-        <v>354.1631724187873</v>
+        <v>354.1631724187877</v>
       </c>
       <c r="L29" t="n">
-        <v>702.0485455037335</v>
+        <v>702.048545503734</v>
       </c>
       <c r="M29" t="n">
-        <v>1095.287711756821</v>
+        <v>1095.287711756822</v>
       </c>
       <c r="N29" t="n">
-        <v>1473.619070444537</v>
+        <v>1473.619070444538</v>
       </c>
       <c r="O29" t="n">
         <v>1778.623654917371</v>
@@ -6487,28 +6487,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R29" t="n">
-        <v>2101.212805059961</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="S29" t="n">
-        <v>2101.212805059961</v>
+        <v>1823.345543186168</v>
       </c>
       <c r="T29" t="n">
-        <v>1876.853858790972</v>
+        <v>1598.98659691718</v>
       </c>
       <c r="U29" t="n">
-        <v>1621.968522504967</v>
+        <v>1598.98659691718</v>
       </c>
       <c r="V29" t="n">
-        <v>1621.968522504967</v>
+        <v>1598.98659691718</v>
       </c>
       <c r="W29" t="n">
-        <v>1259.433592362568</v>
+        <v>1598.98659691718</v>
       </c>
       <c r="X29" t="n">
-        <v>877.403451884061</v>
+        <v>1598.98659691718</v>
       </c>
       <c r="Y29" t="n">
-        <v>877.403451884061</v>
+        <v>1598.98659691718</v>
       </c>
     </row>
     <row r="30">
@@ -6518,25 +6518,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>921.3370166032433</v>
+        <v>521.6641732647531</v>
       </c>
       <c r="C30" t="n">
-        <v>759.6333438441981</v>
+        <v>359.9605005057078</v>
       </c>
       <c r="D30" t="n">
-        <v>620.7947068344101</v>
+        <v>221.1218634959199</v>
       </c>
       <c r="E30" t="n">
-        <v>473.7666968912813</v>
+        <v>176.7180541513249</v>
       </c>
       <c r="F30" t="n">
-        <v>339.0728988411556</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G30" t="n">
-        <v>210.3443988644402</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H30" t="n">
-        <v>110.4065414111382</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I30" t="n">
         <v>42.02425610119923</v>
@@ -6569,25 +6569,25 @@
         <v>2101.212805059961</v>
       </c>
       <c r="S30" t="n">
-        <v>2101.212805059961</v>
+        <v>1948.413318072701</v>
       </c>
       <c r="T30" t="n">
-        <v>1912.527701225946</v>
+        <v>1759.728214238687</v>
       </c>
       <c r="U30" t="n">
-        <v>1694.032908824257</v>
+        <v>1541.233421836997</v>
       </c>
       <c r="V30" t="n">
-        <v>1465.63728627259</v>
+        <v>1312.837799285331</v>
       </c>
       <c r="W30" t="n">
-        <v>1465.63728627259</v>
+        <v>1071.521930518641</v>
       </c>
       <c r="X30" t="n">
-        <v>1273.277785734925</v>
+        <v>873.6049423964351</v>
       </c>
       <c r="Y30" t="n">
-        <v>1080.756459384504</v>
+        <v>681.083616046014</v>
       </c>
     </row>
     <row r="31">
@@ -6654,19 +6654,19 @@
         <v>574.0835013471317</v>
       </c>
       <c r="U31" t="n">
-        <v>286.8932618362315</v>
+        <v>302.7595605427766</v>
       </c>
       <c r="V31" t="n">
-        <v>286.8932618362315</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="W31" t="n">
-        <v>286.8932618362315</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="X31" t="n">
-        <v>55.64079773160731</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.64079773160731</v>
+        <v>42.02425610119923</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1605.718890124891</v>
+        <v>1267.065153230734</v>
       </c>
       <c r="C32" t="n">
-        <v>1223.785131457699</v>
+        <v>1267.065153230734</v>
       </c>
       <c r="D32" t="n">
-        <v>850.9611666849221</v>
+        <v>1267.065153230734</v>
       </c>
       <c r="E32" t="n">
-        <v>456.1754467910289</v>
+        <v>872.2794333368408</v>
       </c>
       <c r="F32" t="n">
-        <v>42.02425610119923</v>
+        <v>458.1282426470112</v>
       </c>
       <c r="G32" t="n">
         <v>42.02425610119923</v>
@@ -6700,19 +6700,19 @@
         <v>42.02425610119923</v>
       </c>
       <c r="J32" t="n">
-        <v>114.0228003740049</v>
+        <v>114.0228003740045</v>
       </c>
       <c r="K32" t="n">
-        <v>354.1631724187877</v>
+        <v>354.1631724187873</v>
       </c>
       <c r="L32" t="n">
-        <v>702.048545503734</v>
+        <v>702.0485455037335</v>
       </c>
       <c r="M32" t="n">
-        <v>1095.287711756822</v>
+        <v>1095.287711756821</v>
       </c>
       <c r="N32" t="n">
-        <v>1473.619070444538</v>
+        <v>1473.619070444537</v>
       </c>
       <c r="O32" t="n">
         <v>1778.623654917371</v>
@@ -6724,28 +6724,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R32" t="n">
-        <v>2101.212805059961</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="S32" t="n">
-        <v>2101.212805059961</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="T32" t="n">
-        <v>2101.212805059961</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="U32" t="n">
-        <v>2101.212805059961</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="V32" t="n">
-        <v>1968.25382026729</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="W32" t="n">
-        <v>1605.718890124891</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="X32" t="n">
-        <v>1605.718890124891</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="Y32" t="n">
-        <v>1605.718890124891</v>
+        <v>1661.108692748753</v>
       </c>
     </row>
     <row r="33">
@@ -6755,49 +6755,49 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>921.3370166032433</v>
+        <v>521.6641732647531</v>
       </c>
       <c r="C33" t="n">
-        <v>759.6333438441981</v>
+        <v>359.9605005057078</v>
       </c>
       <c r="D33" t="n">
-        <v>620.7947068344101</v>
+        <v>221.1218634959199</v>
       </c>
       <c r="E33" t="n">
-        <v>473.7666968912813</v>
+        <v>176.7180541513249</v>
       </c>
       <c r="F33" t="n">
-        <v>339.0728988411556</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G33" t="n">
-        <v>210.3443988644402</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H33" t="n">
-        <v>110.4065414111382</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I33" t="n">
         <v>42.02425610119923</v>
       </c>
       <c r="J33" t="n">
-        <v>42.02425610119923</v>
+        <v>102.2784026343054</v>
       </c>
       <c r="K33" t="n">
-        <v>42.02425610119923</v>
+        <v>331.768955194494</v>
       </c>
       <c r="L33" t="n">
-        <v>252.8463055811703</v>
+        <v>697.5908003646097</v>
       </c>
       <c r="M33" t="n">
-        <v>737.8796590913968</v>
+        <v>1182.624153874836</v>
       </c>
       <c r="N33" t="n">
-        <v>1249.145305214519</v>
+        <v>1693.889799997958</v>
       </c>
       <c r="O33" t="n">
-        <v>1641.34525599867</v>
+        <v>2086.089750782109</v>
       </c>
       <c r="P33" t="n">
-        <v>1943.441175274367</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="Q33" t="n">
         <v>2101.212805059961</v>
@@ -6812,19 +6812,19 @@
         <v>1759.728214238687</v>
       </c>
       <c r="U33" t="n">
-        <v>1759.728214238687</v>
+        <v>1541.233421836997</v>
       </c>
       <c r="V33" t="n">
-        <v>1531.332591687021</v>
+        <v>1312.837799285331</v>
       </c>
       <c r="W33" t="n">
-        <v>1471.194773857131</v>
+        <v>1071.521930518641</v>
       </c>
       <c r="X33" t="n">
-        <v>1273.277785734925</v>
+        <v>873.6049423964351</v>
       </c>
       <c r="Y33" t="n">
-        <v>1080.756459384504</v>
+        <v>681.083616046014</v>
       </c>
     </row>
     <row r="34">
@@ -6879,22 +6879,22 @@
         <v>574.0835013471317</v>
       </c>
       <c r="Q34" t="n">
-        <v>535.5461600008207</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="R34" t="n">
-        <v>535.5461600008207</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="S34" t="n">
-        <v>535.5461600008207</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="T34" t="n">
-        <v>329.2144956120994</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="U34" t="n">
-        <v>42.02425610119923</v>
+        <v>328.1806575838001</v>
       </c>
       <c r="V34" t="n">
-        <v>42.02425610119923</v>
+        <v>328.1806575838001</v>
       </c>
       <c r="W34" t="n">
         <v>42.02425610119923</v>
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>710.7942731794411</v>
+        <v>1738.677874917563</v>
       </c>
       <c r="C35" t="n">
-        <v>328.8605145122485</v>
+        <v>1356.74411625037</v>
       </c>
       <c r="D35" t="n">
-        <v>42.02425610119923</v>
+        <v>983.9201514775937</v>
       </c>
       <c r="E35" t="n">
-        <v>42.02425610119923</v>
+        <v>872.2794333368408</v>
       </c>
       <c r="F35" t="n">
-        <v>42.02425610119923</v>
+        <v>458.1282426470112</v>
       </c>
       <c r="G35" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="H35" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="I35" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="J35" t="n">
         <v>114.0228003740049</v>
       </c>
       <c r="K35" t="n">
-        <v>354.1631724187873</v>
+        <v>354.1631724187877</v>
       </c>
       <c r="L35" t="n">
-        <v>702.0485455037335</v>
+        <v>702.048545503734</v>
       </c>
       <c r="M35" t="n">
-        <v>1095.287711756821</v>
+        <v>1095.287711756822</v>
       </c>
       <c r="N35" t="n">
-        <v>1473.619070444537</v>
+        <v>1473.619070444538</v>
       </c>
       <c r="O35" t="n">
-        <v>1778.623654917371</v>
+        <v>1778.623654917372</v>
       </c>
       <c r="P35" t="n">
-        <v>2006.780551373424</v>
+        <v>2006.780551373425</v>
       </c>
       <c r="Q35" t="n">
-        <v>2101.212805059961</v>
+        <v>2101.212805059962</v>
       </c>
       <c r="R35" t="n">
-        <v>2010.574518555815</v>
+        <v>2101.212805059962</v>
       </c>
       <c r="S35" t="n">
-        <v>1823.345543186168</v>
+        <v>2101.212805059962</v>
       </c>
       <c r="T35" t="n">
-        <v>1823.345543186168</v>
+        <v>2101.212805059962</v>
       </c>
       <c r="U35" t="n">
-        <v>1823.345543186168</v>
+        <v>2101.212805059962</v>
       </c>
       <c r="V35" t="n">
-        <v>1486.36626908211</v>
+        <v>2101.212805059962</v>
       </c>
       <c r="W35" t="n">
-        <v>1486.36626908211</v>
+        <v>1738.677874917563</v>
       </c>
       <c r="X35" t="n">
-        <v>1104.336128603603</v>
+        <v>1738.677874917563</v>
       </c>
       <c r="Y35" t="n">
-        <v>710.7942731794411</v>
+        <v>1738.677874917563</v>
       </c>
     </row>
     <row r="36">
@@ -6992,31 +6992,31 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>624.2883738632869</v>
+        <v>521.6641732647536</v>
       </c>
       <c r="C36" t="n">
-        <v>462.5847011042416</v>
+        <v>359.9605005057083</v>
       </c>
       <c r="D36" t="n">
-        <v>323.7460640944537</v>
+        <v>221.1218634959204</v>
       </c>
       <c r="E36" t="n">
-        <v>176.7180541513249</v>
+        <v>74.09385355279159</v>
       </c>
       <c r="F36" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="G36" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="H36" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="I36" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="J36" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="K36" t="n">
         <v>271.5148086613879</v>
@@ -7034,34 +7034,34 @@
         <v>2025.835604249003</v>
       </c>
       <c r="P36" t="n">
-        <v>2101.212805059961</v>
+        <v>2101.212805059962</v>
       </c>
       <c r="Q36" t="n">
-        <v>2101.212805059961</v>
+        <v>2101.212805059962</v>
       </c>
       <c r="R36" t="n">
-        <v>2101.212805059961</v>
+        <v>2101.212805059962</v>
       </c>
       <c r="S36" t="n">
-        <v>2051.037518671235</v>
+        <v>1948.413318072702</v>
       </c>
       <c r="T36" t="n">
-        <v>1862.35241483722</v>
+        <v>1759.728214238687</v>
       </c>
       <c r="U36" t="n">
-        <v>1643.85762243553</v>
+        <v>1541.233421836997</v>
       </c>
       <c r="V36" t="n">
-        <v>1415.461999883864</v>
+        <v>1312.837799285331</v>
       </c>
       <c r="W36" t="n">
-        <v>1174.146131117174</v>
+        <v>1071.521930518641</v>
       </c>
       <c r="X36" t="n">
-        <v>976.229142994969</v>
+        <v>873.6049423964356</v>
       </c>
       <c r="Y36" t="n">
-        <v>783.7078166445478</v>
+        <v>681.0836160460144</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="C37" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="D37" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="E37" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="F37" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="G37" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="H37" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="I37" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="J37" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="K37" t="n">
-        <v>1602.757747558672</v>
+        <v>75.62844384584264</v>
       </c>
       <c r="L37" t="n">
-        <v>1703.364826958932</v>
+        <v>176.2355232461022</v>
       </c>
       <c r="M37" t="n">
-        <v>1821.358333086534</v>
+        <v>294.2290293737039</v>
       </c>
       <c r="N37" t="n">
-        <v>1939.780674836134</v>
+        <v>412.6513711233043</v>
       </c>
       <c r="O37" t="n">
-        <v>2038.244321331824</v>
+        <v>511.1150176189939</v>
       </c>
       <c r="P37" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="Q37" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="R37" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="S37" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="T37" t="n">
-        <v>1868.03385187564</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="U37" t="n">
-        <v>1868.03385187564</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="V37" t="n">
-        <v>1868.03385187564</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="W37" t="n">
-        <v>1868.03385187564</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="X37" t="n">
-        <v>1636.781387771016</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="Y37" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119924</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>42.02425610119923</v>
+        <v>1639.88911800351</v>
       </c>
       <c r="C38" t="n">
-        <v>42.02425610119923</v>
+        <v>1639.88911800351</v>
       </c>
       <c r="D38" t="n">
-        <v>42.02425610119923</v>
+        <v>1267.065153230734</v>
       </c>
       <c r="E38" t="n">
-        <v>42.02425610119923</v>
+        <v>872.2794333368408</v>
       </c>
       <c r="F38" t="n">
-        <v>42.02425610119923</v>
+        <v>458.1282426470112</v>
       </c>
       <c r="G38" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="H38" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="I38" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="J38" t="n">
         <v>114.0228003740049</v>
       </c>
       <c r="K38" t="n">
-        <v>354.1631724187876</v>
+        <v>354.1631724187877</v>
       </c>
       <c r="L38" t="n">
-        <v>702.0485455037335</v>
+        <v>702.048545503734</v>
       </c>
       <c r="M38" t="n">
-        <v>1095.287711756821</v>
+        <v>1095.287711756822</v>
       </c>
       <c r="N38" t="n">
-        <v>1473.619070444537</v>
+        <v>1473.619070444538</v>
       </c>
       <c r="O38" t="n">
-        <v>1778.623654917371</v>
+        <v>1778.623654917372</v>
       </c>
       <c r="P38" t="n">
-        <v>2006.780551373424</v>
+        <v>2006.780551373425</v>
       </c>
       <c r="Q38" t="n">
-        <v>2101.212805059961</v>
+        <v>2101.212805059962</v>
       </c>
       <c r="R38" t="n">
-        <v>2010.574518555815</v>
+        <v>2101.212805059962</v>
       </c>
       <c r="S38" t="n">
-        <v>1823.345543186168</v>
+        <v>2101.212805059962</v>
       </c>
       <c r="T38" t="n">
-        <v>1598.98659691718</v>
+        <v>2101.212805059962</v>
       </c>
       <c r="U38" t="n">
-        <v>1344.101260631174</v>
+        <v>2101.212805059962</v>
       </c>
       <c r="V38" t="n">
-        <v>1192.144581185779</v>
+        <v>2101.212805059962</v>
       </c>
       <c r="W38" t="n">
-        <v>829.6096510433804</v>
+        <v>2101.212805059962</v>
       </c>
       <c r="X38" t="n">
-        <v>829.6096510433804</v>
+        <v>2101.212805059962</v>
       </c>
       <c r="Y38" t="n">
-        <v>436.0677956192184</v>
+        <v>2033.93265752153</v>
       </c>
     </row>
     <row r="39">
@@ -7229,31 +7229,31 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>921.3370166032433</v>
+        <v>624.2883738632869</v>
       </c>
       <c r="C39" t="n">
-        <v>759.6333438441981</v>
+        <v>462.5847011042416</v>
       </c>
       <c r="D39" t="n">
-        <v>620.7947068344101</v>
+        <v>323.7460640944537</v>
       </c>
       <c r="E39" t="n">
-        <v>473.7666968912813</v>
+        <v>176.7180541513249</v>
       </c>
       <c r="F39" t="n">
-        <v>339.0728988411556</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="G39" t="n">
-        <v>210.3443988644402</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="H39" t="n">
-        <v>110.4065414111382</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="I39" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="J39" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="K39" t="n">
         <v>271.5148086613879</v>
@@ -7265,40 +7265,40 @@
         <v>1122.37000734173</v>
       </c>
       <c r="N39" t="n">
-        <v>1633.635653464852</v>
+        <v>1406.916935000114</v>
       </c>
       <c r="O39" t="n">
-        <v>2025.835604249003</v>
+        <v>1799.116885784264</v>
       </c>
       <c r="P39" t="n">
-        <v>2101.212805059961</v>
+        <v>2101.212805059962</v>
       </c>
       <c r="Q39" t="n">
-        <v>2101.212805059961</v>
+        <v>2101.212805059962</v>
       </c>
       <c r="R39" t="n">
-        <v>2101.212805059961</v>
+        <v>2101.212805059962</v>
       </c>
       <c r="S39" t="n">
-        <v>2101.212805059961</v>
+        <v>2051.037518671235</v>
       </c>
       <c r="T39" t="n">
-        <v>2101.212805059961</v>
+        <v>1862.35241483722</v>
       </c>
       <c r="U39" t="n">
-        <v>1940.906265175487</v>
+        <v>1643.85762243553</v>
       </c>
       <c r="V39" t="n">
-        <v>1712.510642623821</v>
+        <v>1415.461999883864</v>
       </c>
       <c r="W39" t="n">
-        <v>1471.194773857131</v>
+        <v>1174.146131117174</v>
       </c>
       <c r="X39" t="n">
-        <v>1273.277785734925</v>
+        <v>976.229142994969</v>
       </c>
       <c r="Y39" t="n">
-        <v>1080.756459384504</v>
+        <v>783.7078166445478</v>
       </c>
     </row>
     <row r="40">
@@ -7308,31 +7308,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="C40" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="D40" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="E40" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="F40" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="G40" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="H40" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="I40" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="J40" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="K40" t="n">
         <v>75.62844384584264</v>
@@ -7365,19 +7365,19 @@
         <v>574.0835013471317</v>
       </c>
       <c r="U40" t="n">
-        <v>302.7595605427766</v>
+        <v>328.1806575838001</v>
       </c>
       <c r="V40" t="n">
-        <v>42.02425610119923</v>
+        <v>328.1806575838001</v>
       </c>
       <c r="W40" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="X40" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="Y40" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
     </row>
     <row r="41">
@@ -7387,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1605.718890124891</v>
+        <v>922.4543182585094</v>
       </c>
       <c r="C41" t="n">
-        <v>1223.785131457699</v>
+        <v>747.6694952766663</v>
       </c>
       <c r="D41" t="n">
-        <v>850.9611666849221</v>
+        <v>374.84553050389</v>
       </c>
       <c r="E41" t="n">
-        <v>456.1754467910289</v>
+        <v>374.84553050389</v>
       </c>
       <c r="F41" t="n">
-        <v>42.02425610119923</v>
+        <v>374.84553050389</v>
       </c>
       <c r="G41" t="n">
-        <v>42.02425610119923</v>
+        <v>374.84553050389</v>
       </c>
       <c r="H41" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="I41" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="J41" t="n">
         <v>114.0228003740049</v>
@@ -7426,37 +7426,37 @@
         <v>1473.619070444538</v>
       </c>
       <c r="O41" t="n">
-        <v>1778.623654917371</v>
+        <v>1778.623654917372</v>
       </c>
       <c r="P41" t="n">
-        <v>2006.780551373424</v>
+        <v>2006.780551373425</v>
       </c>
       <c r="Q41" t="n">
-        <v>2101.212805059961</v>
+        <v>2101.212805059962</v>
       </c>
       <c r="R41" t="n">
-        <v>2010.574518555815</v>
+        <v>2101.212805059962</v>
       </c>
       <c r="S41" t="n">
-        <v>2010.574518555815</v>
+        <v>2101.212805059962</v>
       </c>
       <c r="T41" t="n">
-        <v>2010.574518555815</v>
+        <v>1876.853858790973</v>
       </c>
       <c r="U41" t="n">
-        <v>2010.574518555815</v>
+        <v>1621.968522504967</v>
       </c>
       <c r="V41" t="n">
-        <v>2010.574518555815</v>
+        <v>1284.989248400908</v>
       </c>
       <c r="W41" t="n">
-        <v>2010.574518555815</v>
+        <v>922.4543182585094</v>
       </c>
       <c r="X41" t="n">
-        <v>2010.574518555815</v>
+        <v>922.4543182585094</v>
       </c>
       <c r="Y41" t="n">
-        <v>1617.032663131652</v>
+        <v>922.4543182585094</v>
       </c>
     </row>
     <row r="42">
@@ -7466,28 +7466,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>921.3370166032433</v>
+        <v>624.2883738632869</v>
       </c>
       <c r="C42" t="n">
-        <v>759.6333438441981</v>
+        <v>462.5847011042416</v>
       </c>
       <c r="D42" t="n">
-        <v>620.7947068344101</v>
+        <v>323.7460640944537</v>
       </c>
       <c r="E42" t="n">
-        <v>473.7666968912813</v>
+        <v>176.7180541513249</v>
       </c>
       <c r="F42" t="n">
-        <v>339.0728988411556</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="G42" t="n">
-        <v>210.3443988644402</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="H42" t="n">
-        <v>110.4065414111382</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="I42" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="J42" t="n">
         <v>102.2784026343054</v>
@@ -7496,46 +7496,46 @@
         <v>102.2784026343054</v>
       </c>
       <c r="L42" t="n">
-        <v>410.6179353667646</v>
+        <v>468.100247804421</v>
       </c>
       <c r="M42" t="n">
-        <v>895.6512888769911</v>
+        <v>953.1336013146474</v>
       </c>
       <c r="N42" t="n">
-        <v>1406.916935000113</v>
+        <v>1249.145305214519</v>
       </c>
       <c r="O42" t="n">
-        <v>1799.116885784264</v>
+        <v>1641.34525599867</v>
       </c>
       <c r="P42" t="n">
-        <v>2101.212805059961</v>
+        <v>1943.441175274367</v>
       </c>
       <c r="Q42" t="n">
-        <v>2101.212805059961</v>
+        <v>2101.212805059962</v>
       </c>
       <c r="R42" t="n">
-        <v>2041.428536154907</v>
+        <v>2101.212805059962</v>
       </c>
       <c r="S42" t="n">
-        <v>1888.629049167647</v>
+        <v>2051.037518671235</v>
       </c>
       <c r="T42" t="n">
-        <v>1699.943945333632</v>
+        <v>1862.35241483722</v>
       </c>
       <c r="U42" t="n">
-        <v>1481.449152931943</v>
+        <v>1643.85762243553</v>
       </c>
       <c r="V42" t="n">
-        <v>1481.449152931943</v>
+        <v>1415.461999883864</v>
       </c>
       <c r="W42" t="n">
-        <v>1240.133284165252</v>
+        <v>1174.146131117174</v>
       </c>
       <c r="X42" t="n">
-        <v>1240.133284165252</v>
+        <v>976.229142994969</v>
       </c>
       <c r="Y42" t="n">
-        <v>1047.611957814831</v>
+        <v>783.7078166445478</v>
       </c>
     </row>
     <row r="43">
@@ -7545,31 +7545,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="C43" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="D43" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="E43" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="F43" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="G43" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="H43" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="I43" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="J43" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="K43" t="n">
         <v>75.62844384584264</v>
@@ -7590,31 +7590,31 @@
         <v>574.0835013471317</v>
       </c>
       <c r="Q43" t="n">
-        <v>535.5461600008207</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="R43" t="n">
-        <v>386.0243786151989</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="S43" t="n">
-        <v>386.0243786151989</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="T43" t="n">
-        <v>152.8454254308777</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="U43" t="n">
-        <v>42.02425610119923</v>
+        <v>328.1806575838001</v>
       </c>
       <c r="V43" t="n">
-        <v>42.02425610119923</v>
+        <v>328.1806575838001</v>
       </c>
       <c r="W43" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="X43" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="Y43" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>931.5972696392739</v>
+        <v>1235.002522653147</v>
       </c>
       <c r="C44" t="n">
-        <v>931.5972696392739</v>
+        <v>1235.002522653147</v>
       </c>
       <c r="D44" t="n">
-        <v>931.5972696392739</v>
+        <v>1235.002522653147</v>
       </c>
       <c r="E44" t="n">
-        <v>536.8115497453807</v>
+        <v>1235.002522653147</v>
       </c>
       <c r="F44" t="n">
-        <v>122.6603590555511</v>
+        <v>820.8513319633169</v>
       </c>
       <c r="G44" t="n">
-        <v>42.02425610119924</v>
+        <v>404.7473454175048</v>
       </c>
       <c r="H44" t="n">
-        <v>42.02425610119924</v>
+        <v>214.8414548924032</v>
       </c>
       <c r="I44" t="n">
         <v>42.02425610119924</v>
@@ -7651,10 +7651,10 @@
         <v>114.0228003740049</v>
       </c>
       <c r="K44" t="n">
-        <v>354.1631724187877</v>
+        <v>354.1631724187876</v>
       </c>
       <c r="L44" t="n">
-        <v>702.048545503734</v>
+        <v>702.0485455037339</v>
       </c>
       <c r="M44" t="n">
         <v>1095.287711756822</v>
@@ -7663,7 +7663,7 @@
         <v>1473.619070444538</v>
       </c>
       <c r="O44" t="n">
-        <v>1778.623654917371</v>
+        <v>1778.623654917372</v>
       </c>
       <c r="P44" t="n">
         <v>2006.780551373425</v>
@@ -7672,28 +7672,28 @@
         <v>2101.212805059962</v>
       </c>
       <c r="R44" t="n">
-        <v>2101.212805059962</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="S44" t="n">
-        <v>2101.212805059962</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="T44" t="n">
-        <v>2101.212805059962</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="U44" t="n">
-        <v>2101.212805059962</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="V44" t="n">
-        <v>2101.212805059962</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="W44" t="n">
-        <v>2101.212805059962</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="X44" t="n">
-        <v>1719.182664581455</v>
+        <v>1628.544378077308</v>
       </c>
       <c r="Y44" t="n">
-        <v>1325.640809157293</v>
+        <v>1235.002522653147</v>
       </c>
     </row>
     <row r="45">
@@ -7727,25 +7727,25 @@
         <v>42.02425610119924</v>
       </c>
       <c r="J45" t="n">
-        <v>42.02425610119924</v>
+        <v>102.2784026343054</v>
       </c>
       <c r="K45" t="n">
-        <v>271.5148086613879</v>
+        <v>331.768955194494</v>
       </c>
       <c r="L45" t="n">
-        <v>637.3366538315036</v>
+        <v>697.5908003646097</v>
       </c>
       <c r="M45" t="n">
-        <v>895.6512888769915</v>
+        <v>737.8796590913972</v>
       </c>
       <c r="N45" t="n">
-        <v>1406.916935000114</v>
+        <v>1249.145305214519</v>
       </c>
       <c r="O45" t="n">
-        <v>1799.116885784264</v>
+        <v>1641.34525599867</v>
       </c>
       <c r="P45" t="n">
-        <v>2101.212805059962</v>
+        <v>1943.441175274367</v>
       </c>
       <c r="Q45" t="n">
         <v>2101.212805059962</v>
@@ -7978,7 +7978,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>219.8255997236955</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K2" t="n">
         <v>421.3890363425141</v>
@@ -8060,19 +8060,19 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K3" t="n">
-        <v>343.8048081163522</v>
+        <v>290.729511147374</v>
       </c>
       <c r="L3" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M3" t="n">
-        <v>156.1797194573845</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N3" t="n">
         <v>623.1450866466196</v>
       </c>
       <c r="O3" t="n">
-        <v>512.0210150597484</v>
+        <v>115.8594486111111</v>
       </c>
       <c r="P3" t="n">
         <v>414.0015992319183</v>
@@ -8215,7 +8215,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>219.8255997236955</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K5" t="n">
         <v>421.3890363425141</v>
@@ -8236,7 +8236,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q5" t="n">
-        <v>276.0094878578761</v>
+        <v>276.0094878578759</v>
       </c>
       <c r="R5" t="n">
         <v>85.43134583487716</v>
@@ -8294,10 +8294,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J6" t="n">
-        <v>163.9183459425315</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K6" t="n">
-        <v>111.9961691666667</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L6" t="n">
         <v>482.0924488944969</v>
@@ -8306,7 +8306,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N6" t="n">
-        <v>565.082144790401</v>
+        <v>394.1362801165803</v>
       </c>
       <c r="O6" t="n">
         <v>512.0210150597484</v>
@@ -8452,7 +8452,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>219.8255997236955</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K8" t="n">
         <v>421.3890363425141</v>
@@ -8531,19 +8531,19 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J9" t="n">
-        <v>103.0555716666667</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K9" t="n">
-        <v>111.9961691666667</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L9" t="n">
-        <v>325.5269987024317</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M9" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N9" t="n">
-        <v>623.1450866466196</v>
+        <v>173.9082232290041</v>
       </c>
       <c r="O9" t="n">
         <v>512.0210150597484</v>
@@ -8777,10 +8777,10 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M12" t="n">
-        <v>156.1797194573845</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N12" t="n">
-        <v>623.1450866466196</v>
+        <v>333.2735058407155</v>
       </c>
       <c r="O12" t="n">
         <v>512.0210150597484</v>
@@ -8789,7 +8789,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q12" t="n">
-        <v>273.1004740566038</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R12" t="n">
         <v>59.17817075471706</v>
@@ -9005,16 +9005,16 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J15" t="n">
-        <v>103.0555716666667</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K15" t="n">
-        <v>111.9961691666667</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L15" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M15" t="n">
-        <v>605.4165828749999</v>
+        <v>315.5450020690959</v>
       </c>
       <c r="N15" t="n">
         <v>623.1450866466196</v>
@@ -9026,7 +9026,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q15" t="n">
-        <v>116.5350238645387</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R15" t="n">
         <v>59.17817075471706</v>
@@ -9242,7 +9242,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J18" t="n">
-        <v>103.0555716666667</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K18" t="n">
         <v>343.8048081163522</v>
@@ -9260,7 +9260,7 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P18" t="n">
-        <v>184.992792701879</v>
+        <v>124.1300184260142</v>
       </c>
       <c r="Q18" t="n">
         <v>113.7351914448925</v>
@@ -9403,7 +9403,7 @@
         <v>219.8255997236959</v>
       </c>
       <c r="K20" t="n">
-        <v>421.3890363425138</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L20" t="n">
         <v>542.9595789155856</v>
@@ -9491,13 +9491,13 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N21" t="n">
-        <v>623.1450866466196</v>
+        <v>333.2735058407155</v>
       </c>
       <c r="O21" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P21" t="n">
-        <v>124.1300184260142</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q21" t="n">
         <v>113.7351914448925</v>
@@ -9722,22 +9722,22 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L24" t="n">
-        <v>192.2208680885929</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M24" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N24" t="n">
-        <v>623.1450866466196</v>
+        <v>570.0697896776412</v>
       </c>
       <c r="O24" t="n">
-        <v>512.0210150597484</v>
+        <v>115.8594486111111</v>
       </c>
       <c r="P24" t="n">
         <v>414.0015992319183</v>
       </c>
       <c r="Q24" t="n">
-        <v>113.7351914448925</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R24" t="n">
         <v>59.17817075471706</v>
@@ -9968,10 +9968,10 @@
         <v>623.1450866466196</v>
       </c>
       <c r="O27" t="n">
-        <v>512.0210150597484</v>
+        <v>222.1494342538443</v>
       </c>
       <c r="P27" t="n">
-        <v>124.1300184260142</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q27" t="n">
         <v>113.7351914448925</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>219.8255997236955</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K29" t="n">
         <v>421.3890363425141</v>
@@ -10427,13 +10427,13 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J33" t="n">
-        <v>103.0555716666667</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K33" t="n">
-        <v>111.9961691666667</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L33" t="n">
-        <v>325.5269987024317</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M33" t="n">
         <v>605.4165828749999</v>
@@ -10445,10 +10445,10 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P33" t="n">
-        <v>414.0015992319183</v>
+        <v>124.1300184260142</v>
       </c>
       <c r="Q33" t="n">
-        <v>273.1004740566038</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R33" t="n">
         <v>59.17817075471706</v>
@@ -10682,7 +10682,7 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P36" t="n">
-        <v>184.992792701879</v>
+        <v>184.9927927018795</v>
       </c>
       <c r="Q36" t="n">
         <v>113.7351914448925</v>
@@ -10913,13 +10913,13 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N39" t="n">
-        <v>623.1450866466196</v>
+        <v>394.1362801165808</v>
       </c>
       <c r="O39" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P39" t="n">
-        <v>184.992792701879</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q39" t="n">
         <v>113.7351914448925</v>
@@ -11144,13 +11144,13 @@
         <v>111.9961691666667</v>
       </c>
       <c r="L42" t="n">
-        <v>424.0295070382783</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M42" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N42" t="n">
-        <v>623.1450866466196</v>
+        <v>405.7168621786901</v>
       </c>
       <c r="O42" t="n">
         <v>512.0210150597484</v>
@@ -11159,7 +11159,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q42" t="n">
-        <v>113.7351914448925</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R42" t="n">
         <v>59.17817075471706</v>
@@ -11375,7 +11375,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J45" t="n">
-        <v>103.0555716666667</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K45" t="n">
         <v>343.8048081163522</v>
@@ -11384,7 +11384,7 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M45" t="n">
-        <v>376.4077763449611</v>
+        <v>156.1797194573849</v>
       </c>
       <c r="N45" t="n">
         <v>623.1450866466196</v>
@@ -11396,7 +11396,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q45" t="n">
-        <v>113.7351914448925</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R45" t="n">
         <v>59.17817075471706</v>
@@ -22546,16 +22546,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>141.9214823212323</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>390.8378626949542</v>
+        <v>64.51757204005787</v>
       </c>
       <c r="F2" t="n">
         <v>410.0096787829314</v>
@@ -22594,25 +22594,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S2" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>222.1153568062989</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22631,22 +22631,22 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>137.45025063969</v>
+        <v>101.5979585925484</v>
       </c>
       <c r="E3" t="n">
-        <v>126.8161773945018</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22673,7 +22673,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -22694,7 +22694,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>190.5961130869169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -22719,16 +22719,16 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G4" t="n">
-        <v>0.4884972741916158</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22761,13 +22761,13 @@
         <v>230.8471636524779</v>
       </c>
       <c r="U4" t="n">
-        <v>284.3183371157911</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>258.1279513971616</v>
       </c>
       <c r="W4" t="n">
-        <v>283.2948374677749</v>
+        <v>40.8745217900929</v>
       </c>
       <c r="X4" t="n">
         <v>228.939939463578</v>
@@ -22786,7 +22786,7 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C5" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>369.0957251250487</v>
@@ -22795,16 +22795,16 @@
         <v>390.8378626949542</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>268.8174092198417</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22831,16 +22831,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>333.6094813630181</v>
@@ -22849,7 +22849,7 @@
         <v>358.909580840975</v>
       </c>
       <c r="X5" t="n">
-        <v>51.75432639970859</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -22871,13 +22871,13 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>27.43752473892766</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>133.3468600696244</v>
       </c>
       <c r="G6" t="n">
-        <v>127.4412149769483</v>
+        <v>95.69231349987228</v>
       </c>
       <c r="H6" t="n">
         <v>98.93847887876893</v>
@@ -22910,7 +22910,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -22956,16 +22956,16 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G7" t="n">
-        <v>0.4884972741916158</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22992,10 +22992,10 @@
         <v>148.0265635717656</v>
       </c>
       <c r="S7" t="n">
-        <v>211.5726649703493</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>230.8471636524779</v>
+        <v>198.976013297129</v>
       </c>
       <c r="U7" t="n">
         <v>284.3183371157911</v>
@@ -23004,7 +23004,7 @@
         <v>258.1279513971616</v>
       </c>
       <c r="W7" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>228.939939463578</v>
@@ -23026,22 +23026,22 @@
         <v>378.1144210805207</v>
       </c>
       <c r="D8" t="n">
-        <v>133.6035419151749</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23071,19 +23071,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>185.3566856159496</v>
+        <v>142.9655681609134</v>
       </c>
       <c r="T8" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>378.2098390737216</v>
@@ -23105,22 +23105,22 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>67.69846245683961</v>
+        <v>44.41334566077307</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23147,13 +23147,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>176.7061603308782</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -23223,22 +23223,22 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T10" t="n">
-        <v>101.8597073339676</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U10" t="n">
-        <v>284.3183371157911</v>
+        <v>15.70763571947964</v>
       </c>
       <c r="V10" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>283.2948374677749</v>
@@ -23269,16 +23269,16 @@
         <v>390.8378626949542</v>
       </c>
       <c r="F11" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9429466803539</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>282.2547552549956</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,10 +23308,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>10.64224838434271</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23320,10 +23320,10 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y11" t="n">
         <v>389.6064368699203</v>
@@ -23348,16 +23348,16 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>95.69231349987228</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23384,7 +23384,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -23396,10 +23396,10 @@
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>226.1116663261494</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>228.7508747949593</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -23460,19 +23460,19 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T13" t="n">
-        <v>101.8597073339676</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U13" t="n">
-        <v>284.3183371157911</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>258.1279513971616</v>
@@ -23481,10 +23481,10 @@
         <v>283.2948374677749</v>
       </c>
       <c r="X13" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>219.8148072196457</v>
+        <v>206.3344310055417</v>
       </c>
     </row>
     <row r="14">
@@ -23500,22 +23500,22 @@
         <v>378.1144210805207</v>
       </c>
       <c r="D14" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>390.8378626949542</v>
+        <v>261.0301390894035</v>
       </c>
       <c r="F14" t="n">
-        <v>367.0879608035845</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23554,13 +23554,13 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W14" t="n">
         <v>358.909580840975</v>
       </c>
       <c r="X14" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>389.6064368699203</v>
@@ -23585,16 +23585,16 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>67.18957740169296</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23621,7 +23621,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -23636,13 +23636,13 @@
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>238.9027100790231</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>195.9378182409833</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>20.02201280110251</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -23697,25 +23697,25 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T16" t="n">
-        <v>101.8597073339676</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U16" t="n">
         <v>284.3183371157911</v>
       </c>
       <c r="V16" t="n">
-        <v>258.1279513971616</v>
+        <v>14.68413607146334</v>
       </c>
       <c r="W16" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>228.939939463578</v>
@@ -23734,19 +23734,19 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D17" t="n">
-        <v>315.174347282956</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E17" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9429466803539</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>329.4930616586638</v>
@@ -23794,13 +23794,13 @@
         <v>333.6094813630181</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>43.63526932092947</v>
       </c>
     </row>
     <row r="18">
@@ -23816,13 +23816,13 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E18" t="n">
-        <v>27.43752473892766</v>
+        <v>23.33413416886201</v>
       </c>
       <c r="F18" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>127.4412149769483</v>
@@ -23937,7 +23937,7 @@
         <v>38.15196793284785</v>
       </c>
       <c r="R19" t="n">
-        <v>148.0265635717656</v>
+        <v>108.3558016390321</v>
       </c>
       <c r="S19" t="n">
         <v>211.5726649703493</v>
@@ -23946,16 +23946,16 @@
         <v>230.8471636524779</v>
       </c>
       <c r="U19" t="n">
-        <v>40.87452179009284</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V19" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X19" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>219.8148072196457</v>
@@ -23971,25 +23971,25 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E20" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9429466803539</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>329.4930616586638</v>
       </c>
       <c r="I20" t="n">
-        <v>6.925033577222365</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24031,13 +24031,13 @@
         <v>333.6094813630181</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>332.1132047555458</v>
       </c>
       <c r="Y20" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24056,13 +24056,13 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>27.43752473892766</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>133.3468600696244</v>
       </c>
       <c r="G21" t="n">
-        <v>127.4412149769483</v>
+        <v>95.69231349987228</v>
       </c>
       <c r="H21" t="n">
         <v>98.93847887876893</v>
@@ -24095,7 +24095,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -24186,16 +24186,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>15.7076357194797</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W22" t="n">
-        <v>283.2948374677749</v>
+        <v>260.6893290097385</v>
       </c>
       <c r="X22" t="n">
         <v>228.939939463578</v>
       </c>
       <c r="Y22" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24205,13 +24205,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C23" t="n">
-        <v>266.3563973017335</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>369.0957251250487</v>
+        <v>368.8140295496809</v>
       </c>
       <c r="E23" t="n">
         <v>390.8378626949542</v>
@@ -24220,7 +24220,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>411.9429466803539</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>329.4930616586638</v>
@@ -24253,7 +24253,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>185.3566856159496</v>
@@ -24271,7 +24271,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24296,16 +24296,16 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>101.5979585925484</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24335,13 +24335,13 @@
         <v>59.18642621600367</v>
       </c>
       <c r="S24" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>186.7982527956746</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>57.60636999204326</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -24375,10 +24375,10 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F25" t="n">
-        <v>74.74258424461088</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H25" t="n">
         <v>157.7789187685189</v>
@@ -24420,13 +24420,13 @@
         <v>230.8471636524779</v>
       </c>
       <c r="U25" t="n">
-        <v>284.3183371157911</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>258.1279513971616</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>40.8745217900929</v>
       </c>
       <c r="X25" t="n">
         <v>228.939939463578</v>
@@ -24442,28 +24442,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>390.1031041228389</v>
+        <v>43.57213198637282</v>
       </c>
       <c r="C26" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>390.8378626949542</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G26" t="n">
-        <v>410.6639072406834</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24499,19 +24499,19 @@
         <v>222.1153568062989</v>
       </c>
       <c r="U26" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="27">
@@ -24533,13 +24533,13 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>101.5979585925484</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I27" t="n">
         <v>67.69846245683961</v>
@@ -24575,10 +24575,10 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>186.7982527956746</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>141.1793996525907</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -24648,22 +24648,22 @@
         <v>38.15196793284785</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T28" t="n">
-        <v>63.70773940111974</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U28" t="n">
-        <v>284.3183371157911</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>258.1279513971616</v>
       </c>
       <c r="W28" t="n">
-        <v>283.2948374677749</v>
+        <v>40.8745217900929</v>
       </c>
       <c r="X28" t="n">
         <v>228.939939463578</v>
@@ -24679,28 +24679,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>378.1144210805207</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E29" t="n">
-        <v>390.8378626949542</v>
+        <v>61.50087487325766</v>
       </c>
       <c r="F29" t="n">
-        <v>123.1690268862388</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>411.9429466803539</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>329.4930616586638</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24727,25 +24727,25 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V29" t="n">
         <v>333.6094813630181</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y29" t="n">
         <v>389.6064368699203</v>
@@ -24767,19 +24767,19 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>101.5979585925484</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24809,7 +24809,7 @@
         <v>59.18642621600367</v>
       </c>
       <c r="S30" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -24821,10 +24821,10 @@
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>238.9027100790231</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>5.501912708694903</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>168.239438783432</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C31" t="n">
         <v>167.9198098429365</v>
@@ -24894,16 +24894,16 @@
         <v>230.8471636524779</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>15.70763571947964</v>
       </c>
       <c r="V31" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>283.2948374677749</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y31" t="n">
         <v>219.8148072196457</v>
@@ -24916,13 +24916,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -24931,7 +24931,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>411.9429466803539</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>329.4930616586638</v>
@@ -24964,7 +24964,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>185.3566856159496</v>
@@ -24976,16 +24976,16 @@
         <v>252.3364829231459</v>
       </c>
       <c r="V32" t="n">
-        <v>201.9800864182737</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X32" t="n">
         <v>378.2098390737216</v>
       </c>
       <c r="Y32" t="n">
-        <v>389.6064368699203</v>
+        <v>43.63526932092947</v>
       </c>
     </row>
     <row r="33">
@@ -25004,19 +25004,19 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>101.5979585925484</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25052,13 +25052,13 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>216.3098444776729</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>179.3662704274321</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -25119,7 +25119,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R34" t="n">
         <v>148.0265635717656</v>
@@ -25128,16 +25128,16 @@
         <v>211.5726649703493</v>
       </c>
       <c r="T34" t="n">
-        <v>26.57881590764384</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>40.87452179009284</v>
       </c>
       <c r="V34" t="n">
         <v>258.1279513971616</v>
       </c>
       <c r="W34" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>228.939939463578</v>
@@ -25159,16 +25159,16 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>85.12782929810993</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>390.8378626949542</v>
+        <v>280.3135517356089</v>
       </c>
       <c r="F35" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9429466803539</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>329.4930616586638</v>
@@ -25201,10 +25201,10 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T35" t="n">
         <v>222.1153568062989</v>
@@ -25213,16 +25213,16 @@
         <v>252.3364829231459</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W35" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="36">
@@ -25244,7 +25244,7 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>101.597958592548</v>
       </c>
       <c r="G36" t="n">
         <v>127.4412149769483</v>
@@ -25283,7 +25283,7 @@
         <v>59.18642621600367</v>
       </c>
       <c r="S36" t="n">
-        <v>101.597958592548</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -25365,22 +25365,22 @@
         <v>211.5726649703493</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U37" t="n">
-        <v>284.3183371157911</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>258.1279513971616</v>
       </c>
       <c r="W37" t="n">
-        <v>283.2948374677749</v>
+        <v>40.8745217900929</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y37" t="n">
-        <v>152.8632575422288</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="38">
@@ -25396,16 +25396,16 @@
         <v>378.1144210805207</v>
       </c>
       <c r="D38" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9429466803539</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>329.4930616586638</v>
@@ -25438,28 +25438,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V38" t="n">
-        <v>183.1723687120776</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X38" t="n">
         <v>378.2098390737216</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>322.9990908068725</v>
       </c>
     </row>
     <row r="39">
@@ -25484,13 +25484,13 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25520,13 +25520,13 @@
         <v>59.18642621600367</v>
       </c>
       <c r="S39" t="n">
-        <v>151.2714921173871</v>
+        <v>101.5979585925476</v>
       </c>
       <c r="T39" t="n">
-        <v>186.7982527956746</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>57.60636999204326</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -25605,13 +25605,13 @@
         <v>230.8471636524779</v>
       </c>
       <c r="U40" t="n">
-        <v>15.70763571947964</v>
+        <v>40.87452179009284</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W40" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>228.939939463578</v>
@@ -25627,25 +25627,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>378.9024688461453</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>205.0774463284961</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G41" t="n">
         <v>411.9429466803539</v>
       </c>
       <c r="H41" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>171.0890268032919</v>
@@ -25675,28 +25675,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S41" t="n">
         <v>185.3566856159496</v>
       </c>
       <c r="T41" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>378.2098390737216</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="42">
@@ -25706,7 +25706,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>32.81305655397612</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -25721,13 +25721,13 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25754,10 +25754,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>101.5979585925476</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -25766,13 +25766,13 @@
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>226.1116663261494</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>195.9378182409833</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -25830,25 +25830,25 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S43" t="n">
         <v>211.5726649703493</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U43" t="n">
-        <v>174.6053794794094</v>
+        <v>40.87452179009284</v>
       </c>
       <c r="V43" t="n">
         <v>258.1279513971616</v>
       </c>
       <c r="W43" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>228.939939463578</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C44" t="n">
         <v>378.1144210805207</v>
@@ -25873,19 +25873,19 @@
         <v>369.0957251250487</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>332.1132047555456</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>329.4930616586638</v>
+        <v>141.4862300388132</v>
       </c>
       <c r="I44" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,7 +25912,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>185.3566856159496</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>631047.6854733786</v>
+        <v>631047.6854733787</v>
       </c>
     </row>
     <row r="3">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>631047.6854733786</v>
+        <v>631047.6854733785</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>631047.6854733785</v>
+        <v>631047.6854733786</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>631047.6854733783</v>
+        <v>631047.6854733786</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>631047.6854733785</v>
+        <v>631047.6854733786</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>631047.6854733786</v>
+        <v>631047.6854733787</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>631047.6854733785</v>
+        <v>631047.6854733786</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>631047.6854733786</v>
+        <v>631047.6854733787</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>631047.6854733785</v>
+        <v>631047.6854733789</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>631047.6854733786</v>
+        <v>631047.6854733789</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>631047.6854733785</v>
+        <v>631047.6854733787</v>
       </c>
     </row>
     <row r="16">
@@ -26313,16 +26313,16 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>143923.1563360339</v>
+      </c>
+      <c r="C2" t="n">
         <v>143923.1563360338</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>143923.1563360339</v>
       </c>
-      <c r="D2" t="n">
-        <v>143923.1563360338</v>
-      </c>
       <c r="E2" t="n">
-        <v>143923.1563360338</v>
+        <v>143923.1563360339</v>
       </c>
       <c r="F2" t="n">
         <v>143923.1563360339</v>
@@ -26331,31 +26331,31 @@
         <v>143923.1563360338</v>
       </c>
       <c r="H2" t="n">
+        <v>143923.1563360339</v>
+      </c>
+      <c r="I2" t="n">
+        <v>143923.1563360339</v>
+      </c>
+      <c r="J2" t="n">
+        <v>143923.1563360339</v>
+      </c>
+      <c r="K2" t="n">
         <v>143923.1563360338</v>
       </c>
-      <c r="I2" t="n">
+      <c r="L2" t="n">
         <v>143923.1563360338</v>
-      </c>
-      <c r="J2" t="n">
-        <v>143923.1563360338</v>
-      </c>
-      <c r="K2" t="n">
-        <v>143923.1563360339</v>
-      </c>
-      <c r="L2" t="n">
-        <v>143923.1563360337</v>
       </c>
       <c r="M2" t="n">
         <v>143923.1563360338</v>
       </c>
       <c r="N2" t="n">
-        <v>143923.1563360338</v>
+        <v>143923.1563360339</v>
       </c>
       <c r="O2" t="n">
         <v>143923.1563360338</v>
       </c>
       <c r="P2" t="n">
-        <v>143923.1563360339</v>
+        <v>143923.1563360338</v>
       </c>
     </row>
     <row r="3">
@@ -26417,10 +26417,10 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>399.9854922104111</v>
+      </c>
+      <c r="C4" t="n">
         <v>399.9854922104112</v>
-      </c>
-      <c r="C4" t="n">
-        <v>399.9854922104111</v>
       </c>
       <c r="D4" t="n">
         <v>399.9854922104112</v>
@@ -26435,16 +26435,16 @@
         <v>399.9854922104112</v>
       </c>
       <c r="H4" t="n">
-        <v>399.9854922104111</v>
+        <v>399.9854922104112</v>
       </c>
       <c r="I4" t="n">
         <v>399.9854922104112</v>
       </c>
       <c r="J4" t="n">
-        <v>399.9854922104111</v>
+        <v>399.9854922104112</v>
       </c>
       <c r="K4" t="n">
-        <v>399.9854922104111</v>
+        <v>399.9854922104112</v>
       </c>
       <c r="L4" t="n">
         <v>399.9854922104112</v>
@@ -26502,13 +26502,13 @@
         <v>31938.43463691141</v>
       </c>
       <c r="M5" t="n">
-        <v>31938.43463691141</v>
+        <v>31938.43463691142</v>
       </c>
       <c r="N5" t="n">
-        <v>31938.43463691141</v>
+        <v>31938.43463691142</v>
       </c>
       <c r="O5" t="n">
-        <v>31938.43463691141</v>
+        <v>31938.43463691142</v>
       </c>
       <c r="P5" t="n">
         <v>31938.43463691142</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-98084.04851061535</v>
+        <v>-106203.6379971211</v>
       </c>
       <c r="C6" t="n">
-        <v>77957.13620691205</v>
+        <v>69837.54672040623</v>
       </c>
       <c r="D6" t="n">
-        <v>77957.13620691202</v>
+        <v>69837.54672040626</v>
       </c>
       <c r="E6" t="n">
-        <v>111584.736206912</v>
+        <v>103465.1467204063</v>
       </c>
       <c r="F6" t="n">
-        <v>111584.7362069121</v>
+        <v>103465.1467204063</v>
       </c>
       <c r="G6" t="n">
-        <v>111584.736206912</v>
+        <v>103465.1467204062</v>
       </c>
       <c r="H6" t="n">
-        <v>111584.736206912</v>
+        <v>103465.1467204063</v>
       </c>
       <c r="I6" t="n">
-        <v>111584.736206912</v>
+        <v>103465.1467204063</v>
       </c>
       <c r="J6" t="n">
-        <v>-25857.69458486514</v>
+        <v>-33977.28407137084</v>
       </c>
       <c r="K6" t="n">
-        <v>111584.7362069121</v>
+        <v>103465.1467204062</v>
       </c>
       <c r="L6" t="n">
-        <v>111584.7362069119</v>
+        <v>103465.1467204062</v>
       </c>
       <c r="M6" t="n">
-        <v>111584.736206912</v>
+        <v>103465.1467204062</v>
       </c>
       <c r="N6" t="n">
-        <v>111584.736206912</v>
+        <v>103465.1467204063</v>
       </c>
       <c r="O6" t="n">
-        <v>111584.736206912</v>
+        <v>103465.1467204062</v>
       </c>
       <c r="P6" t="n">
-        <v>111584.736206912</v>
+        <v>103465.1467204062</v>
       </c>
     </row>
   </sheetData>
@@ -26822,13 +26822,13 @@
         <v>525.3032012649903</v>
       </c>
       <c r="M4" t="n">
-        <v>525.3032012649903</v>
+        <v>525.3032012649904</v>
       </c>
       <c r="N4" t="n">
-        <v>525.3032012649903</v>
+        <v>525.3032012649904</v>
       </c>
       <c r="O4" t="n">
-        <v>525.3032012649903</v>
+        <v>525.3032012649904</v>
       </c>
       <c r="P4" t="n">
         <v>525.3032012649904</v>
@@ -34698,7 +34698,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>72.7258022957629</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K2" t="n">
         <v>242.5660323684674</v>
@@ -34710,7 +34710,7 @@
         <v>397.2112790435232</v>
       </c>
       <c r="N2" t="n">
-        <v>382.1528875633492</v>
+        <v>382.1528875633487</v>
       </c>
       <c r="O2" t="n">
         <v>308.0854388614484</v>
@@ -34780,19 +34780,19 @@
         <v>60.86277427586479</v>
       </c>
       <c r="K3" t="n">
-        <v>231.8086389496855</v>
+        <v>178.7333419807073</v>
       </c>
       <c r="L3" t="n">
         <v>369.5170153233491</v>
       </c>
       <c r="M3" t="n">
-        <v>40.69581689574456</v>
+        <v>489.93268031336</v>
       </c>
       <c r="N3" t="n">
         <v>516.4299455789112</v>
       </c>
       <c r="O3" t="n">
-        <v>396.1615664486372</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>305.147393207775</v>
@@ -34935,7 +34935,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>72.7258022957629</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K5" t="n">
         <v>242.5660323684674</v>
@@ -34956,7 +34956,7 @@
         <v>230.4615115717709</v>
       </c>
       <c r="Q5" t="n">
-        <v>95.38611483488586</v>
+        <v>95.38611483488566</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>60.86277427586479</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L6" t="n">
         <v>369.5170153233491</v>
@@ -35026,7 +35026,7 @@
         <v>489.93268031336</v>
       </c>
       <c r="N6" t="n">
-        <v>458.3670037226927</v>
+        <v>287.421139048872</v>
       </c>
       <c r="O6" t="n">
         <v>396.1615664486372</v>
@@ -35172,7 +35172,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>72.7258022957629</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K8" t="n">
         <v>242.5660323684674</v>
@@ -35251,19 +35251,19 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L9" t="n">
-        <v>212.9515651312839</v>
+        <v>369.5170153233491</v>
       </c>
       <c r="M9" t="n">
         <v>489.93268031336</v>
       </c>
       <c r="N9" t="n">
-        <v>516.4299455789112</v>
+        <v>67.19308216129573</v>
       </c>
       <c r="O9" t="n">
         <v>396.1615664486372</v>
@@ -35497,10 +35497,10 @@
         <v>369.5170153233491</v>
       </c>
       <c r="M12" t="n">
-        <v>40.69581689574456</v>
+        <v>489.93268031336</v>
       </c>
       <c r="N12" t="n">
-        <v>516.4299455789112</v>
+        <v>226.5583647730072</v>
       </c>
       <c r="O12" t="n">
         <v>396.1615664486372</v>
@@ -35509,7 +35509,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.3652826117113</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35667,7 +35667,7 @@
         <v>230.4615115717709</v>
       </c>
       <c r="Q14" t="n">
-        <v>95.38611483488586</v>
+        <v>95.38611483488566</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,16 +35725,16 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L15" t="n">
         <v>369.5170153233491</v>
       </c>
       <c r="M15" t="n">
-        <v>489.93268031336</v>
+        <v>200.061099507456</v>
       </c>
       <c r="N15" t="n">
         <v>516.4299455789112</v>
@@ -35746,7 +35746,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.799832419646239</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35962,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K18" t="n">
         <v>231.8086389496855</v>
@@ -35980,7 +35980,7 @@
         <v>396.1615664486372</v>
       </c>
       <c r="P18" t="n">
-        <v>76.13858667773572</v>
+        <v>15.27581240187084</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36123,7 +36123,7 @@
         <v>72.72580229576329</v>
       </c>
       <c r="K20" t="n">
-        <v>242.5660323684671</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L20" t="n">
         <v>351.3993667524709</v>
@@ -36211,13 +36211,13 @@
         <v>489.93268031336</v>
       </c>
       <c r="N21" t="n">
-        <v>516.4299455789112</v>
+        <v>226.5583647730072</v>
       </c>
       <c r="O21" t="n">
         <v>396.1615664486372</v>
       </c>
       <c r="P21" t="n">
-        <v>15.27581240187084</v>
+        <v>305.147393207775</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36442,22 +36442,22 @@
         <v>231.8086389496855</v>
       </c>
       <c r="L24" t="n">
-        <v>79.64543451744507</v>
+        <v>369.5170153233491</v>
       </c>
       <c r="M24" t="n">
         <v>489.93268031336</v>
       </c>
       <c r="N24" t="n">
-        <v>516.4299455789112</v>
+        <v>463.3546486099329</v>
       </c>
       <c r="O24" t="n">
-        <v>396.1615664486372</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>305.147393207775</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36688,10 +36688,10 @@
         <v>516.4299455789112</v>
       </c>
       <c r="O27" t="n">
-        <v>396.1615664486372</v>
+        <v>106.2899856427332</v>
       </c>
       <c r="P27" t="n">
-        <v>15.27581240187084</v>
+        <v>305.147393207775</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36831,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>72.7258022957629</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K29" t="n">
         <v>242.5660323684674</v>
@@ -37147,13 +37147,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L33" t="n">
-        <v>212.9515651312839</v>
+        <v>369.5170153233491</v>
       </c>
       <c r="M33" t="n">
         <v>489.93268031336</v>
@@ -37165,10 +37165,10 @@
         <v>396.1615664486372</v>
       </c>
       <c r="P33" t="n">
-        <v>305.147393207775</v>
+        <v>15.27581240187084</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.3652826117113</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37402,7 +37402,7 @@
         <v>396.1615664486372</v>
       </c>
       <c r="P36" t="n">
-        <v>76.13858667773572</v>
+        <v>76.13858667773617</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37633,13 +37633,13 @@
         <v>489.93268031336</v>
       </c>
       <c r="N39" t="n">
-        <v>516.4299455789112</v>
+        <v>287.4211390488725</v>
       </c>
       <c r="O39" t="n">
         <v>396.1615664486372</v>
       </c>
       <c r="P39" t="n">
-        <v>76.13858667773572</v>
+        <v>305.147393207775</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37864,13 +37864,13 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>311.4540734671306</v>
+        <v>369.5170153233491</v>
       </c>
       <c r="M42" t="n">
         <v>489.93268031336</v>
       </c>
       <c r="N42" t="n">
-        <v>516.4299455789112</v>
+        <v>299.0017211109817</v>
       </c>
       <c r="O42" t="n">
         <v>396.1615664486372</v>
@@ -37879,7 +37879,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K45" t="n">
         <v>231.8086389496855</v>
@@ -38104,7 +38104,7 @@
         <v>369.5170153233491</v>
       </c>
       <c r="M45" t="n">
-        <v>260.9238737833212</v>
+        <v>40.69581689574502</v>
       </c>
       <c r="N45" t="n">
         <v>516.4299455789112</v>
@@ -38116,7 +38116,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
